--- a/streams0.xlsx
+++ b/streams0.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{012531F4-FA96-41E2-AA60-AFB7E1A8F923}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB2D41FC-53BC-4834-9B93-2023902FB7B8}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="gas" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="25">
   <si>
     <t>GTU-PEVD</t>
   </si>
@@ -132,30 +132,12 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="8">
@@ -252,10 +234,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -268,15 +249,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -299,9 +271,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -317,44 +286,7 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal 2" xfId="1" xr:uid="{833C66B1-4070-4F6B-8BE7-834B60BC98EC}"/>
@@ -655,287 +587,287 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" style="16" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="13"/>
-    <col min="3" max="4" width="9.140625" style="14"/>
-    <col min="5" max="5" width="9.140625" style="15"/>
-    <col min="6" max="10" width="9.140625" style="14"/>
-    <col min="11" max="11" width="9.140625" style="13"/>
-    <col min="12" max="14" width="9.140625" style="14"/>
-    <col min="15" max="16384" width="9.140625" style="22"/>
+    <col min="1" max="1" width="14.85546875" style="12" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="9"/>
+    <col min="3" max="4" width="9.140625" style="10"/>
+    <col min="5" max="5" width="9.140625" style="11"/>
+    <col min="6" max="10" width="9.140625" style="10"/>
+    <col min="11" max="11" width="9.140625" style="9"/>
+    <col min="12" max="14" width="9.140625" style="10"/>
+    <col min="15" max="16384" width="9.140625" style="17"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="17"/>
-      <c r="B1" s="10" t="s">
+      <c r="A1" s="13"/>
+      <c r="B1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="H1" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="I1" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="21" t="s">
+      <c r="J1" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="K1" s="14"/>
+      <c r="K1" s="10"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="13">
+      <c r="B2" s="9">
         <v>542.1</v>
       </c>
-      <c r="C2" s="14">
+      <c r="C2" s="10">
         <v>0.1</v>
       </c>
-      <c r="D2" s="14">
+      <c r="D2" s="10">
         <f>[1]!PropsSI("H","P",C2*10^6,"T",B2+273.15,"REFPROP::"&amp;[1]!MixtureString($F$1:$J$1,F2:J2))/1000</f>
         <v>958.86919853128609</v>
       </c>
-      <c r="E2" s="15">
+      <c r="E2" s="11">
         <v>503.8</v>
       </c>
-      <c r="F2" s="13">
+      <c r="F2" s="9">
         <v>0.78029999999999999</v>
       </c>
-      <c r="G2" s="14">
+      <c r="G2" s="10">
         <v>0.1237</v>
       </c>
-      <c r="H2" s="14">
+      <c r="H2" s="10">
         <v>3.0099999999999998E-2</v>
       </c>
-      <c r="I2" s="14">
+      <c r="I2" s="10">
         <v>5.9400000000000001E-2</v>
       </c>
-      <c r="J2" s="15">
+      <c r="J2" s="11">
         <v>6.4999999999999997E-3</v>
       </c>
-      <c r="P2" s="23"/>
+      <c r="P2" s="18"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="13">
+      <c r="B3" s="9">
         <v>468.05</v>
       </c>
-      <c r="C3" s="14">
+      <c r="C3" s="10">
         <v>0.1</v>
       </c>
-      <c r="D3" s="14">
+      <c r="D3" s="10">
         <f>[1]!PropsSI("H","P",C3*10^6,"T",B3+273.15,"REFPROP::"&amp;[1]!MixtureString($F$1:$J$1,F3:J3))/1000</f>
         <v>874.26792911178234</v>
       </c>
-      <c r="E3" s="15">
+      <c r="E3" s="11">
         <v>503.8</v>
       </c>
-      <c r="F3" s="13">
+      <c r="F3" s="9">
         <v>0.78029999999999999</v>
       </c>
-      <c r="G3" s="14">
+      <c r="G3" s="10">
         <v>0.1237</v>
       </c>
-      <c r="H3" s="14">
+      <c r="H3" s="10">
         <v>3.0099999999999998E-2</v>
       </c>
-      <c r="I3" s="14">
+      <c r="I3" s="10">
         <v>5.9400000000000001E-2</v>
       </c>
-      <c r="J3" s="15">
+      <c r="J3" s="11">
         <v>6.4999999999999997E-3</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="13">
+      <c r="B4" s="9">
         <v>309.2</v>
       </c>
-      <c r="C4" s="14">
+      <c r="C4" s="10">
         <v>0.1</v>
       </c>
-      <c r="D4" s="14">
+      <c r="D4" s="10">
         <f>[1]!PropsSI("H","P",C4*10^6,"T",B4+273.15,"REFPROP::"&amp;[1]!MixtureString($F$1:$J$1,F4:J4))/1000</f>
         <v>697.66595139225319</v>
       </c>
-      <c r="E4" s="15">
+      <c r="E4" s="11">
         <v>503.8</v>
       </c>
-      <c r="F4" s="13">
+      <c r="F4" s="9">
         <v>0.78029999999999999</v>
       </c>
-      <c r="G4" s="14">
+      <c r="G4" s="10">
         <v>0.1237</v>
       </c>
-      <c r="H4" s="14">
+      <c r="H4" s="10">
         <v>3.0099999999999998E-2</v>
       </c>
-      <c r="I4" s="14">
+      <c r="I4" s="10">
         <v>5.9400000000000001E-2</v>
       </c>
-      <c r="J4" s="15">
+      <c r="J4" s="11">
         <v>6.4999999999999997E-3</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="13">
+      <c r="B5" s="9">
         <v>235.9</v>
       </c>
-      <c r="C5" s="14">
+      <c r="C5" s="10">
         <v>0.1</v>
       </c>
-      <c r="D5" s="14">
+      <c r="D5" s="10">
         <f>[1]!PropsSI("H","P",C5*10^6,"T",B5+273.15,"REFPROP::"&amp;[1]!MixtureString($F$1:$J$1,F5:J5))/1000</f>
         <v>618.33586643179672</v>
       </c>
-      <c r="E5" s="15">
+      <c r="E5" s="11">
         <v>503.8</v>
       </c>
-      <c r="F5" s="13">
+      <c r="F5" s="9">
         <v>0.78029999999999999</v>
       </c>
-      <c r="G5" s="14">
+      <c r="G5" s="10">
         <v>0.1237</v>
       </c>
-      <c r="H5" s="14">
+      <c r="H5" s="10">
         <v>3.0099999999999998E-2</v>
       </c>
-      <c r="I5" s="14">
+      <c r="I5" s="10">
         <v>5.9400000000000001E-2</v>
       </c>
-      <c r="J5" s="15">
+      <c r="J5" s="11">
         <v>6.4999999999999997E-3</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A6" s="16" t="s">
+      <c r="A6" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="13">
+      <c r="B6" s="9">
         <v>233</v>
       </c>
-      <c r="C6" s="14">
+      <c r="C6" s="10">
         <v>0.1</v>
       </c>
-      <c r="D6" s="14">
+      <c r="D6" s="10">
         <f>[1]!PropsSI("H","P",C6*10^6,"T",B6+273.15,"REFPROP::"&amp;[1]!MixtureString($F$1:$J$1,F6:J6))/1000</f>
         <v>615.22281759257271</v>
       </c>
-      <c r="E6" s="15">
+      <c r="E6" s="11">
         <v>503.8</v>
       </c>
-      <c r="F6" s="13">
+      <c r="F6" s="9">
         <v>0.78029999999999999</v>
       </c>
-      <c r="G6" s="14">
+      <c r="G6" s="10">
         <v>0.1237</v>
       </c>
-      <c r="H6" s="14">
+      <c r="H6" s="10">
         <v>3.0099999999999998E-2</v>
       </c>
-      <c r="I6" s="14">
+      <c r="I6" s="10">
         <v>5.9400000000000001E-2</v>
       </c>
-      <c r="J6" s="15">
+      <c r="J6" s="11">
         <v>6.4999999999999997E-3</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A7" s="16" t="s">
+      <c r="A7" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="13">
+      <c r="B7" s="9">
         <v>175.5</v>
       </c>
-      <c r="C7" s="14">
+      <c r="C7" s="10">
         <v>0.1</v>
       </c>
-      <c r="D7" s="14">
+      <c r="D7" s="10">
         <f>[1]!PropsSI("H","P",C7*10^6,"T",B7+273.15,"REFPROP::"&amp;[1]!MixtureString($F$1:$J$1,F7:J7))/1000</f>
         <v>553.86016830512403</v>
       </c>
-      <c r="E7" s="15">
+      <c r="E7" s="11">
         <v>503.8</v>
       </c>
-      <c r="F7" s="13">
+      <c r="F7" s="9">
         <v>0.78029999999999999</v>
       </c>
-      <c r="G7" s="14">
+      <c r="G7" s="10">
         <v>0.1237</v>
       </c>
-      <c r="H7" s="14">
+      <c r="H7" s="10">
         <v>3.0099999999999998E-2</v>
       </c>
-      <c r="I7" s="14">
+      <c r="I7" s="10">
         <v>5.9400000000000001E-2</v>
       </c>
-      <c r="J7" s="15">
+      <c r="J7" s="11">
         <v>6.4999999999999997E-3</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A8" s="16" t="s">
+      <c r="A8" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="13">
+      <c r="B8" s="9">
         <v>106.9</v>
       </c>
-      <c r="C8" s="14">
+      <c r="C8" s="10">
         <v>0.1</v>
       </c>
-      <c r="D8" s="14">
+      <c r="D8" s="10">
         <f>[1]!PropsSI("H","P",C8*10^6,"T",B8+273.15,"REFPROP::"&amp;[1]!MixtureString($F$1:$J$1,F8:J8))/1000</f>
         <v>481.43243266974537</v>
       </c>
-      <c r="E8" s="15">
+      <c r="E8" s="11">
         <v>503.8</v>
       </c>
-      <c r="F8" s="13">
+      <c r="F8" s="9">
         <v>0.78029999999999999</v>
       </c>
-      <c r="G8" s="14">
+      <c r="G8" s="10">
         <v>0.1237</v>
       </c>
-      <c r="H8" s="14">
+      <c r="H8" s="10">
         <v>3.0099999999999998E-2</v>
       </c>
-      <c r="I8" s="14">
+      <c r="I8" s="10">
         <v>5.9400000000000001E-2</v>
       </c>
-      <c r="J8" s="15">
+      <c r="J8" s="11">
         <v>6.4999999999999997E-3</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="C11" s="4"/>
+      <c r="C11" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -946,235 +878,247 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A78D0049-A33A-42B4-86C2-1F7629C05FA7}">
   <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" style="6" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="3"/>
-    <col min="3" max="4" width="9.140625" style="4"/>
-    <col min="5" max="5" width="9.140625" style="5"/>
-    <col min="6" max="6" width="9.140625" style="3"/>
-    <col min="7" max="9" width="9.140625" style="4"/>
+    <col min="1" max="1" width="14.85546875" style="5" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="2"/>
+    <col min="3" max="4" width="9.140625" style="3"/>
+    <col min="5" max="5" width="9.140625" style="4"/>
+    <col min="6" max="6" width="9.140625" style="2"/>
+    <col min="7" max="9" width="9.140625" style="3"/>
     <col min="10" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="2" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="18"/>
-      <c r="B1" s="7" t="s">
+    <row r="1" spans="1:9" s="19" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="13"/>
+      <c r="B1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-    </row>
-    <row r="2" spans="1:9" s="20" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="19" t="s">
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+    </row>
+    <row r="2" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="13">
+      <c r="B2" s="9">
         <v>511.5</v>
       </c>
-      <c r="C2" s="14">
+      <c r="C2" s="10">
         <v>8.407</v>
       </c>
-      <c r="D2" s="14">
+      <c r="D2" s="10">
         <f>[1]!PropsSI("H","T",B2+273.15,"P",C2*10^6,"Water")/1000</f>
         <v>3423.2099783420958</v>
       </c>
-      <c r="E2" s="15">
+      <c r="E2" s="11">
         <v>63.4</v>
       </c>
-      <c r="F2" s="13"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
-    </row>
-    <row r="3" spans="1:9" s="20" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="19" t="s">
+      <c r="F2" s="9"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+    </row>
+    <row r="3" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="13">
+      <c r="B3" s="9">
         <f>[1]!PropsSI("T","P",C3*10^6,"Q",1,"Water")-273.15</f>
         <v>301.29755574753347</v>
       </c>
-      <c r="C3" s="14">
+      <c r="C3" s="10">
         <v>8.7460000000000004</v>
       </c>
-      <c r="D3" s="14">
+      <c r="D3" s="10">
         <f>[1]!PropsSI("H","T",B3+273.15,"Q",1,"Water")/1000</f>
         <v>2747.1040230157951</v>
       </c>
-      <c r="E3" s="15">
+      <c r="E3" s="11">
         <v>63.4</v>
       </c>
-      <c r="F3" s="13"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
-    </row>
-    <row r="4" spans="1:9" s="20" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="19" t="s">
+      <c r="F3" s="9"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+    </row>
+    <row r="4" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="13">
+      <c r="B4" s="9">
         <v>298.8</v>
       </c>
-      <c r="C4" s="14">
+      <c r="C4" s="10">
         <v>8.7460000000000004</v>
       </c>
-      <c r="D4" s="14">
+      <c r="D4" s="10">
         <f>[1]!PropsSI("H","T",B4+273.15,"P",C4*10^6,"Water")/1000</f>
         <v>1337.9482651031026</v>
       </c>
-      <c r="E4" s="15">
+      <c r="E4" s="11">
         <v>63.4</v>
       </c>
-      <c r="F4" s="13"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="14"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="6" t="s">
+      <c r="F4" s="9"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+    </row>
+    <row r="5" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="9">
         <v>166.5</v>
       </c>
-      <c r="C5" s="14">
+      <c r="C5" s="10">
         <v>8.7460000000000004</v>
       </c>
-      <c r="D5" s="14">
+      <c r="D5" s="10">
         <f>[1]!PropsSI("H","T",B5+273.15,"P",C5*10^6,"Water")/1000</f>
         <v>708.31984887431372</v>
       </c>
-      <c r="E5" s="15">
+      <c r="E5" s="11">
         <v>63.4</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" s="37" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="33" t="s">
+      <c r="F5" s="9"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+    </row>
+    <row r="6" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="34">
+      <c r="B6" s="9">
         <v>164.5</v>
       </c>
-      <c r="C6" s="35">
+      <c r="C6" s="10">
         <v>0.69640000000000002</v>
       </c>
-      <c r="D6" s="35">
+      <c r="D6" s="10">
         <f>[1]!PropsSI("H","T",B6+273.15,"P",C6*10^6,"Water")/1000</f>
         <v>695.05874428701088</v>
       </c>
-      <c r="E6" s="36">
+      <c r="E6" s="11">
         <f>E5</f>
         <v>63.4</v>
       </c>
-      <c r="F6" s="34"/>
-      <c r="G6" s="35"/>
-      <c r="H6" s="35"/>
-      <c r="I6" s="35"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="24" t="s">
+      <c r="F6" s="9"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+    </row>
+    <row r="7" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="25">
+      <c r="B7" s="9">
         <v>211.6</v>
       </c>
-      <c r="C7" s="26">
+      <c r="C7" s="10">
         <v>0.69099999999999995</v>
       </c>
-      <c r="D7" s="26">
+      <c r="D7" s="10">
         <f>[1]!PropsSI("H","T",B7+273.15,"P",C7*10^6,"Water")/1000</f>
         <v>2871.4818365716997</v>
       </c>
-      <c r="E7" s="27">
+      <c r="E7" s="11">
         <v>14.76</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="24" t="s">
+      <c r="F7" s="9"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
+    </row>
+    <row r="8" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="25">
+      <c r="B8" s="9">
         <f>[1]!PropsSI("T","P",C8*10^6,"Q",1,"Water")-273.15</f>
         <v>164.73836143543406</v>
       </c>
-      <c r="C8" s="26">
+      <c r="C8" s="10">
         <v>0.69640000000000002</v>
       </c>
-      <c r="D8" s="26">
+      <c r="D8" s="10">
         <f>[1]!PropsSI("H","P",C8*10^6,"Q",1,"Water")/1000</f>
         <v>2762.534980413358</v>
       </c>
-      <c r="E8" s="27">
+      <c r="E8" s="11">
         <v>14.76</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" s="32" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="28" t="s">
+      <c r="F8" s="9"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+    </row>
+    <row r="9" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="29">
+      <c r="B9" s="9">
         <v>164.6</v>
       </c>
-      <c r="C9" s="30">
+      <c r="C9" s="10">
         <v>0.69640000000000002</v>
       </c>
-      <c r="D9" s="30">
+      <c r="D9" s="10">
         <f>[1]!PropsSI("H","T",B9+273.15,"P",C9*10^6,"Water")/1000</f>
         <v>695.4937008073166</v>
       </c>
-      <c r="E9" s="31">
+      <c r="E9" s="11">
         <v>14.76</v>
       </c>
-      <c r="F9" s="29"/>
-      <c r="G9" s="30"/>
-      <c r="H9" s="30"/>
-      <c r="I9" s="30"/>
-    </row>
-    <row r="10" spans="1:9" s="32" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="28" t="s">
+      <c r="F9" s="9"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+    </row>
+    <row r="10" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="29">
+      <c r="B10" s="9">
         <v>60</v>
       </c>
-      <c r="C10" s="30">
+      <c r="C10" s="10">
         <v>0.69640000000000002</v>
       </c>
-      <c r="D10" s="30">
+      <c r="D10" s="10">
         <f>[1]!PropsSI("H","T",B10+273.15,"P",C10*10^6,"Water")/1000</f>
         <v>251.74839576328077</v>
       </c>
-      <c r="E10" s="31">
+      <c r="E10" s="11">
         <f>E9+E5</f>
         <v>78.16</v>
       </c>
-      <c r="F10" s="29"/>
-      <c r="G10" s="30"/>
-      <c r="H10" s="30"/>
-      <c r="I10" s="30"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="D11" s="14"/>
+      <c r="D11" s="10"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="D12" s="14"/>
+      <c r="D12" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/streams0.xlsx
+++ b/streams0.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB2D41FC-53BC-4834-9B93-2023902FB7B8}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A0F147E-4714-4554-A47B-2148D162145F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="25">
   <si>
     <t>GTU-PEVD</t>
   </si>
@@ -879,7 +879,7 @@
   <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>

--- a/streams0.xlsx
+++ b/streams0.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A0F147E-4714-4554-A47B-2148D162145F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BCE3C3B-4AB8-4EFC-A764-4822E44B4AB0}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="28">
   <si>
     <t>GTU-PEVD</t>
   </si>
@@ -99,6 +99,15 @@
   </si>
   <si>
     <t>IND-PPND</t>
+  </si>
+  <si>
+    <t>GPK-RECIRC</t>
+  </si>
+  <si>
+    <t>GPK-BYPASS</t>
+  </si>
+  <si>
+    <t>X-SMESH</t>
   </si>
 </sst>
 </file>
@@ -132,12 +141,24 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="8">
@@ -234,7 +255,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -287,6 +308,24 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal 2" xfId="1" xr:uid="{833C66B1-4070-4F6B-8BE7-834B60BC98EC}"/>
@@ -588,7 +627,7 @@
   <dimension ref="A1:P11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -876,10 +915,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A78D0049-A33A-42B4-86C2-1F7629C05FA7}">
-  <dimension ref="A1:I12"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -894,7 +933,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="19" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="13"/>
+      <c r="A1" s="24"/>
       <c r="B1" s="6" t="s">
         <v>3</v>
       </c>
@@ -1006,17 +1045,17 @@
         <v>20</v>
       </c>
       <c r="B6" s="9">
-        <v>164.5</v>
+        <f>[1]!PropsSI("T","P",C6*10^6,"Q",0,"Water")-273.15</f>
+        <v>164.73836143543406</v>
       </c>
       <c r="C6" s="10">
         <v>0.69640000000000002</v>
       </c>
       <c r="D6" s="10">
-        <f>[1]!PropsSI("H","T",B6+273.15,"P",C6*10^6,"Water")/1000</f>
-        <v>695.05874428701088</v>
+        <f>[1]!PropsSI("H","T",B6+273.15,"Q",0,"Water")/1000</f>
+        <v>696.09556718341082</v>
       </c>
       <c r="E6" s="11">
-        <f>E5</f>
         <v>63.4</v>
       </c>
       <c r="F6" s="9"/>
@@ -1084,7 +1123,8 @@
         <v>695.4937008073166</v>
       </c>
       <c r="E9" s="11">
-        <v>14.76</v>
+        <f>E8+E6</f>
+        <v>78.16</v>
       </c>
       <c r="F9" s="9"/>
       <c r="G9" s="10"/>
@@ -1106,7 +1146,7 @@
         <v>251.74839576328077</v>
       </c>
       <c r="E10" s="11">
-        <f>E9+E5</f>
+        <f>E9</f>
         <v>78.16</v>
       </c>
       <c r="F10" s="9"/>
@@ -1115,10 +1155,51 @@
       <c r="I10" s="10"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="D11" s="10"/>
+      <c r="A11" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="21"/>
+      <c r="C11" s="22">
+        <v>0.69640000000000002</v>
+      </c>
+      <c r="D11" s="22"/>
+      <c r="E11" s="23">
+        <v>10.75</v>
+      </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="D12" s="10"/>
+      <c r="A12" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" s="21"/>
+      <c r="C12" s="22">
+        <v>0.69640000000000002</v>
+      </c>
+      <c r="D12" s="22"/>
+      <c r="E12" s="23">
+        <v>6.62</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" s="21">
+        <v>44.2</v>
+      </c>
+      <c r="C13" s="22">
+        <v>0.69640000000000002</v>
+      </c>
+      <c r="D13" s="22"/>
+      <c r="E13" s="25">
+        <v>78.16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E14" s="4">
+        <f>E13-E10</f>
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/streams0.xlsx
+++ b/streams0.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BCE3C3B-4AB8-4EFC-A764-4822E44B4AB0}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{484EEDAB-27B8-4E7F-B688-E19C3AFEC918}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="28">
   <si>
     <t>GTU-PEVD</t>
   </si>
@@ -117,7 +117,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.00000"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -140,8 +140,15 @@
       <family val="1"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+      <charset val="204"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -160,6 +167,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="8">
     <border>
@@ -255,7 +268,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -324,6 +337,12 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -915,10 +934,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A78D0049-A33A-42B4-86C2-1F7629C05FA7}">
-  <dimension ref="A1:I14"/>
+  <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1000,15 +1019,15 @@
       <c r="A4" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="9">
-        <v>298.8</v>
+      <c r="B4" s="27">
+        <v>294</v>
       </c>
       <c r="C4" s="10">
         <v>8.7460000000000004</v>
       </c>
       <c r="D4" s="10">
         <f>[1]!PropsSI("H","T",B4+273.15,"P",C4*10^6,"Water")/1000</f>
-        <v>1337.9482651031026</v>
+        <v>1310.947645065298</v>
       </c>
       <c r="E4" s="11">
         <v>63.4</v>
@@ -1201,6 +1220,9 @@
         <v>0</v>
       </c>
     </row>
+    <row r="19" spans="3:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="C19" s="26"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/streams0.xlsx
+++ b/streams0.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{484EEDAB-27B8-4E7F-B688-E19C3AFEC918}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63B49A0E-89E8-4B55-BB86-873F55DDC5BB}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="30">
   <si>
     <t>GTU-PEVD</t>
   </si>
@@ -108,6 +108,12 @@
   </si>
   <si>
     <t>X-SMESH</t>
+  </si>
+  <si>
+    <t>#298.8</t>
+  </si>
+  <si>
+    <t>#164.6</t>
   </si>
 </sst>
 </file>
@@ -937,7 +943,7 @@
   <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1032,7 +1038,9 @@
       <c r="E4" s="11">
         <v>63.4</v>
       </c>
-      <c r="F4" s="9"/>
+      <c r="F4" s="9" t="s">
+        <v>28</v>
+      </c>
       <c r="G4" s="10"/>
       <c r="H4" s="10"/>
       <c r="I4" s="10"/>
@@ -1131,21 +1139,23 @@
       <c r="A9" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="9">
-        <v>164.6</v>
+      <c r="B9" s="27">
+        <v>150</v>
       </c>
       <c r="C9" s="10">
         <v>0.69640000000000002</v>
       </c>
       <c r="D9" s="10">
         <f>[1]!PropsSI("H","T",B9+273.15,"P",C9*10^6,"Water")/1000</f>
-        <v>695.4937008073166</v>
+        <v>632.31531116667406</v>
       </c>
       <c r="E9" s="11">
         <f>E8+E6</f>
         <v>78.16</v>
       </c>
-      <c r="F9" s="9"/>
+      <c r="F9" s="9" t="s">
+        <v>29</v>
+      </c>
       <c r="G9" s="10"/>
       <c r="H9" s="10"/>
       <c r="I9" s="10"/>
@@ -1214,12 +1224,6 @@
         <v>78.16</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="E14" s="4">
-        <f>E13-E10</f>
-        <v>0</v>
-      </c>
-    </row>
     <row r="19" spans="3:3" ht="15" x14ac:dyDescent="0.2">
       <c r="C19" s="26"/>
     </row>

--- a/streams0.xlsx
+++ b/streams0.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63B49A0E-89E8-4B55-BB86-873F55DDC5BB}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5D0788D-8222-4B58-92A8-9A92D81413F7}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -652,7 +652,7 @@
   <dimension ref="A1:P11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -943,7 +943,7 @@
   <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1140,14 +1140,14 @@
         <v>23</v>
       </c>
       <c r="B9" s="27">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="C9" s="10">
         <v>0.69640000000000002</v>
       </c>
       <c r="D9" s="10">
         <f>[1]!PropsSI("H","T",B9+273.15,"P",C9*10^6,"Water")/1000</f>
-        <v>632.31531116667406</v>
+        <v>666.85498687304153</v>
       </c>
       <c r="E9" s="11">
         <f>E8+E6</f>

--- a/streams0.xlsx
+++ b/streams0.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5D0788D-8222-4B58-92A8-9A92D81413F7}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C123B8A-E9A7-4DC4-A6AC-E790BB546283}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -652,7 +652,7 @@
   <dimension ref="A1:P11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -943,7 +943,7 @@
   <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1026,14 +1026,14 @@
         <v>14</v>
       </c>
       <c r="B4" s="27">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="C4" s="10">
         <v>8.7460000000000004</v>
       </c>
       <c r="D4" s="10">
         <f>[1]!PropsSI("H","T",B4+273.15,"P",C4*10^6,"Water")/1000</f>
-        <v>1310.947645065298</v>
+        <v>1288.9537171466195</v>
       </c>
       <c r="E4" s="11">
         <v>63.4</v>
@@ -1140,14 +1140,14 @@
         <v>23</v>
       </c>
       <c r="B9" s="27">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="C9" s="10">
         <v>0.69640000000000002</v>
       </c>
       <c r="D9" s="10">
         <f>[1]!PropsSI("H","T",B9+273.15,"P",C9*10^6,"Water")/1000</f>
-        <v>666.85498687304153</v>
+        <v>632.31531116667406</v>
       </c>
       <c r="E9" s="11">
         <f>E8+E6</f>

--- a/streams0.xlsx
+++ b/streams0.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C123B8A-E9A7-4DC4-A6AC-E790BB546283}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8444B174-CF58-4D05-8E6E-B3A3D7176184}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -943,7 +943,7 @@
   <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1026,14 +1026,14 @@
         <v>14</v>
       </c>
       <c r="B4" s="27">
-        <v>290</v>
+        <v>298.8</v>
       </c>
       <c r="C4" s="10">
         <v>8.7460000000000004</v>
       </c>
       <c r="D4" s="10">
         <f>[1]!PropsSI("H","T",B4+273.15,"P",C4*10^6,"Water")/1000</f>
-        <v>1288.9537171466195</v>
+        <v>1337.9482651031026</v>
       </c>
       <c r="E4" s="11">
         <v>63.4</v>
@@ -1140,14 +1140,14 @@
         <v>23</v>
       </c>
       <c r="B9" s="27">
-        <v>150</v>
+        <v>164.6</v>
       </c>
       <c r="C9" s="10">
         <v>0.69640000000000002</v>
       </c>
       <c r="D9" s="10">
         <f>[1]!PropsSI("H","T",B9+273.15,"P",C9*10^6,"Water")/1000</f>
-        <v>632.31531116667406</v>
+        <v>695.4937008073166</v>
       </c>
       <c r="E9" s="11">
         <f>E8+E6</f>

--- a/streams0.xlsx
+++ b/streams0.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8444B174-CF58-4D05-8E6E-B3A3D7176184}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4F681CD-ACC9-46E4-A1D9-497C67A195D1}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="32">
   <si>
     <t>GTU-PEVD</t>
   </si>
@@ -110,10 +110,16 @@
     <t>X-SMESH</t>
   </si>
   <si>
-    <t>#298.8</t>
-  </si>
-  <si>
-    <t>#164.6</t>
+    <t>Tрасч</t>
+  </si>
+  <si>
+    <t>Gрасч</t>
+  </si>
+  <si>
+    <t>Tбал</t>
+  </si>
+  <si>
+    <t>Gбал</t>
   </si>
 </sst>
 </file>
@@ -154,7 +160,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -173,12 +179,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="8">
     <border>
@@ -274,7 +274,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -336,19 +336,16 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -652,7 +649,7 @@
   <dimension ref="A1:P11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -663,7 +660,8 @@
     <col min="5" max="5" width="9.140625" style="11"/>
     <col min="6" max="10" width="9.140625" style="10"/>
     <col min="11" max="11" width="9.140625" style="9"/>
-    <col min="12" max="14" width="9.140625" style="10"/>
+    <col min="12" max="12" width="9.140625" style="11"/>
+    <col min="13" max="14" width="9.140625" style="10"/>
     <col min="15" max="16384" width="9.140625" style="17"/>
   </cols>
   <sheetData>
@@ -696,7 +694,12 @@
       <c r="J1" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="K1" s="10"/>
+      <c r="K1" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="L1" s="8" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" s="12" t="s">
@@ -730,6 +733,12 @@
       <c r="J2" s="11">
         <v>6.4999999999999997E-3</v>
       </c>
+      <c r="K2" s="9">
+        <v>542.1</v>
+      </c>
+      <c r="L2" s="11">
+        <v>542.1</v>
+      </c>
       <c r="P2" s="18"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
@@ -764,6 +773,12 @@
       <c r="J3" s="11">
         <v>6.4999999999999997E-3</v>
       </c>
+      <c r="K3" s="9">
+        <v>468.08343506527899</v>
+      </c>
+      <c r="L3" s="11">
+        <v>468.05</v>
+      </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" s="12" t="s">
@@ -797,6 +812,12 @@
       <c r="J4" s="11">
         <v>6.4999999999999997E-3</v>
       </c>
+      <c r="K4" s="9">
+        <v>309.2</v>
+      </c>
+      <c r="L4" s="11">
+        <v>309.2</v>
+      </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="12" t="s">
@@ -830,6 +851,12 @@
       <c r="J5" s="11">
         <v>6.4999999999999997E-3</v>
       </c>
+      <c r="K5" s="9">
+        <v>236.59139859522247</v>
+      </c>
+      <c r="L5" s="11">
+        <v>235.9</v>
+      </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" s="12" t="s">
@@ -863,6 +890,12 @@
       <c r="J6" s="11">
         <v>6.4999999999999997E-3</v>
       </c>
+      <c r="K6" s="9">
+        <v>233.60435126140885</v>
+      </c>
+      <c r="L6" s="11">
+        <v>233</v>
+      </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" s="12" t="s">
@@ -896,6 +929,12 @@
       <c r="J7" s="11">
         <v>6.4999999999999997E-3</v>
       </c>
+      <c r="K7" s="9">
+        <v>175.5</v>
+      </c>
+      <c r="L7" s="11">
+        <v>175.5</v>
+      </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" s="12" t="s">
@@ -928,6 +967,12 @@
       </c>
       <c r="J8" s="11">
         <v>6.4999999999999997E-3</v>
+      </c>
+      <c r="K8" s="9">
+        <v>112.49260825733018</v>
+      </c>
+      <c r="L8" s="11">
+        <v>106.9</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
@@ -943,22 +988,23 @@
   <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="14.85546875" style="5" customWidth="1"/>
     <col min="2" max="2" width="9.140625" style="2"/>
-    <col min="3" max="4" width="9.140625" style="3"/>
-    <col min="5" max="5" width="9.140625" style="4"/>
+    <col min="3" max="5" width="9.140625" style="3"/>
     <col min="6" max="6" width="9.140625" style="2"/>
-    <col min="7" max="9" width="9.140625" style="3"/>
+    <col min="7" max="7" width="9.140625" style="4"/>
+    <col min="8" max="8" width="9.140625" style="2"/>
+    <col min="9" max="9" width="9.140625" style="4"/>
     <col min="10" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="19" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="24"/>
+      <c r="A1" s="23"/>
       <c r="B1" s="6" t="s">
         <v>3</v>
       </c>
@@ -968,13 +1014,21 @@
       <c r="D1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
+      <c r="F1" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="2" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="14" t="s">
@@ -990,13 +1044,21 @@
         <f>[1]!PropsSI("H","T",B2+273.15,"P",C2*10^6,"Water")/1000</f>
         <v>3423.2099783420958</v>
       </c>
-      <c r="E2" s="11">
+      <c r="E2" s="10">
         <v>63.4</v>
       </c>
-      <c r="F2" s="9"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
+      <c r="F2" s="2">
+        <v>511.5</v>
+      </c>
+      <c r="G2" s="11">
+        <v>62.370778828620722</v>
+      </c>
+      <c r="H2" s="9">
+        <v>511.5</v>
+      </c>
+      <c r="I2" s="11">
+        <v>63.4</v>
+      </c>
     </row>
     <row r="3" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="14" t="s">
@@ -1013,19 +1075,27 @@
         <f>[1]!PropsSI("H","T",B3+273.15,"Q",1,"Water")/1000</f>
         <v>2747.1040230157951</v>
       </c>
-      <c r="E3" s="11">
+      <c r="E3" s="10">
         <v>63.4</v>
       </c>
-      <c r="F3" s="9"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
+      <c r="F3" s="9">
+        <v>301.29755574753347</v>
+      </c>
+      <c r="G3" s="11">
+        <v>62.370778828620722</v>
+      </c>
+      <c r="H3" s="9">
+        <v>301.29755574753347</v>
+      </c>
+      <c r="I3" s="11">
+        <v>63.4</v>
+      </c>
     </row>
     <row r="4" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="27">
+      <c r="B4" s="9">
         <v>298.8</v>
       </c>
       <c r="C4" s="10">
@@ -1035,15 +1105,21 @@
         <f>[1]!PropsSI("H","T",B4+273.15,"P",C4*10^6,"Water")/1000</f>
         <v>1337.9482651031026</v>
       </c>
-      <c r="E4" s="11">
+      <c r="E4" s="10">
         <v>63.4</v>
       </c>
-      <c r="F4" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
+      <c r="F4" s="9">
+        <v>298.29755574753347</v>
+      </c>
+      <c r="G4" s="11">
+        <v>62.370778828620722</v>
+      </c>
+      <c r="H4" s="9">
+        <v>298.8</v>
+      </c>
+      <c r="I4" s="11">
+        <v>63.4</v>
+      </c>
     </row>
     <row r="5" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="14" t="s">
@@ -1059,13 +1135,21 @@
         <f>[1]!PropsSI("H","T",B5+273.15,"P",C5*10^6,"Water")/1000</f>
         <v>708.31984887431372</v>
       </c>
-      <c r="E5" s="11">
+      <c r="E5" s="10">
         <v>63.4</v>
       </c>
-      <c r="F5" s="9"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10"/>
+      <c r="F5" s="9">
+        <v>164.73836143543406</v>
+      </c>
+      <c r="G5" s="11">
+        <v>62.370778828620722</v>
+      </c>
+      <c r="H5" s="9">
+        <v>166.5</v>
+      </c>
+      <c r="I5" s="11">
+        <v>63.4</v>
+      </c>
     </row>
     <row r="6" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="14" t="s">
@@ -1082,13 +1166,21 @@
         <f>[1]!PropsSI("H","T",B6+273.15,"Q",0,"Water")/1000</f>
         <v>696.09556718341082</v>
       </c>
-      <c r="E6" s="11">
+      <c r="E6" s="10">
         <v>63.4</v>
       </c>
-      <c r="F6" s="9"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
+      <c r="F6" s="9">
+        <v>164.73836143543406</v>
+      </c>
+      <c r="G6" s="11">
+        <v>62.370778828620722</v>
+      </c>
+      <c r="H6" s="9">
+        <v>164.73836143543406</v>
+      </c>
+      <c r="I6" s="11">
+        <v>63.4</v>
+      </c>
     </row>
     <row r="7" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="14" t="s">
@@ -1104,13 +1196,21 @@
         <f>[1]!PropsSI("H","T",B7+273.15,"P",C7*10^6,"Water")/1000</f>
         <v>2871.4818365716997</v>
       </c>
-      <c r="E7" s="11">
+      <c r="E7" s="10">
         <v>14.76</v>
       </c>
-      <c r="F7" s="9"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="10"/>
+      <c r="F7" s="9">
+        <v>212.29139859522246</v>
+      </c>
+      <c r="G7" s="11">
+        <v>14.465752547508178</v>
+      </c>
+      <c r="H7" s="9">
+        <v>211.6</v>
+      </c>
+      <c r="I7" s="11">
+        <v>14.76</v>
+      </c>
     </row>
     <row r="8" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="14" t="s">
@@ -1127,19 +1227,27 @@
         <f>[1]!PropsSI("H","P",C8*10^6,"Q",1,"Water")/1000</f>
         <v>2762.534980413358</v>
       </c>
-      <c r="E8" s="11">
+      <c r="E8" s="10">
         <v>14.76</v>
       </c>
-      <c r="F8" s="9"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10"/>
+      <c r="F8" s="9">
+        <v>164.73836143543406</v>
+      </c>
+      <c r="G8" s="11">
+        <v>14.465752547508178</v>
+      </c>
+      <c r="H8" s="9">
+        <v>164.73836143543406</v>
+      </c>
+      <c r="I8" s="11">
+        <v>14.76</v>
+      </c>
     </row>
     <row r="9" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="27">
+      <c r="B9" s="9">
         <v>164.6</v>
       </c>
       <c r="C9" s="10">
@@ -1149,16 +1257,23 @@
         <f>[1]!PropsSI("H","T",B9+273.15,"P",C9*10^6,"Water")/1000</f>
         <v>695.4937008073166</v>
       </c>
-      <c r="E9" s="11">
+      <c r="E9" s="10">
         <f>E8+E6</f>
         <v>78.16</v>
       </c>
-      <c r="F9" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="10"/>
+      <c r="F9" s="9">
+        <v>161.73836143543406</v>
+      </c>
+      <c r="G9" s="11">
+        <v>76.836531376128903</v>
+      </c>
+      <c r="H9" s="9">
+        <v>164.6</v>
+      </c>
+      <c r="I9" s="11">
+        <f>I8+I5</f>
+        <v>78.16</v>
+      </c>
     </row>
     <row r="10" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="14" t="s">
@@ -1174,14 +1289,23 @@
         <f>[1]!PropsSI("H","T",B10+273.15,"P",C10*10^6,"Water")/1000</f>
         <v>251.74839576328077</v>
       </c>
-      <c r="E10" s="11">
+      <c r="E10" s="10">
         <f>E9</f>
         <v>78.16</v>
       </c>
-      <c r="F10" s="9"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="10"/>
+      <c r="F10" s="9">
+        <v>60</v>
+      </c>
+      <c r="G10" s="11">
+        <v>76.836531376128903</v>
+      </c>
+      <c r="H10" s="9">
+        <v>60</v>
+      </c>
+      <c r="I10" s="11">
+        <f>I9</f>
+        <v>78.16</v>
+      </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="20" t="s">
@@ -1192,7 +1316,7 @@
         <v>0.69640000000000002</v>
       </c>
       <c r="D11" s="22"/>
-      <c r="E11" s="23">
+      <c r="E11" s="22">
         <v>10.75</v>
       </c>
     </row>
@@ -1205,7 +1329,7 @@
         <v>0.69640000000000002</v>
       </c>
       <c r="D12" s="22"/>
-      <c r="E12" s="23">
+      <c r="E12" s="22">
         <v>6.62</v>
       </c>
     </row>
@@ -1225,7 +1349,7 @@
       </c>
     </row>
     <row r="19" spans="3:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="C19" s="26"/>
+      <c r="C19" s="24"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/streams0.xlsx
+++ b/streams0.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4F681CD-ACC9-46E4-A1D9-497C67A195D1}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69B8BAA5-39FD-4567-A6EB-A681EA38B2F3}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="gas" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="25">
   <si>
     <t>GTU-PEVD</t>
   </si>
@@ -99,27 +99,6 @@
   </si>
   <si>
     <t>IND-PPND</t>
-  </si>
-  <si>
-    <t>GPK-RECIRC</t>
-  </si>
-  <si>
-    <t>GPK-BYPASS</t>
-  </si>
-  <si>
-    <t>X-SMESH</t>
-  </si>
-  <si>
-    <t>Tрасч</t>
-  </si>
-  <si>
-    <t>Gрасч</t>
-  </si>
-  <si>
-    <t>Tбал</t>
-  </si>
-  <si>
-    <t>Gбал</t>
   </si>
 </sst>
 </file>
@@ -160,24 +139,12 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC00000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="8">
@@ -274,7 +241,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -327,26 +294,11 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -648,8 +600,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -658,10 +610,10 @@
     <col min="2" max="2" width="9.140625" style="9"/>
     <col min="3" max="4" width="9.140625" style="10"/>
     <col min="5" max="5" width="9.140625" style="11"/>
-    <col min="6" max="10" width="9.140625" style="10"/>
-    <col min="11" max="11" width="9.140625" style="9"/>
-    <col min="12" max="12" width="9.140625" style="11"/>
-    <col min="13" max="14" width="9.140625" style="10"/>
+    <col min="6" max="6" width="9.140625" style="9"/>
+    <col min="7" max="9" width="9.140625" style="10"/>
+    <col min="10" max="10" width="9.140625" style="11"/>
+    <col min="11" max="14" width="9.140625" style="10"/>
     <col min="15" max="16384" width="9.140625" style="17"/>
   </cols>
   <sheetData>
@@ -694,12 +646,6 @@
       <c r="J1" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="K1" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="L1" s="8" t="s">
-        <v>30</v>
-      </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" s="12" t="s">
@@ -733,12 +679,6 @@
       <c r="J2" s="11">
         <v>6.4999999999999997E-3</v>
       </c>
-      <c r="K2" s="9">
-        <v>542.1</v>
-      </c>
-      <c r="L2" s="11">
-        <v>542.1</v>
-      </c>
       <c r="P2" s="18"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
@@ -773,12 +713,6 @@
       <c r="J3" s="11">
         <v>6.4999999999999997E-3</v>
       </c>
-      <c r="K3" s="9">
-        <v>468.08343506527899</v>
-      </c>
-      <c r="L3" s="11">
-        <v>468.05</v>
-      </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" s="12" t="s">
@@ -812,12 +746,6 @@
       <c r="J4" s="11">
         <v>6.4999999999999997E-3</v>
       </c>
-      <c r="K4" s="9">
-        <v>309.2</v>
-      </c>
-      <c r="L4" s="11">
-        <v>309.2</v>
-      </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="12" t="s">
@@ -851,12 +779,6 @@
       <c r="J5" s="11">
         <v>6.4999999999999997E-3</v>
       </c>
-      <c r="K5" s="9">
-        <v>236.59139859522247</v>
-      </c>
-      <c r="L5" s="11">
-        <v>235.9</v>
-      </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" s="12" t="s">
@@ -890,12 +812,6 @@
       <c r="J6" s="11">
         <v>6.4999999999999997E-3</v>
       </c>
-      <c r="K6" s="9">
-        <v>233.60435126140885</v>
-      </c>
-      <c r="L6" s="11">
-        <v>233</v>
-      </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" s="12" t="s">
@@ -929,12 +845,6 @@
       <c r="J7" s="11">
         <v>6.4999999999999997E-3</v>
       </c>
-      <c r="K7" s="9">
-        <v>175.5</v>
-      </c>
-      <c r="L7" s="11">
-        <v>175.5</v>
-      </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" s="12" t="s">
@@ -967,12 +877,6 @@
       </c>
       <c r="J8" s="11">
         <v>6.4999999999999997E-3</v>
-      </c>
-      <c r="K8" s="9">
-        <v>112.49260825733018</v>
-      </c>
-      <c r="L8" s="11">
-        <v>106.9</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
@@ -987,24 +891,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A78D0049-A33A-42B4-86C2-1F7629C05FA7}">
   <dimension ref="A1:I19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="14.85546875" style="5" customWidth="1"/>
     <col min="2" max="2" width="9.140625" style="2"/>
-    <col min="3" max="5" width="9.140625" style="3"/>
-    <col min="6" max="6" width="9.140625" style="2"/>
-    <col min="7" max="7" width="9.140625" style="4"/>
-    <col min="8" max="8" width="9.140625" style="2"/>
-    <col min="9" max="9" width="9.140625" style="4"/>
+    <col min="3" max="4" width="9.140625" style="3"/>
+    <col min="5" max="5" width="9.140625" style="4"/>
+    <col min="6" max="9" width="9.140625" style="3"/>
     <col min="10" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="19" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="23"/>
+      <c r="A1" s="20"/>
       <c r="B1" s="6" t="s">
         <v>3</v>
       </c>
@@ -1014,21 +916,13 @@
       <c r="D1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="G1" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="I1" s="8" t="s">
-        <v>31</v>
-      </c>
+      <c r="F1" s="3"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
     </row>
     <row r="2" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="14" t="s">
@@ -1044,21 +938,13 @@
         <f>[1]!PropsSI("H","T",B2+273.15,"P",C2*10^6,"Water")/1000</f>
         <v>3423.2099783420958</v>
       </c>
-      <c r="E2" s="10">
+      <c r="E2" s="11">
         <v>63.4</v>
       </c>
-      <c r="F2" s="2">
-        <v>511.5</v>
-      </c>
-      <c r="G2" s="11">
-        <v>62.370778828620722</v>
-      </c>
-      <c r="H2" s="9">
-        <v>511.5</v>
-      </c>
-      <c r="I2" s="11">
-        <v>63.4</v>
-      </c>
+      <c r="F2" s="3"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
     </row>
     <row r="3" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="14" t="s">
@@ -1075,21 +961,13 @@
         <f>[1]!PropsSI("H","T",B3+273.15,"Q",1,"Water")/1000</f>
         <v>2747.1040230157951</v>
       </c>
-      <c r="E3" s="10">
+      <c r="E3" s="11">
         <v>63.4</v>
       </c>
-      <c r="F3" s="9">
-        <v>301.29755574753347</v>
-      </c>
-      <c r="G3" s="11">
-        <v>62.370778828620722</v>
-      </c>
-      <c r="H3" s="9">
-        <v>301.29755574753347</v>
-      </c>
-      <c r="I3" s="11">
-        <v>63.4</v>
-      </c>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
     </row>
     <row r="4" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="14" t="s">
@@ -1105,21 +983,13 @@
         <f>[1]!PropsSI("H","T",B4+273.15,"P",C4*10^6,"Water")/1000</f>
         <v>1337.9482651031026</v>
       </c>
-      <c r="E4" s="10">
+      <c r="E4" s="11">
         <v>63.4</v>
       </c>
-      <c r="F4" s="9">
-        <v>298.29755574753347</v>
-      </c>
-      <c r="G4" s="11">
-        <v>62.370778828620722</v>
-      </c>
-      <c r="H4" s="9">
-        <v>298.8</v>
-      </c>
-      <c r="I4" s="11">
-        <v>63.4</v>
-      </c>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
     </row>
     <row r="5" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="14" t="s">
@@ -1135,21 +1005,13 @@
         <f>[1]!PropsSI("H","T",B5+273.15,"P",C5*10^6,"Water")/1000</f>
         <v>708.31984887431372</v>
       </c>
-      <c r="E5" s="10">
+      <c r="E5" s="11">
         <v>63.4</v>
       </c>
-      <c r="F5" s="9">
-        <v>164.73836143543406</v>
-      </c>
-      <c r="G5" s="11">
-        <v>62.370778828620722</v>
-      </c>
-      <c r="H5" s="9">
-        <v>166.5</v>
-      </c>
-      <c r="I5" s="11">
-        <v>63.4</v>
-      </c>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
     </row>
     <row r="6" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="14" t="s">
@@ -1166,21 +1028,13 @@
         <f>[1]!PropsSI("H","T",B6+273.15,"Q",0,"Water")/1000</f>
         <v>696.09556718341082</v>
       </c>
-      <c r="E6" s="10">
+      <c r="E6" s="11">
         <v>63.4</v>
       </c>
-      <c r="F6" s="9">
-        <v>164.73836143543406</v>
-      </c>
-      <c r="G6" s="11">
-        <v>62.370778828620722</v>
-      </c>
-      <c r="H6" s="9">
-        <v>164.73836143543406</v>
-      </c>
-      <c r="I6" s="11">
-        <v>63.4</v>
-      </c>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
     </row>
     <row r="7" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="14" t="s">
@@ -1196,21 +1050,13 @@
         <f>[1]!PropsSI("H","T",B7+273.15,"P",C7*10^6,"Water")/1000</f>
         <v>2871.4818365716997</v>
       </c>
-      <c r="E7" s="10">
+      <c r="E7" s="11">
         <v>14.76</v>
       </c>
-      <c r="F7" s="9">
-        <v>212.29139859522246</v>
-      </c>
-      <c r="G7" s="11">
-        <v>14.465752547508178</v>
-      </c>
-      <c r="H7" s="9">
-        <v>211.6</v>
-      </c>
-      <c r="I7" s="11">
-        <v>14.76</v>
-      </c>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
     </row>
     <row r="8" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="14" t="s">
@@ -1227,21 +1073,13 @@
         <f>[1]!PropsSI("H","P",C8*10^6,"Q",1,"Water")/1000</f>
         <v>2762.534980413358</v>
       </c>
-      <c r="E8" s="10">
+      <c r="E8" s="11">
         <v>14.76</v>
       </c>
-      <c r="F8" s="9">
-        <v>164.73836143543406</v>
-      </c>
-      <c r="G8" s="11">
-        <v>14.465752547508178</v>
-      </c>
-      <c r="H8" s="9">
-        <v>164.73836143543406</v>
-      </c>
-      <c r="I8" s="11">
-        <v>14.76</v>
-      </c>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
     </row>
     <row r="9" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="14" t="s">
@@ -1257,23 +1095,14 @@
         <f>[1]!PropsSI("H","T",B9+273.15,"P",C9*10^6,"Water")/1000</f>
         <v>695.4937008073166</v>
       </c>
-      <c r="E9" s="10">
+      <c r="E9" s="11">
         <f>E8+E6</f>
         <v>78.16</v>
       </c>
-      <c r="F9" s="9">
-        <v>161.73836143543406</v>
-      </c>
-      <c r="G9" s="11">
-        <v>76.836531376128903</v>
-      </c>
-      <c r="H9" s="9">
-        <v>164.6</v>
-      </c>
-      <c r="I9" s="11">
-        <f>I8+I5</f>
-        <v>78.16</v>
-      </c>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
     </row>
     <row r="10" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="14" t="s">
@@ -1289,67 +1118,50 @@
         <f>[1]!PropsSI("H","T",B10+273.15,"P",C10*10^6,"Water")/1000</f>
         <v>251.74839576328077</v>
       </c>
-      <c r="E10" s="10">
+      <c r="E10" s="11">
         <f>E9</f>
         <v>78.16</v>
       </c>
-      <c r="F10" s="9">
-        <v>60</v>
-      </c>
-      <c r="G10" s="11">
-        <v>76.836531376128903</v>
-      </c>
-      <c r="H10" s="9">
-        <v>60</v>
-      </c>
-      <c r="I10" s="11">
-        <f>I9</f>
-        <v>78.16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="B11" s="21"/>
-      <c r="C11" s="22">
-        <v>0.69640000000000002</v>
-      </c>
-      <c r="D11" s="22"/>
-      <c r="E11" s="22">
-        <v>10.75</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="B12" s="21"/>
-      <c r="C12" s="22">
-        <v>0.69640000000000002</v>
-      </c>
-      <c r="D12" s="22"/>
-      <c r="E12" s="22">
-        <v>6.62</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="B13" s="21">
-        <v>44.2</v>
-      </c>
-      <c r="C13" s="22">
-        <v>0.69640000000000002</v>
-      </c>
-      <c r="D13" s="22"/>
-      <c r="E13" s="25">
-        <v>78.16</v>
-      </c>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+    </row>
+    <row r="11" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="14"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
+    </row>
+    <row r="12" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="14"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+    </row>
+    <row r="13" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="14"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
     </row>
     <row r="19" spans="3:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="C19" s="24"/>
+      <c r="C19" s="21"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/streams0.xlsx
+++ b/streams0.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E90D6B0B-9829-4E94-85D0-6A1FE00B5977}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15EDA768-176F-410F-96A6-AFFA67FB72A5}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -139,12 +139,18 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="8">
@@ -241,7 +247,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -299,6 +305,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -892,7 +901,7 @@
   <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -973,7 +982,7 @@
       <c r="A4" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="9">
+      <c r="B4" s="22">
         <v>298.8</v>
       </c>
       <c r="C4" s="10">
@@ -1085,7 +1094,7 @@
       <c r="A9" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="9">
+      <c r="B9" s="22">
         <v>164.6</v>
       </c>
       <c r="C9" s="10">

--- a/streams0.xlsx
+++ b/streams0.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15EDA768-176F-410F-96A6-AFFA67FB72A5}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50852280-2AAB-4FFE-9A4E-70489DE96E06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-14510" yWindow="-110" windowWidth="14620" windowHeight="25220" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="gas" sheetId="1" r:id="rId1"/>
@@ -14,17 +14,25 @@
   <externalReferences>
     <externalReference r:id="rId3"/>
   </externalReferences>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029" iterateCount="10"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="31">
   <si>
     <t>GTU-PEVD</t>
   </si>
@@ -99,6 +107,24 @@
   </si>
   <si>
     <t>IND-PPND</t>
+  </si>
+  <si>
+    <t>SP1-OD</t>
+  </si>
+  <si>
+    <t>OD-GPK</t>
+  </si>
+  <si>
+    <t>SWIN-OD</t>
+  </si>
+  <si>
+    <t>OD-SP1</t>
+  </si>
+  <si>
+    <t>75.875</t>
+  </si>
+  <si>
+    <t>74.77</t>
   </si>
 </sst>
 </file>
@@ -247,7 +273,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -309,10 +335,13 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{833C66B1-4070-4F6B-8BE7-834B60BC98EC}"/>
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -613,20 +642,20 @@
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" style="12" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="9"/>
-    <col min="3" max="4" width="9.140625" style="10"/>
-    <col min="5" max="5" width="9.140625" style="11"/>
-    <col min="6" max="6" width="9.140625" style="9"/>
-    <col min="7" max="9" width="9.140625" style="10"/>
-    <col min="10" max="10" width="9.140625" style="11"/>
-    <col min="11" max="14" width="9.140625" style="10"/>
-    <col min="15" max="16384" width="9.140625" style="17"/>
+    <col min="1" max="1" width="14.81640625" style="12" customWidth="1"/>
+    <col min="2" max="2" width="9.1796875" style="9"/>
+    <col min="3" max="4" width="9.1796875" style="10"/>
+    <col min="5" max="5" width="9.1796875" style="11"/>
+    <col min="6" max="6" width="9.1796875" style="9"/>
+    <col min="7" max="9" width="9.1796875" style="10"/>
+    <col min="10" max="10" width="9.1796875" style="11"/>
+    <col min="11" max="14" width="9.1796875" style="10"/>
+    <col min="15" max="16384" width="9.1796875" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="13"/>
       <c r="B1" s="6" t="s">
         <v>3</v>
@@ -656,7 +685,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" s="12" t="s">
         <v>0</v>
       </c>
@@ -690,7 +719,7 @@
       </c>
       <c r="P2" s="18"/>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" s="12" t="s">
         <v>1</v>
       </c>
@@ -723,7 +752,7 @@
         <v>6.4999999999999997E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" s="12" t="s">
         <v>13</v>
       </c>
@@ -756,7 +785,7 @@
         <v>6.4999999999999997E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" s="12" t="s">
         <v>16</v>
       </c>
@@ -789,7 +818,7 @@
         <v>6.4999999999999997E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" s="12" t="s">
         <v>17</v>
       </c>
@@ -822,7 +851,7 @@
         <v>6.4999999999999997E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="12" t="s">
         <v>18</v>
       </c>
@@ -855,7 +884,7 @@
         <v>6.4999999999999997E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" s="12" t="s">
         <v>19</v>
       </c>
@@ -888,7 +917,7 @@
         <v>6.4999999999999997E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="C11" s="3"/>
     </row>
   </sheetData>
@@ -901,20 +930,20 @@
   <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="B11" sqref="B11:E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" style="5" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="2"/>
-    <col min="3" max="4" width="9.140625" style="3"/>
-    <col min="5" max="5" width="9.140625" style="4"/>
-    <col min="6" max="9" width="9.140625" style="3"/>
-    <col min="10" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="14.81640625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="9.1796875" style="2"/>
+    <col min="3" max="4" width="9.1796875" style="3"/>
+    <col min="5" max="5" width="9.1796875" style="4"/>
+    <col min="6" max="9" width="9.1796875" style="3"/>
+    <col min="10" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="19" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" s="19" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="20"/>
       <c r="B1" s="6" t="s">
         <v>3</v>
@@ -933,7 +962,7 @@
       <c r="H1" s="10"/>
       <c r="I1" s="10"/>
     </row>
-    <row r="2" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="14" t="s">
         <v>2</v>
       </c>
@@ -955,7 +984,7 @@
       <c r="H2" s="10"/>
       <c r="I2" s="10"/>
     </row>
-    <row r="3" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="14" t="s">
         <v>12</v>
       </c>
@@ -978,7 +1007,7 @@
       <c r="H3" s="10"/>
       <c r="I3" s="10"/>
     </row>
-    <row r="4" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="14" t="s">
         <v>14</v>
       </c>
@@ -1000,7 +1029,7 @@
       <c r="H4" s="10"/>
       <c r="I4" s="10"/>
     </row>
-    <row r="5" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="14" t="s">
         <v>15</v>
       </c>
@@ -1012,7 +1041,7 @@
       </c>
       <c r="D5" s="10">
         <f>[1]!PropsSI("H","T",B5+273.15,"P",C5*10^6,"Water")/1000</f>
-        <v>708.31984887431372</v>
+        <v>708.31984887431838</v>
       </c>
       <c r="E5" s="11">
         <v>63.4</v>
@@ -1022,7 +1051,7 @@
       <c r="H5" s="10"/>
       <c r="I5" s="10"/>
     </row>
-    <row r="6" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="14" t="s">
         <v>20</v>
       </c>
@@ -1045,7 +1074,7 @@
       <c r="H6" s="10"/>
       <c r="I6" s="10"/>
     </row>
-    <row r="7" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="14" t="s">
         <v>21</v>
       </c>
@@ -1067,7 +1096,7 @@
       <c r="H7" s="10"/>
       <c r="I7" s="10"/>
     </row>
-    <row r="8" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="14" t="s">
         <v>24</v>
       </c>
@@ -1090,7 +1119,7 @@
       <c r="H8" s="10"/>
       <c r="I8" s="10"/>
     </row>
-    <row r="9" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="14" t="s">
         <v>23</v>
       </c>
@@ -1113,7 +1142,7 @@
       <c r="H9" s="10"/>
       <c r="I9" s="10"/>
     </row>
-    <row r="10" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="14" t="s">
         <v>22</v>
       </c>
@@ -1136,40 +1165,78 @@
       <c r="H10" s="10"/>
       <c r="I10" s="10"/>
     </row>
-    <row r="11" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="14"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="10"/>
+    <row r="11" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="10">
+        <v>3.8226901700000003E-2</v>
+      </c>
       <c r="D11" s="10"/>
-      <c r="E11" s="11"/>
+      <c r="E11" s="11" t="s">
+        <v>29</v>
+      </c>
       <c r="F11" s="10"/>
       <c r="G11" s="10"/>
       <c r="H11" s="10"/>
       <c r="I11" s="10"/>
     </row>
-    <row r="12" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="14"/>
-      <c r="B12" s="9"/>
-      <c r="C12" s="10"/>
+    <row r="12" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" s="9">
+        <v>49.839511130751802</v>
+      </c>
+      <c r="C12" s="10">
+        <v>3.8226901700000003E-2</v>
+      </c>
       <c r="D12" s="10"/>
-      <c r="E12" s="11"/>
+      <c r="E12" s="11" t="s">
+        <v>29</v>
+      </c>
       <c r="F12" s="10"/>
       <c r="G12" s="10"/>
       <c r="H12" s="10"/>
       <c r="I12" s="10"/>
     </row>
-    <row r="13" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="14"/>
-      <c r="B13" s="9"/>
-      <c r="C13" s="10"/>
+    <row r="13" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" s="9">
+        <v>46</v>
+      </c>
+      <c r="C13" s="10">
+        <v>1</v>
+      </c>
       <c r="D13" s="10"/>
-      <c r="E13" s="11"/>
+      <c r="E13" s="11">
+        <v>801.66666666666595</v>
+      </c>
       <c r="F13" s="10"/>
       <c r="G13" s="10"/>
       <c r="H13" s="10"/>
       <c r="I13" s="10"/>
     </row>
-    <row r="19" spans="3:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" s="2">
+        <v>64.77</v>
+      </c>
+      <c r="C14" s="3">
+        <v>1</v>
+      </c>
+      <c r="E14" s="11">
+        <v>801.66666666666595</v>
+      </c>
+    </row>
+    <row r="19" spans="3:3" ht="14.5" x14ac:dyDescent="0.3">
       <c r="C19" s="21"/>
     </row>
   </sheetData>

--- a/streams0.xlsx
+++ b/streams0.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50852280-2AAB-4FFE-9A4E-70489DE96E06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B26135B-D91F-451C-9865-36065B84671D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-14510" yWindow="-110" windowWidth="14620" windowHeight="25220" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -930,7 +930,7 @@
   <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11:E14"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
@@ -1215,7 +1215,7 @@
       </c>
       <c r="D13" s="10"/>
       <c r="E13" s="11">
-        <v>801.66666666666595</v>
+        <v>100.77673095348899</v>
       </c>
       <c r="F13" s="10"/>
       <c r="G13" s="10"/>
@@ -1233,7 +1233,7 @@
         <v>1</v>
       </c>
       <c r="E14" s="11">
-        <v>801.66666666666595</v>
+        <v>100.77673095348899</v>
       </c>
     </row>
     <row r="19" spans="3:3" ht="14.5" x14ac:dyDescent="0.3">

--- a/streams0.xlsx
+++ b/streams0.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B26135B-D91F-451C-9865-36065B84671D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{955F2D59-7FCE-4AC8-B689-FAE617A254B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-14510" yWindow="-110" windowWidth="14620" windowHeight="25220" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="35">
   <si>
     <t>GTU-PEVD</t>
   </si>
@@ -125,6 +125,18 @@
   </si>
   <si>
     <t>74.77</t>
+  </si>
+  <si>
+    <t>OTB2-SP2</t>
+  </si>
+  <si>
+    <t>SP2-SP1</t>
+  </si>
+  <si>
+    <t>SP1-SP2</t>
+  </si>
+  <si>
+    <t>SP2-WOUT</t>
   </si>
 </sst>
 </file>
@@ -930,7 +942,7 @@
   <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
@@ -1236,7 +1248,77 @@
         <v>100.77673095348899</v>
       </c>
     </row>
-    <row r="19" spans="3:3" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" s="2">
+        <v>107.6</v>
+      </c>
+      <c r="C15" s="3">
+        <v>0.13219638629678299</v>
+      </c>
+      <c r="D15" s="3">
+        <v>2622.5496464962498</v>
+      </c>
+      <c r="E15" s="4">
+        <v>43.733333333333299</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16" s="2">
+        <v>106.101586260687</v>
+      </c>
+      <c r="C16" s="3">
+        <v>0.12558656698194401</v>
+      </c>
+      <c r="D16" s="3">
+        <v>444.928681619781</v>
+      </c>
+      <c r="E16" s="4">
+        <v>43.733333333333299</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B17" s="2">
+        <v>70.294916839916795</v>
+      </c>
+      <c r="C17" s="3">
+        <v>1</v>
+      </c>
+      <c r="D17" s="3">
+        <f>4.187*B17</f>
+        <v>294.32481680873161</v>
+      </c>
+      <c r="E17" s="4">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" s="2">
+        <v>98.56</v>
+      </c>
+      <c r="C18" s="3">
+        <v>1</v>
+      </c>
+      <c r="D18" s="3">
+        <f>4.187*B18</f>
+        <v>412.67072000000002</v>
+      </c>
+      <c r="E18" s="4">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="14.5" x14ac:dyDescent="0.3">
       <c r="C19" s="21"/>
     </row>
   </sheetData>

--- a/streams0.xlsx
+++ b/streams0.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{955F2D59-7FCE-4AC8-B689-FAE617A254B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0293B0D3-23DE-4FED-A90C-98466B62083B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-14510" yWindow="-110" windowWidth="14620" windowHeight="25220" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="37">
   <si>
     <t>GTU-PEVD</t>
   </si>
@@ -137,6 +137,12 @@
   </si>
   <si>
     <t>SP2-WOUT</t>
+  </si>
+  <si>
+    <t>WIN-SP1</t>
+  </si>
+  <si>
+    <t>OTB1-SP1</t>
   </si>
 </sst>
 </file>
@@ -146,7 +152,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.00000"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -167,13 +173,6 @@
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Courier New"/>
-      <family val="3"/>
       <charset val="204"/>
     </font>
   </fonts>
@@ -341,14 +340,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -939,10 +938,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A78D0049-A33A-42B4-86C2-1F7629C05FA7}">
-  <dimension ref="A1:I19"/>
+  <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
@@ -1023,7 +1022,7 @@
       <c r="A4" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="22">
+      <c r="B4" s="21">
         <v>298.8</v>
       </c>
       <c r="C4" s="10">
@@ -1135,7 +1134,7 @@
       <c r="A9" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="22">
+      <c r="B9" s="21">
         <v>164.6</v>
       </c>
       <c r="C9" s="10">
@@ -1178,7 +1177,7 @@
       <c r="I10" s="10"/>
     </row>
     <row r="11" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="23" t="s">
+      <c r="A11" s="22" t="s">
         <v>25</v>
       </c>
       <c r="B11" s="9" t="s">
@@ -1318,8 +1317,41 @@
         <v>800</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="C19" s="21"/>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B19" s="2">
+        <v>46</v>
+      </c>
+      <c r="C19" s="23">
+        <v>1</v>
+      </c>
+      <c r="D19" s="23">
+        <f>B19*4.187</f>
+        <v>192.602</v>
+      </c>
+      <c r="E19" s="4">
+        <f>E18</f>
+        <v>800</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B20" s="2">
+        <v>76</v>
+      </c>
+      <c r="C20" s="3">
+        <v>4.0238843925466602E-2</v>
+      </c>
+      <c r="D20" s="3">
+        <v>2464.75601712861</v>
+      </c>
+      <c r="E20" s="4">
+        <v>32.141666666666602</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/streams0.xlsx
+++ b/streams0.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0293B0D3-23DE-4FED-A90C-98466B62083B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{656B837E-0863-4341-B489-9CB5D98D0C86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-14510" yWindow="-110" windowWidth="14620" windowHeight="25220" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -941,7 +941,7 @@
   <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="13" x14ac:dyDescent="0.3"/>

--- a/streams0.xlsx
+++ b/streams0.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{656B837E-0863-4341-B489-9CB5D98D0C86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E61DEDC-19CE-4E7B-9EF0-2A2DCEC44DFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-14510" yWindow="-110" windowWidth="14620" windowHeight="25220" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-14510" yWindow="-110" windowWidth="14620" windowHeight="25220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="gas" sheetId="1" r:id="rId1"/>
@@ -649,8 +649,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
@@ -928,6 +928,12 @@
         <v>6.4999999999999997E-3</v>
       </c>
     </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="D9" s="10" t="e">
+        <f>[1]!PropsSI("H","P",C9*10^6,"T",B9+273.15,"REFPROP::"&amp;[1]!MixtureString($F$1:$J$1,F9:J9))/1000</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="C11" s="3"/>
     </row>
@@ -940,7 +946,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A78D0049-A33A-42B4-86C2-1F7629C05FA7}">
   <dimension ref="A1:I20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>

--- a/streams0.xlsx
+++ b/streams0.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E61DEDC-19CE-4E7B-9EF0-2A2DCEC44DFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5831A8F8-3949-4F5F-92DA-7C7D8352A259}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-14510" yWindow="-110" windowWidth="14620" windowHeight="25220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-14510" yWindow="-110" windowWidth="14620" windowHeight="25220" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="gas" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
   <externalReferences>
     <externalReference r:id="rId3"/>
   </externalReferences>
-  <calcPr calcId="181029" iterateCount="10"/>
+  <calcPr calcId="181029" iterateCount="2000" iterateDelta="0.1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="46">
   <si>
     <t>GTU-PEVD</t>
   </si>
@@ -40,9 +40,6 @@
     <t>PEVD-IVD</t>
   </si>
   <si>
-    <t>PEVD-DROS</t>
-  </si>
-  <si>
     <t>T</t>
   </si>
   <si>
@@ -97,9 +94,6 @@
     <t>BND-PEN</t>
   </si>
   <si>
-    <t>PPND-TURB</t>
-  </si>
-  <si>
     <t>X-GPK</t>
   </si>
   <si>
@@ -143,6 +137,39 @@
   </si>
   <si>
     <t>OTB1-SP1</t>
+  </si>
+  <si>
+    <t>PPND-DROSND</t>
+  </si>
+  <si>
+    <t>PEVD-DROSVD</t>
+  </si>
+  <si>
+    <t>DROSVD-TURBVD</t>
+  </si>
+  <si>
+    <t>DROSND-TURBND</t>
+  </si>
+  <si>
+    <t>ENDOFVD</t>
+  </si>
+  <si>
+    <t>DOOTB2</t>
+  </si>
+  <si>
+    <t>DOOTB1</t>
+  </si>
+  <si>
+    <t>INCND</t>
+  </si>
+  <si>
+    <t>INKOND</t>
+  </si>
+  <si>
+    <t>SMESHEND</t>
+  </si>
+  <si>
+    <t>S</t>
   </si>
 </sst>
 </file>
@@ -649,8 +676,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
@@ -669,31 +696,31 @@
     <row r="1" spans="1:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="13"/>
       <c r="B1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="D1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="E1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="F1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="G1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="H1" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="I1" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="J1" s="16" t="s">
         <v>10</v>
-      </c>
-      <c r="J1" s="16" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
@@ -765,7 +792,7 @@
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B4" s="9">
         <v>309.2</v>
@@ -798,7 +825,7 @@
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" s="12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B5" s="9">
         <v>235.9</v>
@@ -831,7 +858,7 @@
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B6" s="9">
         <v>233</v>
@@ -864,7 +891,7 @@
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B7" s="9">
         <v>175.5</v>
@@ -897,7 +924,7 @@
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B8" s="9">
         <v>106.9</v>
@@ -944,10 +971,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A78D0049-A33A-42B4-86C2-1F7629C05FA7}">
-  <dimension ref="A1:I20"/>
+  <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
@@ -963,25 +990,27 @@
     <row r="1" spans="1:9" s="19" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="20"/>
       <c r="B1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="D1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="E1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="F1" s="3"/>
+      <c r="F1" s="3" t="s">
+        <v>45</v>
+      </c>
       <c r="G1" s="10"/>
       <c r="H1" s="10"/>
       <c r="I1" s="10"/>
     </row>
     <row r="2" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="14" t="s">
-        <v>2</v>
+        <v>36</v>
       </c>
       <c r="B2" s="9">
         <v>511.5</v>
@@ -1003,7 +1032,7 @@
     </row>
     <row r="3" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B3" s="9">
         <f>[1]!PropsSI("T","P",C3*10^6,"Q",1,"Water")-273.15</f>
@@ -1026,7 +1055,7 @@
     </row>
     <row r="4" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B4" s="21">
         <v>298.8</v>
@@ -1048,7 +1077,7 @@
     </row>
     <row r="5" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B5" s="9">
         <v>166.5</v>
@@ -1070,7 +1099,7 @@
     </row>
     <row r="6" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B6" s="9">
         <f>[1]!PropsSI("T","P",C6*10^6,"Q",0,"Water")-273.15</f>
@@ -1093,7 +1122,7 @@
     </row>
     <row r="7" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="14" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="B7" s="9">
         <v>211.6</v>
@@ -1115,7 +1144,7 @@
     </row>
     <row r="8" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="14" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B8" s="9">
         <f>[1]!PropsSI("T","P",C8*10^6,"Q",1,"Water")-273.15</f>
@@ -1138,7 +1167,7 @@
     </row>
     <row r="9" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="14" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B9" s="21">
         <v>164.6</v>
@@ -1161,7 +1190,7 @@
     </row>
     <row r="10" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="14" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B10" s="9">
         <v>60</v>
@@ -1184,17 +1213,17 @@
     </row>
     <row r="11" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="22" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C11" s="10">
         <v>3.8226901700000003E-2</v>
       </c>
       <c r="D11" s="10"/>
       <c r="E11" s="11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F11" s="10"/>
       <c r="G11" s="10"/>
@@ -1203,7 +1232,7 @@
     </row>
     <row r="12" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B12" s="9">
         <v>49.839511130751802</v>
@@ -1213,7 +1242,7 @@
       </c>
       <c r="D12" s="10"/>
       <c r="E12" s="11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F12" s="10"/>
       <c r="G12" s="10"/>
@@ -1222,7 +1251,7 @@
     </row>
     <row r="13" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B13" s="9">
         <v>46</v>
@@ -1241,7 +1270,7 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B14" s="2">
         <v>64.77</v>
@@ -1255,7 +1284,7 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B15" s="2">
         <v>107.6</v>
@@ -1272,7 +1301,7 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B16" s="2">
         <v>106.101586260687</v>
@@ -1287,9 +1316,9 @@
         <v>43.733333333333299</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B17" s="2">
         <v>70.294916839916795</v>
@@ -1305,9 +1334,9 @@
         <v>800</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B18" s="2">
         <v>98.56</v>
@@ -1323,9 +1352,9 @@
         <v>800</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B19" s="2">
         <v>46</v>
@@ -1342,9 +1371,9 @@
         <v>800</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B20" s="2">
         <v>76</v>
@@ -1357,6 +1386,161 @@
       </c>
       <c r="E20" s="4">
         <v>32.141666666666602</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B21" s="2">
+        <v>508.6</v>
+      </c>
+      <c r="C21" s="3">
+        <v>7.8449999999999998</v>
+      </c>
+      <c r="D21" s="10">
+        <f>[1]!PropsSI("H","T",B21+273.15,"P",C21*10^6,"Water")/1000</f>
+        <v>3422.525471918223</v>
+      </c>
+      <c r="E21" s="4">
+        <v>63.4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B22" s="2">
+        <v>195.85257753389442</v>
+      </c>
+      <c r="C22" s="3">
+        <v>0.54900000000000004</v>
+      </c>
+      <c r="D22" s="10">
+        <v>2844.2851295823216</v>
+      </c>
+      <c r="E22" s="4">
+        <f>E21</f>
+        <v>63.4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B23" s="2">
+        <v>209.8</v>
+      </c>
+      <c r="C23" s="3">
+        <v>0.61099999999999999</v>
+      </c>
+      <c r="D23" s="10">
+        <f>[1]!PropsSI("H","T",B23+273.15,"P",C23*10^6,"Water")/1000</f>
+        <v>2871.4269447672918</v>
+      </c>
+      <c r="E23" s="4">
+        <f>E7</f>
+        <v>14.76</v>
+      </c>
+      <c r="F23" s="3">
+        <f>[1]!PropsSI("S","T",B23+273.15,"P",C23*10^6,"Water")/1000</f>
+        <v>7.0037387010430008</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B24" s="2">
+        <v>197.8</v>
+      </c>
+      <c r="C24" s="3">
+        <v>0.54900000000000004</v>
+      </c>
+      <c r="D24" s="10">
+        <f>[1]!PropsSI("H","T",B24+273.15,"P",C24*10^6,"Water")/1000</f>
+        <v>2848.5216025782688</v>
+      </c>
+      <c r="E24" s="4">
+        <f>E23+E22</f>
+        <v>78.16</v>
+      </c>
+      <c r="F24" s="3">
+        <f>[1]!PropsSI("S","T",B24+273.15,"P",C24*10^6,"Water")/1000</f>
+        <v>7.0036012848044198</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B25" s="2">
+        <v>131.4</v>
+      </c>
+      <c r="C25" s="3">
+        <v>0.25419999999999998</v>
+      </c>
+      <c r="D25" s="10">
+        <f>[1]!PropsSI("H","T",B25+273.15,"P",C25*10^6,"Water")/1000</f>
+        <v>2724.8615334140964</v>
+      </c>
+      <c r="E25" s="4">
+        <f>E24</f>
+        <v>78.16</v>
+      </c>
+      <c r="F25" s="3">
+        <f>[1]!PropsSI("S","T",B25+273.15,"P",C25*10^6,"Water")/1000</f>
+        <v>7.0657703965611702</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C26" s="3">
+        <v>0.1525</v>
+      </c>
+      <c r="D26" s="10">
+        <v>2652</v>
+      </c>
+      <c r="E26" s="4">
+        <f>E25</f>
+        <v>78.16</v>
+      </c>
+      <c r="F26" s="3">
+        <v>7.109</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C27" s="3">
+        <f>C26</f>
+        <v>0.1525</v>
+      </c>
+      <c r="D27" s="3">
+        <f>D26</f>
+        <v>2652</v>
+      </c>
+      <c r="E27" s="4">
+        <f>E26</f>
+        <v>78.16</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C28" s="3">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="D28" s="3">
+        <v>2338.0245599904306</v>
+      </c>
+      <c r="E28" s="4">
+        <f>E27</f>
+        <v>78.16</v>
       </c>
     </row>
   </sheetData>

--- a/streams0.xlsx
+++ b/streams0.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5831A8F8-3949-4F5F-92DA-7C7D8352A259}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79359089-5B76-41DB-B3F3-599AC7D829A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-14510" yWindow="-110" windowWidth="14620" windowHeight="25220" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -974,7 +974,7 @@
   <dimension ref="A1:I28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="13" x14ac:dyDescent="0.3"/>

--- a/streams0.xlsx
+++ b/streams0.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79359089-5B76-41DB-B3F3-599AC7D829A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1489018-7EBB-450F-9F68-474EE3267CB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-14510" yWindow="-110" windowWidth="14620" windowHeight="25220" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-14510" yWindow="-110" windowWidth="14620" windowHeight="25220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="gas" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="47">
   <si>
     <t>GTU-PEVD</t>
   </si>
@@ -170,6 +170,9 @@
   </si>
   <si>
     <t>S</t>
+  </si>
+  <si>
+    <t>GTU-KU</t>
   </si>
 </sst>
 </file>
@@ -311,7 +314,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -375,6 +378,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -674,10 +680,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P11"/>
+  <dimension ref="A1:P12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
@@ -725,7 +731,7 @@
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" s="12" t="s">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="B2" s="9">
         <v>542.1</v>
@@ -734,7 +740,6 @@
         <v>0.1</v>
       </c>
       <c r="D2" s="10">
-        <f>[1]!PropsSI("H","P",C2*10^6,"T",B2+273.15,"REFPROP::"&amp;[1]!MixtureString($F$1:$J$1,F2:J2))/1000</f>
         <v>958.86919853128609</v>
       </c>
       <c r="E2" s="11">
@@ -752,24 +757,23 @@
       <c r="I2" s="10">
         <v>5.9400000000000001E-2</v>
       </c>
-      <c r="J2" s="11">
+      <c r="J2" s="24">
         <v>6.4999999999999997E-3</v>
       </c>
-      <c r="P2" s="18"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" s="12" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B3" s="9">
-        <v>468.05</v>
+        <v>542.1</v>
       </c>
       <c r="C3" s="10">
         <v>0.1</v>
       </c>
       <c r="D3" s="10">
         <f>[1]!PropsSI("H","P",C3*10^6,"T",B3+273.15,"REFPROP::"&amp;[1]!MixtureString($F$1:$J$1,F3:J3))/1000</f>
-        <v>874.26792911178234</v>
+        <v>958.86919853128609</v>
       </c>
       <c r="E3" s="11">
         <v>503.8</v>
@@ -789,20 +793,21 @@
       <c r="J3" s="11">
         <v>6.4999999999999997E-3</v>
       </c>
+      <c r="P3" s="18"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" s="12" t="s">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="B4" s="9">
-        <v>309.2</v>
+        <v>468.05</v>
       </c>
       <c r="C4" s="10">
         <v>0.1</v>
       </c>
       <c r="D4" s="10">
         <f>[1]!PropsSI("H","P",C4*10^6,"T",B4+273.15,"REFPROP::"&amp;[1]!MixtureString($F$1:$J$1,F4:J4))/1000</f>
-        <v>697.66595139225319</v>
+        <v>874.26792911178234</v>
       </c>
       <c r="E4" s="11">
         <v>503.8</v>
@@ -825,17 +830,17 @@
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" s="12" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B5" s="9">
-        <v>235.9</v>
+        <v>309.2</v>
       </c>
       <c r="C5" s="10">
         <v>0.1</v>
       </c>
       <c r="D5" s="10">
         <f>[1]!PropsSI("H","P",C5*10^6,"T",B5+273.15,"REFPROP::"&amp;[1]!MixtureString($F$1:$J$1,F5:J5))/1000</f>
-        <v>618.33586643179672</v>
+        <v>697.66595139225319</v>
       </c>
       <c r="E5" s="11">
         <v>503.8</v>
@@ -858,17 +863,17 @@
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" s="12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B6" s="9">
-        <v>233</v>
+        <v>235.9</v>
       </c>
       <c r="C6" s="10">
         <v>0.1</v>
       </c>
       <c r="D6" s="10">
         <f>[1]!PropsSI("H","P",C6*10^6,"T",B6+273.15,"REFPROP::"&amp;[1]!MixtureString($F$1:$J$1,F6:J6))/1000</f>
-        <v>615.22281759257271</v>
+        <v>618.33586643179672</v>
       </c>
       <c r="E6" s="11">
         <v>503.8</v>
@@ -891,17 +896,17 @@
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B7" s="9">
-        <v>175.5</v>
+        <v>233</v>
       </c>
       <c r="C7" s="10">
         <v>0.1</v>
       </c>
       <c r="D7" s="10">
         <f>[1]!PropsSI("H","P",C7*10^6,"T",B7+273.15,"REFPROP::"&amp;[1]!MixtureString($F$1:$J$1,F7:J7))/1000</f>
-        <v>553.86016830512403</v>
+        <v>615.22281759257271</v>
       </c>
       <c r="E7" s="11">
         <v>503.8</v>
@@ -924,17 +929,17 @@
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B8" s="9">
-        <v>106.9</v>
+        <v>175.5</v>
       </c>
       <c r="C8" s="10">
         <v>0.1</v>
       </c>
       <c r="D8" s="10">
         <f>[1]!PropsSI("H","P",C8*10^6,"T",B8+273.15,"REFPROP::"&amp;[1]!MixtureString($F$1:$J$1,F8:J8))/1000</f>
-        <v>481.43243266974537</v>
+        <v>553.86016830512403</v>
       </c>
       <c r="E8" s="11">
         <v>503.8</v>
@@ -956,13 +961,46 @@
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="D9" s="10" t="e">
+      <c r="A9" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="9">
+        <v>106.9</v>
+      </c>
+      <c r="C9" s="10">
+        <v>0.1</v>
+      </c>
+      <c r="D9" s="10">
         <f>[1]!PropsSI("H","P",C9*10^6,"T",B9+273.15,"REFPROP::"&amp;[1]!MixtureString($F$1:$J$1,F9:J9))/1000</f>
+        <v>481.43243266974537</v>
+      </c>
+      <c r="E9" s="11">
+        <v>503.8</v>
+      </c>
+      <c r="F9" s="9">
+        <v>0.78029999999999999</v>
+      </c>
+      <c r="G9" s="10">
+        <v>0.1237</v>
+      </c>
+      <c r="H9" s="10">
+        <v>3.0099999999999998E-2</v>
+      </c>
+      <c r="I9" s="10">
+        <v>5.9400000000000001E-2</v>
+      </c>
+      <c r="J9" s="11">
+        <v>6.4999999999999997E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="D10" s="10" t="e">
+        <f>[1]!PropsSI("H","P",C10*10^6,"T",B10+273.15,"REFPROP::"&amp;[1]!MixtureString($F$1:$J$1,F10:J10))/1000</f>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="C11" s="3"/>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="C12" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -973,8 +1011,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A78D0049-A33A-42B4-86C2-1F7629C05FA7}">
   <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="13" x14ac:dyDescent="0.3"/>

--- a/streams0.xlsx
+++ b/streams0.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1489018-7EBB-450F-9F68-474EE3267CB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7DF338A-FA04-4117-BCBA-62EE00102C0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-14510" yWindow="-110" windowWidth="14620" windowHeight="25220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-14510" yWindow="-110" windowWidth="14620" windowHeight="25220" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="gas" sheetId="1" r:id="rId1"/>
@@ -682,8 +682,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
@@ -1011,8 +1011,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A78D0049-A33A-42B4-86C2-1F7629C05FA7}">
   <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="13" x14ac:dyDescent="0.3"/>

--- a/streams0.xlsx
+++ b/streams0.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7DF338A-FA04-4117-BCBA-62EE00102C0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43EF1FD1-385A-48A8-8A97-52343E00C929}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-14510" yWindow="-110" windowWidth="14620" windowHeight="25220" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="50">
   <si>
     <t>GTU-PEVD</t>
   </si>
@@ -173,6 +173,15 @@
   </si>
   <si>
     <t>GTU-KU</t>
+  </si>
+  <si>
+    <t>SWIN-TURB</t>
+  </si>
+  <si>
+    <t>GPK-RECIRC</t>
+  </si>
+  <si>
+    <t>GPK-BYPASS</t>
   </si>
 </sst>
 </file>
@@ -1009,10 +1018,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A78D0049-A33A-42B4-86C2-1F7629C05FA7}">
-  <dimension ref="A1:I28"/>
+  <dimension ref="A1:I31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
@@ -1250,19 +1259,13 @@
       <c r="I10" s="10"/>
     </row>
     <row r="11" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="B11" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="C11" s="10">
-        <v>3.8226901700000003E-2</v>
-      </c>
+      <c r="A11" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B11" s="9"/>
+      <c r="C11" s="10"/>
       <c r="D11" s="10"/>
-      <c r="E11" s="11" t="s">
-        <v>27</v>
-      </c>
+      <c r="E11" s="11"/>
       <c r="F11" s="10"/>
       <c r="G11" s="10"/>
       <c r="H11" s="10"/>
@@ -1270,314 +1273,365 @@
     </row>
     <row r="12" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B12" s="9">
-        <v>49.839511130751802</v>
-      </c>
-      <c r="C12" s="10">
-        <v>3.8226901700000003E-2</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="B12" s="9"/>
+      <c r="C12" s="10"/>
       <c r="D12" s="10"/>
-      <c r="E12" s="11" t="s">
-        <v>27</v>
-      </c>
+      <c r="E12" s="11"/>
       <c r="F12" s="10"/>
       <c r="G12" s="10"/>
       <c r="H12" s="10"/>
       <c r="I12" s="10"/>
     </row>
     <row r="13" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="B13" s="9">
-        <v>46</v>
+      <c r="A13" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>28</v>
       </c>
       <c r="C13" s="10">
-        <v>1</v>
+        <v>3.8226901700000003E-2</v>
       </c>
       <c r="D13" s="10"/>
-      <c r="E13" s="11">
-        <v>100.77673095348899</v>
+      <c r="E13" s="11" t="s">
+        <v>27</v>
       </c>
       <c r="F13" s="10"/>
       <c r="G13" s="10"/>
       <c r="H13" s="10"/>
       <c r="I13" s="10"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B14" s="2">
-        <v>64.77</v>
-      </c>
-      <c r="C14" s="3">
+        <v>24</v>
+      </c>
+      <c r="B14" s="9">
+        <v>49.839511130751802</v>
+      </c>
+      <c r="C14" s="10">
+        <v>3.8226901700000003E-2</v>
+      </c>
+      <c r="D14" s="10"/>
+      <c r="E14" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
+    </row>
+    <row r="15" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B15" s="9">
+        <v>46</v>
+      </c>
+      <c r="C15" s="10">
         <v>1</v>
       </c>
-      <c r="E14" s="11">
+      <c r="D15" s="10"/>
+      <c r="E15" s="11">
+        <v>800</v>
+      </c>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
+    </row>
+    <row r="16" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" s="9">
+        <v>46</v>
+      </c>
+      <c r="C16" s="10">
+        <v>1</v>
+      </c>
+      <c r="D16" s="10"/>
+      <c r="E16" s="11">
         <v>100.77673095348899</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="B15" s="2">
-        <v>107.6</v>
-      </c>
-      <c r="C15" s="3">
-        <v>0.13219638629678299</v>
-      </c>
-      <c r="D15" s="3">
-        <v>2622.5496464962498</v>
-      </c>
-      <c r="E15" s="4">
-        <v>43.733333333333299</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="B16" s="2">
-        <v>106.101586260687</v>
-      </c>
-      <c r="C16" s="3">
-        <v>0.12558656698194401</v>
-      </c>
-      <c r="D16" s="3">
-        <v>444.928681619781</v>
-      </c>
-      <c r="E16" s="4">
-        <v>43.733333333333299</v>
-      </c>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="10"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B17" s="2">
-        <v>70.294916839916795</v>
+        <v>64.77</v>
       </c>
       <c r="C17" s="3">
         <v>1</v>
       </c>
-      <c r="D17" s="3">
-        <f>4.187*B17</f>
-        <v>294.32481680873161</v>
-      </c>
-      <c r="E17" s="4">
-        <v>800</v>
+      <c r="E17" s="11">
+        <v>100.77673095348899</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B18" s="2">
-        <v>98.56</v>
+        <v>107.6</v>
       </c>
       <c r="C18" s="3">
-        <v>1</v>
+        <v>0.13219638629678299</v>
       </c>
       <c r="D18" s="3">
-        <f>4.187*B18</f>
-        <v>412.67072000000002</v>
+        <v>2622.5496464962498</v>
       </c>
       <c r="E18" s="4">
-        <v>800</v>
+        <v>43.733333333333299</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B19" s="2">
-        <v>46</v>
-      </c>
-      <c r="C19" s="23">
-        <v>1</v>
-      </c>
-      <c r="D19" s="23">
-        <f>B19*4.187</f>
-        <v>192.602</v>
+        <v>106.101586260687</v>
+      </c>
+      <c r="C19" s="3">
+        <v>0.12558656698194401</v>
+      </c>
+      <c r="D19" s="3">
+        <v>444.928681619781</v>
       </c>
       <c r="E19" s="4">
-        <f>E18</f>
-        <v>800</v>
+        <v>43.733333333333299</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B20" s="2">
-        <v>76</v>
+        <v>70.294916839916795</v>
       </c>
       <c r="C20" s="3">
-        <v>4.0238843925466602E-2</v>
+        <v>1</v>
       </c>
       <c r="D20" s="3">
-        <v>2464.75601712861</v>
+        <f>4.187*B20</f>
+        <v>294.32481680873161</v>
       </c>
       <c r="E20" s="4">
-        <v>32.141666666666602</v>
+        <v>800</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B21" s="2">
-        <v>508.6</v>
+        <v>98.56</v>
       </c>
       <c r="C21" s="3">
-        <v>7.8449999999999998</v>
-      </c>
-      <c r="D21" s="10">
-        <f>[1]!PropsSI("H","T",B21+273.15,"P",C21*10^6,"Water")/1000</f>
-        <v>3422.525471918223</v>
+        <v>1</v>
+      </c>
+      <c r="D21" s="3">
+        <f>4.187*B21</f>
+        <v>412.67072000000002</v>
       </c>
       <c r="E21" s="4">
-        <v>63.4</v>
+        <v>800</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="B22" s="2">
-        <v>195.85257753389442</v>
-      </c>
-      <c r="C22" s="3">
-        <v>0.54900000000000004</v>
-      </c>
-      <c r="D22" s="10">
-        <v>2844.2851295823216</v>
+        <v>48.336070686070599</v>
+      </c>
+      <c r="C22" s="23">
+        <v>1</v>
+      </c>
+      <c r="D22" s="23">
+        <f>B22*4.187</f>
+        <v>202.38312796257762</v>
       </c>
       <c r="E22" s="4">
         <f>E21</f>
-        <v>63.4</v>
+        <v>800</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B23" s="2">
+        <v>76</v>
+      </c>
+      <c r="C23" s="3">
+        <v>4.0238843925466602E-2</v>
+      </c>
+      <c r="D23" s="3">
+        <v>2464.75601712861</v>
+      </c>
+      <c r="E23" s="4">
+        <v>32.141666666666602</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B24" s="2">
+        <v>508.6</v>
+      </c>
+      <c r="C24" s="3">
+        <v>7.8449999999999998</v>
+      </c>
+      <c r="D24" s="10">
+        <f>[1]!PropsSI("H","T",B24+273.15,"P",C24*10^6,"Water")/1000</f>
+        <v>3422.525471918223</v>
+      </c>
+      <c r="E24" s="4">
+        <v>63.4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B25" s="2">
+        <v>195.85257753389442</v>
+      </c>
+      <c r="C25" s="3">
+        <v>0.54900000000000004</v>
+      </c>
+      <c r="D25" s="10">
+        <v>2844.2851295823216</v>
+      </c>
+      <c r="E25" s="4">
+        <f>E24</f>
+        <v>63.4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B23" s="2">
+      <c r="B26" s="2">
         <v>209.8</v>
       </c>
-      <c r="C23" s="3">
+      <c r="C26" s="3">
         <v>0.61099999999999999</v>
       </c>
-      <c r="D23" s="10">
-        <f>[1]!PropsSI("H","T",B23+273.15,"P",C23*10^6,"Water")/1000</f>
+      <c r="D26" s="10">
+        <f>[1]!PropsSI("H","T",B26+273.15,"P",C26*10^6,"Water")/1000</f>
         <v>2871.4269447672918</v>
       </c>
-      <c r="E23" s="4">
+      <c r="E26" s="4">
         <f>E7</f>
         <v>14.76</v>
       </c>
-      <c r="F23" s="3">
-        <f>[1]!PropsSI("S","T",B23+273.15,"P",C23*10^6,"Water")/1000</f>
+      <c r="F26" s="3">
+        <f>[1]!PropsSI("S","T",B26+273.15,"P",C26*10^6,"Water")/1000</f>
         <v>7.0037387010430008</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="B24" s="2">
-        <v>197.8</v>
-      </c>
-      <c r="C24" s="3">
-        <v>0.54900000000000004</v>
-      </c>
-      <c r="D24" s="10">
-        <f>[1]!PropsSI("H","T",B24+273.15,"P",C24*10^6,"Water")/1000</f>
-        <v>2848.5216025782688</v>
-      </c>
-      <c r="E24" s="4">
-        <f>E23+E22</f>
-        <v>78.16</v>
-      </c>
-      <c r="F24" s="3">
-        <f>[1]!PropsSI("S","T",B24+273.15,"P",C24*10^6,"Water")/1000</f>
-        <v>7.0036012848044198</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="B25" s="2">
-        <v>131.4</v>
-      </c>
-      <c r="C25" s="3">
-        <v>0.25419999999999998</v>
-      </c>
-      <c r="D25" s="10">
-        <f>[1]!PropsSI("H","T",B25+273.15,"P",C25*10^6,"Water")/1000</f>
-        <v>2724.8615334140964</v>
-      </c>
-      <c r="E25" s="4">
-        <f>E24</f>
-        <v>78.16</v>
-      </c>
-      <c r="F25" s="3">
-        <f>[1]!PropsSI("S","T",B25+273.15,"P",C25*10^6,"Water")/1000</f>
-        <v>7.0657703965611702</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="C26" s="3">
-        <v>0.1525</v>
-      </c>
-      <c r="D26" s="10">
-        <v>2652</v>
-      </c>
-      <c r="E26" s="4">
-        <f>E25</f>
-        <v>78.16</v>
-      </c>
-      <c r="F26" s="3">
-        <v>7.109</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="5" t="s">
-        <v>42</v>
+        <v>44</v>
+      </c>
+      <c r="B27" s="2">
+        <v>197.8</v>
       </c>
       <c r="C27" s="3">
-        <f>C26</f>
-        <v>0.1525</v>
-      </c>
-      <c r="D27" s="3">
-        <f>D26</f>
-        <v>2652</v>
+        <v>0.54900000000000004</v>
+      </c>
+      <c r="D27" s="10">
+        <f>[1]!PropsSI("H","T",B27+273.15,"P",C27*10^6,"Water")/1000</f>
+        <v>2848.5216025782688</v>
       </c>
       <c r="E27" s="4">
-        <f>E26</f>
+        <f>E26+E25</f>
         <v>78.16</v>
+      </c>
+      <c r="F27" s="3">
+        <f>[1]!PropsSI("S","T",B27+273.15,"P",C27*10^6,"Water")/1000</f>
+        <v>7.0036012848044198</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="5" t="s">
-        <v>43</v>
+        <v>40</v>
+      </c>
+      <c r="B28" s="2">
+        <v>131.4</v>
       </c>
       <c r="C28" s="3">
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="D28" s="3">
-        <v>2338.0245599904306</v>
+        <v>0.25419999999999998</v>
+      </c>
+      <c r="D28" s="10">
+        <f>[1]!PropsSI("H","T",B28+273.15,"P",C28*10^6,"Water")/1000</f>
+        <v>2724.8615334140964</v>
       </c>
       <c r="E28" s="4">
         <f>E27</f>
+        <v>78.16</v>
+      </c>
+      <c r="F28" s="3">
+        <f>[1]!PropsSI("S","T",B28+273.15,"P",C28*10^6,"Water")/1000</f>
+        <v>7.0657703965611702</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C29" s="3">
+        <v>0.1525</v>
+      </c>
+      <c r="D29" s="10">
+        <v>2652</v>
+      </c>
+      <c r="E29" s="4">
+        <f>E28</f>
+        <v>78.16</v>
+      </c>
+      <c r="F29" s="3">
+        <v>7.109</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C30" s="3">
+        <f>C29</f>
+        <v>0.1525</v>
+      </c>
+      <c r="D30" s="3">
+        <f>D29</f>
+        <v>2652</v>
+      </c>
+      <c r="E30" s="4">
+        <f>E29</f>
+        <v>78.16</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C31" s="3">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="D31" s="3">
+        <v>2338.0245599904306</v>
+      </c>
+      <c r="E31" s="4">
+        <f>E30</f>
         <v>78.16</v>
       </c>
     </row>

--- a/streams0.xlsx
+++ b/streams0.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43EF1FD1-385A-48A8-8A97-52343E00C929}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD18F820-4505-4510-BEBB-142AFF51D4A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-14510" yWindow="-110" windowWidth="14620" windowHeight="25220" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="52">
   <si>
     <t>GTU-PEVD</t>
   </si>
@@ -94,9 +94,6 @@
     <t>BND-PEN</t>
   </si>
   <si>
-    <t>X-GPK</t>
-  </si>
-  <si>
     <t>GPK-IND</t>
   </si>
   <si>
@@ -182,6 +179,15 @@
   </si>
   <si>
     <t>GPK-BYPASS</t>
+  </si>
+  <si>
+    <t>REC-GPK</t>
+  </si>
+  <si>
+    <t>SMESHOD-REC</t>
+  </si>
+  <si>
+    <t>GPK-REC</t>
   </si>
 </sst>
 </file>
@@ -740,7 +746,7 @@
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" s="12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B2" s="9">
         <v>542.1</v>
@@ -1018,10 +1024,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A78D0049-A33A-42B4-86C2-1F7629C05FA7}">
-  <dimension ref="A1:I31"/>
+  <dimension ref="A1:I33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
@@ -1049,7 +1055,7 @@
         <v>5</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G1" s="10"/>
       <c r="H1" s="10"/>
@@ -1057,7 +1063,7 @@
     </row>
     <row r="2" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B2" s="9">
         <v>511.5</v>
@@ -1169,7 +1175,7 @@
     </row>
     <row r="7" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B7" s="9">
         <v>211.6</v>
@@ -1191,7 +1197,7 @@
     </row>
     <row r="8" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" s="9">
         <f>[1]!PropsSI("T","P",C8*10^6,"Q",1,"Water")-273.15</f>
@@ -1214,7 +1220,7 @@
     </row>
     <row r="9" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B9" s="21">
         <v>164.6</v>
@@ -1237,21 +1243,19 @@
     </row>
     <row r="10" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" s="9">
-        <v>60</v>
+        <v>51</v>
+      </c>
+      <c r="B10" s="21">
+        <v>164.6</v>
       </c>
       <c r="C10" s="10">
         <v>0.69640000000000002</v>
       </c>
       <c r="D10" s="10">
-        <f>[1]!PropsSI("H","T",B10+273.15,"P",C10*10^6,"Water")/1000</f>
-        <v>251.74839576328077</v>
+        <v>695.4937008073166</v>
       </c>
       <c r="E10" s="11">
-        <f>E9</f>
-        <v>78.16</v>
+        <v>82.91</v>
       </c>
       <c r="F10" s="10"/>
       <c r="G10" s="10"/>
@@ -1259,45 +1263,58 @@
       <c r="I10" s="10"/>
     </row>
     <row r="11" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="B11" s="9"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="11"/>
+      <c r="A11" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="B11" s="9">
+        <v>60</v>
+      </c>
+      <c r="C11" s="10">
+        <v>0.69640000000000002</v>
+      </c>
+      <c r="D11" s="10">
+        <f>[1]!PropsSI("H","T",B11+273.15,"P",C11*10^6,"Water")/1000</f>
+        <v>251.74839576328077</v>
+      </c>
+      <c r="E11" s="11">
+        <v>82.91</v>
+      </c>
       <c r="F11" s="10"/>
       <c r="G11" s="10"/>
       <c r="H11" s="10"/>
       <c r="I11" s="10"/>
     </row>
     <row r="12" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="B12" s="9"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="11"/>
+      <c r="A12" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="B12" s="9">
+        <v>44.2</v>
+      </c>
+      <c r="C12" s="10">
+        <f>C11</f>
+        <v>0.69640000000000002</v>
+      </c>
+      <c r="D12" s="10">
+        <v>185.7</v>
+      </c>
+      <c r="E12" s="11">
+        <f>E9</f>
+        <v>78.16</v>
+      </c>
       <c r="F12" s="10"/>
       <c r="G12" s="10"/>
       <c r="H12" s="10"/>
       <c r="I12" s="10"/>
     </row>
     <row r="13" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="B13" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="C13" s="10">
-        <v>3.8226901700000003E-2</v>
-      </c>
+      <c r="A13" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B13" s="9"/>
+      <c r="C13" s="10"/>
       <c r="D13" s="10"/>
-      <c r="E13" s="11" t="s">
-        <v>27</v>
-      </c>
+      <c r="E13" s="11"/>
       <c r="F13" s="10"/>
       <c r="G13" s="10"/>
       <c r="H13" s="10"/>
@@ -1305,36 +1322,30 @@
     </row>
     <row r="14" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B14" s="9">
-        <v>49.839511130751802</v>
-      </c>
-      <c r="C14" s="10">
-        <v>3.8226901700000003E-2</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="B14" s="9"/>
+      <c r="C14" s="10"/>
       <c r="D14" s="10"/>
-      <c r="E14" s="11" t="s">
-        <v>27</v>
-      </c>
+      <c r="E14" s="11"/>
       <c r="F14" s="10"/>
       <c r="G14" s="10"/>
       <c r="H14" s="10"/>
       <c r="I14" s="10"/>
     </row>
     <row r="15" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="B15" s="9">
-        <v>46</v>
+      <c r="A15" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>27</v>
       </c>
       <c r="C15" s="10">
-        <v>1</v>
+        <v>3.8226901700000003E-2</v>
       </c>
       <c r="D15" s="10"/>
-      <c r="E15" s="11">
-        <v>800</v>
+      <c r="E15" s="11" t="s">
+        <v>26</v>
       </c>
       <c r="F15" s="10"/>
       <c r="G15" s="10"/>
@@ -1343,295 +1354,333 @@
     </row>
     <row r="16" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B16" s="9">
-        <v>46</v>
+        <v>49.839511130751802</v>
       </c>
       <c r="C16" s="10">
-        <v>1</v>
+        <v>3.8226901700000003E-2</v>
       </c>
       <c r="D16" s="10"/>
-      <c r="E16" s="11">
-        <v>100.77673095348899</v>
+      <c r="E16" s="11" t="s">
+        <v>26</v>
       </c>
       <c r="F16" s="10"/>
       <c r="G16" s="10"/>
       <c r="H16" s="10"/>
       <c r="I16" s="10"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B17" s="2">
+        <v>46</v>
+      </c>
+      <c r="B17" s="9">
+        <v>46</v>
+      </c>
+      <c r="C17" s="10">
+        <v>1</v>
+      </c>
+      <c r="D17" s="10"/>
+      <c r="E17" s="11">
+        <v>800</v>
+      </c>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="10"/>
+    </row>
+    <row r="18" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" s="9">
+        <v>46</v>
+      </c>
+      <c r="C18" s="10">
+        <v>1</v>
+      </c>
+      <c r="D18" s="10"/>
+      <c r="E18" s="11">
+        <v>100.77673095348899</v>
+      </c>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="10"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" s="2">
         <v>64.77</v>
       </c>
-      <c r="C17" s="3">
+      <c r="C19" s="3">
         <v>1</v>
       </c>
-      <c r="E17" s="11">
+      <c r="E19" s="11">
         <v>100.77673095348899</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="5" t="s">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20" s="2">
+        <v>107.6</v>
+      </c>
+      <c r="C20" s="3">
+        <v>0.13219638629678299</v>
+      </c>
+      <c r="D20" s="3">
+        <v>2622.5496464962498</v>
+      </c>
+      <c r="E20" s="4">
+        <v>43.733333333333299</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A21" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B18" s="2">
-        <v>107.6</v>
-      </c>
-      <c r="C18" s="3">
-        <v>0.13219638629678299</v>
-      </c>
-      <c r="D18" s="3">
-        <v>2622.5496464962498</v>
-      </c>
-      <c r="E18" s="4">
+      <c r="B21" s="2">
+        <v>106.101586260687</v>
+      </c>
+      <c r="C21" s="3">
+        <v>0.12558656698194401</v>
+      </c>
+      <c r="D21" s="3">
+        <v>444.928681619781</v>
+      </c>
+      <c r="E21" s="4">
         <v>43.733333333333299</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="5" t="s">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A22" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B19" s="2">
-        <v>106.101586260687</v>
-      </c>
-      <c r="C19" s="3">
-        <v>0.12558656698194401</v>
-      </c>
-      <c r="D19" s="3">
-        <v>444.928681619781</v>
-      </c>
-      <c r="E19" s="4">
-        <v>43.733333333333299</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="5" t="s">
+      <c r="B22" s="2">
+        <v>70.294916839916795</v>
+      </c>
+      <c r="C22" s="3">
+        <v>1</v>
+      </c>
+      <c r="D22" s="3">
+        <f>4.187*B22</f>
+        <v>294.32481680873161</v>
+      </c>
+      <c r="E22" s="4">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A23" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B20" s="2">
-        <v>70.294916839916795</v>
-      </c>
-      <c r="C20" s="3">
+      <c r="B23" s="2">
+        <v>98.56</v>
+      </c>
+      <c r="C23" s="3">
         <v>1</v>
       </c>
-      <c r="D20" s="3">
-        <f>4.187*B20</f>
-        <v>294.32481680873161</v>
-      </c>
-      <c r="E20" s="4">
+      <c r="D23" s="3">
+        <f>4.187*B23</f>
+        <v>412.67072000000002</v>
+      </c>
+      <c r="E23" s="4">
         <v>800</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="5" t="s">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A24" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B21" s="2">
-        <v>98.56</v>
-      </c>
-      <c r="C21" s="3">
+      <c r="B24" s="2">
+        <v>48.336070686070599</v>
+      </c>
+      <c r="C24" s="23">
         <v>1</v>
       </c>
-      <c r="D21" s="3">
-        <f>4.187*B21</f>
-        <v>412.67072000000002</v>
-      </c>
-      <c r="E21" s="4">
+      <c r="D24" s="23">
+        <f>B24*4.187</f>
+        <v>202.38312796257762</v>
+      </c>
+      <c r="E24" s="4">
+        <f>E23</f>
         <v>800</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="5" t="s">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A25" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B22" s="2">
-        <v>48.336070686070599</v>
-      </c>
-      <c r="C22" s="23">
-        <v>1</v>
-      </c>
-      <c r="D22" s="23">
-        <f>B22*4.187</f>
-        <v>202.38312796257762</v>
-      </c>
-      <c r="E22" s="4">
-        <f>E21</f>
-        <v>800</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="B23" s="2">
+      <c r="B25" s="2">
         <v>76</v>
       </c>
-      <c r="C23" s="3">
+      <c r="C25" s="3">
         <v>4.0238843925466602E-2</v>
       </c>
-      <c r="D23" s="3">
+      <c r="D25" s="3">
         <v>2464.75601712861</v>
       </c>
-      <c r="E23" s="4">
+      <c r="E25" s="4">
         <v>32.141666666666602</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="B24" s="2">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A26" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B26" s="2">
         <v>508.6</v>
       </c>
-      <c r="C24" s="3">
+      <c r="C26" s="3">
         <v>7.8449999999999998</v>
-      </c>
-      <c r="D24" s="10">
-        <f>[1]!PropsSI("H","T",B24+273.15,"P",C24*10^6,"Water")/1000</f>
-        <v>3422.525471918223</v>
-      </c>
-      <c r="E24" s="4">
-        <v>63.4</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="B25" s="2">
-        <v>195.85257753389442</v>
-      </c>
-      <c r="C25" s="3">
-        <v>0.54900000000000004</v>
-      </c>
-      <c r="D25" s="10">
-        <v>2844.2851295823216</v>
-      </c>
-      <c r="E25" s="4">
-        <f>E24</f>
-        <v>63.4</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="B26" s="2">
-        <v>209.8</v>
-      </c>
-      <c r="C26" s="3">
-        <v>0.61099999999999999</v>
       </c>
       <c r="D26" s="10">
         <f>[1]!PropsSI("H","T",B26+273.15,"P",C26*10^6,"Water")/1000</f>
+        <v>3422.525471918223</v>
+      </c>
+      <c r="E26" s="4">
+        <v>63.4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A27" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B27" s="2">
+        <v>195.85257753389442</v>
+      </c>
+      <c r="C27" s="3">
+        <v>0.54900000000000004</v>
+      </c>
+      <c r="D27" s="10">
+        <v>2844.2851295823216</v>
+      </c>
+      <c r="E27" s="4">
+        <f>E26</f>
+        <v>63.4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A28" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B28" s="2">
+        <v>209.8</v>
+      </c>
+      <c r="C28" s="3">
+        <v>0.61099999999999999</v>
+      </c>
+      <c r="D28" s="10">
+        <f>[1]!PropsSI("H","T",B28+273.15,"P",C28*10^6,"Water")/1000</f>
         <v>2871.4269447672918</v>
       </c>
-      <c r="E26" s="4">
+      <c r="E28" s="4">
         <f>E7</f>
         <v>14.76</v>
       </c>
-      <c r="F26" s="3">
-        <f>[1]!PropsSI("S","T",B26+273.15,"P",C26*10^6,"Water")/1000</f>
-        <v>7.0037387010430008</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="B27" s="2">
-        <v>197.8</v>
-      </c>
-      <c r="C27" s="3">
-        <v>0.54900000000000004</v>
-      </c>
-      <c r="D27" s="10">
-        <f>[1]!PropsSI("H","T",B27+273.15,"P",C27*10^6,"Water")/1000</f>
-        <v>2848.5216025782688</v>
-      </c>
-      <c r="E27" s="4">
-        <f>E26+E25</f>
-        <v>78.16</v>
-      </c>
-      <c r="F27" s="3">
-        <f>[1]!PropsSI("S","T",B27+273.15,"P",C27*10^6,"Water")/1000</f>
-        <v>7.0036012848044198</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="B28" s="2">
-        <v>131.4</v>
-      </c>
-      <c r="C28" s="3">
-        <v>0.25419999999999998</v>
-      </c>
-      <c r="D28" s="10">
-        <f>[1]!PropsSI("H","T",B28+273.15,"P",C28*10^6,"Water")/1000</f>
-        <v>2724.8615334140964</v>
-      </c>
-      <c r="E28" s="4">
-        <f>E27</f>
-        <v>78.16</v>
-      </c>
       <c r="F28" s="3">
         <f>[1]!PropsSI("S","T",B28+273.15,"P",C28*10^6,"Water")/1000</f>
-        <v>7.0657703965611702</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+        <v>7.0037387010430008</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="5" t="s">
-        <v>41</v>
+        <v>43</v>
+      </c>
+      <c r="B29" s="2">
+        <v>197.8</v>
       </c>
       <c r="C29" s="3">
-        <v>0.1525</v>
+        <v>0.54900000000000004</v>
       </c>
       <c r="D29" s="10">
-        <v>2652</v>
+        <f>[1]!PropsSI("H","T",B29+273.15,"P",C29*10^6,"Water")/1000</f>
+        <v>2848.5216025782688</v>
       </c>
       <c r="E29" s="4">
-        <f>E28</f>
+        <f>E28+E27</f>
         <v>78.16</v>
       </c>
       <c r="F29" s="3">
-        <v>7.109</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+        <f>[1]!PropsSI("S","T",B29+273.15,"P",C29*10^6,"Water")/1000</f>
+        <v>7.0036012848044198</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="5" t="s">
-        <v>42</v>
+        <v>39</v>
+      </c>
+      <c r="B30" s="2">
+        <v>131.4</v>
       </c>
       <c r="C30" s="3">
-        <f>C29</f>
-        <v>0.1525</v>
-      </c>
-      <c r="D30" s="3">
-        <f>D29</f>
-        <v>2652</v>
+        <v>0.25419999999999998</v>
+      </c>
+      <c r="D30" s="10">
+        <f>[1]!PropsSI("H","T",B30+273.15,"P",C30*10^6,"Water")/1000</f>
+        <v>2724.8615334140964</v>
       </c>
       <c r="E30" s="4">
         <f>E29</f>
         <v>78.16</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F30" s="3">
+        <f>[1]!PropsSI("S","T",B30+273.15,"P",C30*10^6,"Water")/1000</f>
+        <v>7.0657703965611702</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" s="5" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C31" s="3">
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="D31" s="3">
-        <v>2338.0245599904306</v>
+        <v>0.1525</v>
+      </c>
+      <c r="D31" s="10">
+        <v>2652</v>
       </c>
       <c r="E31" s="4">
         <f>E30</f>
+        <v>78.16</v>
+      </c>
+      <c r="F31" s="3">
+        <v>7.109</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A32" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C32" s="3">
+        <f>C31</f>
+        <v>0.1525</v>
+      </c>
+      <c r="D32" s="3">
+        <f>D31</f>
+        <v>2652</v>
+      </c>
+      <c r="E32" s="4">
+        <f>E31</f>
+        <v>78.16</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C33" s="3">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="D33" s="3">
+        <v>2338.0245599904306</v>
+      </c>
+      <c r="E33" s="4">
+        <f>E32</f>
         <v>78.16</v>
       </c>
     </row>

--- a/streams0.xlsx
+++ b/streams0.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD18F820-4505-4510-BEBB-142AFF51D4A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FE09A02-3192-4579-8F9B-5EE2DD00BCBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-14510" yWindow="-110" windowWidth="14620" windowHeight="25220" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -197,7 +197,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.00000"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -218,6 +218,13 @@
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial Unicode MS"/>
+      <family val="2"/>
       <charset val="204"/>
     </font>
   </fonts>
@@ -329,7 +336,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -396,6 +403,15 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1024,10 +1040,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A78D0049-A33A-42B4-86C2-1F7629C05FA7}">
-  <dimension ref="A1:I33"/>
+  <dimension ref="A1:I43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
@@ -1036,7 +1052,9 @@
     <col min="2" max="2" width="9.1796875" style="2"/>
     <col min="3" max="4" width="9.1796875" style="3"/>
     <col min="5" max="5" width="9.1796875" style="4"/>
-    <col min="6" max="9" width="9.1796875" style="3"/>
+    <col min="6" max="6" width="9.1796875" style="3"/>
+    <col min="7" max="7" width="9.90625" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="9.1796875" style="3"/>
     <col min="10" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
@@ -1669,7 +1687,7 @@
         <v>78.16</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" s="5" t="s">
         <v>42</v>
       </c>
@@ -1683,6 +1701,15 @@
         <f>E32</f>
         <v>78.16</v>
       </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="G38" s="25"/>
+    </row>
+    <row r="43" spans="1:9" ht="14" x14ac:dyDescent="0.3">
+      <c r="F43" s="26"/>
+      <c r="G43" s="27"/>
+      <c r="H43" s="27"/>
+      <c r="I43" s="25"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/streams0.xlsx
+++ b/streams0.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FE09A02-3192-4579-8F9B-5EE2DD00BCBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9207A913-625C-4B44-A6CC-4BCAD3273295}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-14510" yWindow="-110" windowWidth="14620" windowHeight="25220" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="54">
   <si>
     <t>GTU-PEVD</t>
   </si>
@@ -188,6 +188,12 @@
   </si>
   <si>
     <t>GPK-REC</t>
+  </si>
+  <si>
+    <t>KOND-KN</t>
+  </si>
+  <si>
+    <t>KN-GPK</t>
   </si>
 </sst>
 </file>
@@ -1042,8 +1048,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A78D0049-A33A-42B4-86C2-1F7629C05FA7}">
   <dimension ref="A1:I43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="E34" sqref="B34:E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
@@ -1691,6 +1697,9 @@
       <c r="A33" s="5" t="s">
         <v>42</v>
       </c>
+      <c r="B33" s="2">
+        <v>41.51</v>
+      </c>
       <c r="C33" s="3">
         <v>8.0000000000000002E-3</v>
       </c>
@@ -1699,6 +1708,43 @@
       </c>
       <c r="E33" s="4">
         <f>E32</f>
+        <v>78.16</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A34" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B34" s="2">
+        <v>41.51</v>
+      </c>
+      <c r="C34" s="3">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="D34" s="3">
+        <v>173.9</v>
+      </c>
+      <c r="E34" s="4">
+        <f>E33</f>
+        <v>78.16</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A35" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B35" s="2">
+        <v>41.51</v>
+      </c>
+      <c r="C35" s="3">
+        <f>C9</f>
+        <v>0.69640000000000002</v>
+      </c>
+      <c r="D35" s="3">
+        <v>173.9</v>
+      </c>
+      <c r="E35" s="4">
+        <f>E34</f>
         <v>78.16</v>
       </c>
     </row>

--- a/streams0.xlsx
+++ b/streams0.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9207A913-625C-4B44-A6CC-4BCAD3273295}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E33E86E-8DDD-4A29-8856-7320A6D506A5}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-14510" yWindow="-110" windowWidth="14620" windowHeight="25220" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-14505" yWindow="-105" windowWidth="14625" windowHeight="25215" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="gas" sheetId="1" r:id="rId1"/>
@@ -14,18 +14,10 @@
   <externalReferences>
     <externalReference r:id="rId3"/>
   </externalReferences>
-  <calcPr calcId="181029" iterateCount="2000" iterateDelta="0.1"/>
+  <calcPr calcId="191029" iterateCount="2000" iterateDelta="0.1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -421,8 +413,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{833C66B1-4070-4F6B-8BE7-834B60BC98EC}"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -723,20 +715,20 @@
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.81640625" style="12" customWidth="1"/>
-    <col min="2" max="2" width="9.1796875" style="9"/>
-    <col min="3" max="4" width="9.1796875" style="10"/>
-    <col min="5" max="5" width="9.1796875" style="11"/>
-    <col min="6" max="6" width="9.1796875" style="9"/>
-    <col min="7" max="9" width="9.1796875" style="10"/>
-    <col min="10" max="10" width="9.1796875" style="11"/>
-    <col min="11" max="14" width="9.1796875" style="10"/>
-    <col min="15" max="16384" width="9.1796875" style="17"/>
+    <col min="1" max="1" width="14.85546875" style="12" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="9"/>
+    <col min="3" max="4" width="9.140625" style="10"/>
+    <col min="5" max="5" width="9.140625" style="11"/>
+    <col min="6" max="6" width="9.140625" style="9"/>
+    <col min="7" max="9" width="9.140625" style="10"/>
+    <col min="10" max="10" width="9.140625" style="11"/>
+    <col min="11" max="14" width="9.140625" style="10"/>
+    <col min="15" max="16384" width="9.140625" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="13"/>
       <c r="B1" s="6" t="s">
         <v>2</v>
@@ -766,7 +758,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" s="12" t="s">
         <v>45</v>
       </c>
@@ -798,7 +790,7 @@
         <v>6.4999999999999997E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="12" t="s">
         <v>0</v>
       </c>
@@ -832,7 +824,7 @@
       </c>
       <c r="P3" s="18"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" s="12" t="s">
         <v>1</v>
       </c>
@@ -865,7 +857,7 @@
         <v>6.4999999999999997E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="12" t="s">
         <v>12</v>
       </c>
@@ -898,7 +890,7 @@
         <v>6.4999999999999997E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" s="12" t="s">
         <v>15</v>
       </c>
@@ -931,7 +923,7 @@
         <v>6.4999999999999997E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" s="12" t="s">
         <v>16</v>
       </c>
@@ -964,7 +956,7 @@
         <v>6.4999999999999997E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" s="12" t="s">
         <v>17</v>
       </c>
@@ -997,7 +989,7 @@
         <v>6.4999999999999997E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" s="12" t="s">
         <v>18</v>
       </c>
@@ -1030,13 +1022,13 @@
         <v>6.4999999999999997E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D10" s="10" t="e">
         <f>[1]!PropsSI("H","P",C10*10^6,"T",B10+273.15,"REFPROP::"&amp;[1]!MixtureString($F$1:$J$1,F10:J10))/1000</f>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="3"/>
     </row>
   </sheetData>
@@ -1048,23 +1040,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A78D0049-A33A-42B4-86C2-1F7629C05FA7}">
   <dimension ref="A1:I43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E34" sqref="B34:E35"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.81640625" style="5" customWidth="1"/>
-    <col min="2" max="2" width="9.1796875" style="2"/>
-    <col min="3" max="4" width="9.1796875" style="3"/>
-    <col min="5" max="5" width="9.1796875" style="4"/>
-    <col min="6" max="6" width="9.1796875" style="3"/>
-    <col min="7" max="7" width="9.90625" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="9.1796875" style="3"/>
-    <col min="10" max="16384" width="9.1796875" style="1"/>
+    <col min="1" max="1" width="14.85546875" style="5" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="2"/>
+    <col min="3" max="4" width="9.140625" style="3"/>
+    <col min="5" max="5" width="9.140625" style="4"/>
+    <col min="6" max="6" width="9.140625" style="3"/>
+    <col min="7" max="7" width="9.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="9.140625" style="3"/>
+    <col min="10" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="19" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" s="19" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="20"/>
       <c r="B1" s="6" t="s">
         <v>2</v>
@@ -1085,7 +1077,7 @@
       <c r="H1" s="10"/>
       <c r="I1" s="10"/>
     </row>
-    <row r="2" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="14" t="s">
         <v>35</v>
       </c>
@@ -1107,7 +1099,7 @@
       <c r="H2" s="10"/>
       <c r="I2" s="10"/>
     </row>
-    <row r="3" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="14" t="s">
         <v>11</v>
       </c>
@@ -1130,7 +1122,7 @@
       <c r="H3" s="10"/>
       <c r="I3" s="10"/>
     </row>
-    <row r="4" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="14" t="s">
         <v>13</v>
       </c>
@@ -1152,7 +1144,7 @@
       <c r="H4" s="10"/>
       <c r="I4" s="10"/>
     </row>
-    <row r="5" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="14" t="s">
         <v>14</v>
       </c>
@@ -1164,7 +1156,7 @@
       </c>
       <c r="D5" s="10">
         <f>[1]!PropsSI("H","T",B5+273.15,"P",C5*10^6,"Water")/1000</f>
-        <v>708.31984887431838</v>
+        <v>708.31984887431372</v>
       </c>
       <c r="E5" s="11">
         <v>63.4</v>
@@ -1174,7 +1166,7 @@
       <c r="H5" s="10"/>
       <c r="I5" s="10"/>
     </row>
-    <row r="6" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="14" t="s">
         <v>19</v>
       </c>
@@ -1197,7 +1189,7 @@
       <c r="H6" s="10"/>
       <c r="I6" s="10"/>
     </row>
-    <row r="7" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="14" t="s">
         <v>34</v>
       </c>
@@ -1219,7 +1211,7 @@
       <c r="H7" s="10"/>
       <c r="I7" s="10"/>
     </row>
-    <row r="8" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="14" t="s">
         <v>21</v>
       </c>
@@ -1242,7 +1234,7 @@
       <c r="H8" s="10"/>
       <c r="I8" s="10"/>
     </row>
-    <row r="9" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="14" t="s">
         <v>20</v>
       </c>
@@ -1265,7 +1257,7 @@
       <c r="H9" s="10"/>
       <c r="I9" s="10"/>
     </row>
-    <row r="10" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="14" t="s">
         <v>51</v>
       </c>
@@ -1286,7 +1278,7 @@
       <c r="H10" s="10"/>
       <c r="I10" s="10"/>
     </row>
-    <row r="11" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="14" t="s">
         <v>49</v>
       </c>
@@ -1308,7 +1300,7 @@
       <c r="H11" s="10"/>
       <c r="I11" s="10"/>
     </row>
-    <row r="12" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="14" t="s">
         <v>50</v>
       </c>
@@ -1331,7 +1323,7 @@
       <c r="H12" s="10"/>
       <c r="I12" s="10"/>
     </row>
-    <row r="13" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>47</v>
       </c>
@@ -1344,7 +1336,7 @@
       <c r="H13" s="10"/>
       <c r="I13" s="10"/>
     </row>
-    <row r="14" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>48</v>
       </c>
@@ -1357,7 +1349,7 @@
       <c r="H14" s="10"/>
       <c r="I14" s="10"/>
     </row>
-    <row r="15" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="22" t="s">
         <v>22</v>
       </c>
@@ -1376,7 +1368,7 @@
       <c r="H15" s="10"/>
       <c r="I15" s="10"/>
     </row>
-    <row r="16" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>23</v>
       </c>
@@ -1395,7 +1387,7 @@
       <c r="H16" s="10"/>
       <c r="I16" s="10"/>
     </row>
-    <row r="17" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>46</v>
       </c>
@@ -1414,7 +1406,7 @@
       <c r="H17" s="10"/>
       <c r="I17" s="10"/>
     </row>
-    <row r="18" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>24</v>
       </c>
@@ -1433,7 +1425,7 @@
       <c r="H18" s="10"/>
       <c r="I18" s="10"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>25</v>
       </c>
@@ -1447,7 +1439,7 @@
         <v>100.77673095348899</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>28</v>
       </c>
@@ -1464,7 +1456,7 @@
         <v>43.733333333333299</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>29</v>
       </c>
@@ -1481,7 +1473,7 @@
         <v>43.733333333333299</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>30</v>
       </c>
@@ -1499,7 +1491,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
         <v>31</v>
       </c>
@@ -1517,7 +1509,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
         <v>32</v>
       </c>
@@ -1536,7 +1528,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
         <v>33</v>
       </c>
@@ -1553,7 +1545,7 @@
         <v>32.141666666666602</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
         <v>36</v>
       </c>
@@ -1571,7 +1563,7 @@
         <v>63.4</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
         <v>38</v>
       </c>
@@ -1589,7 +1581,7 @@
         <v>63.4</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
         <v>37</v>
       </c>
@@ -1612,7 +1604,7 @@
         <v>7.0037387010430008</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
         <v>43</v>
       </c>
@@ -1635,7 +1627,7 @@
         <v>7.0036012848044198</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
         <v>39</v>
       </c>
@@ -1650,7 +1642,7 @@
         <v>2724.8615334140964</v>
       </c>
       <c r="E30" s="4">
-        <f>E29</f>
+        <f t="shared" ref="E30:E35" si="0">E29</f>
         <v>78.16</v>
       </c>
       <c r="F30" s="3">
@@ -1658,7 +1650,7 @@
         <v>7.0657703965611702</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
         <v>40</v>
       </c>
@@ -1669,14 +1661,14 @@
         <v>2652</v>
       </c>
       <c r="E31" s="4">
-        <f>E30</f>
+        <f t="shared" si="0"/>
         <v>78.16</v>
       </c>
       <c r="F31" s="3">
         <v>7.109</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
         <v>41</v>
       </c>
@@ -1689,11 +1681,11 @@
         <v>2652</v>
       </c>
       <c r="E32" s="4">
-        <f>E31</f>
+        <f t="shared" si="0"/>
         <v>78.16</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
         <v>42</v>
       </c>
@@ -1707,11 +1699,11 @@
         <v>2338.0245599904306</v>
       </c>
       <c r="E33" s="4">
-        <f>E32</f>
+        <f t="shared" si="0"/>
         <v>78.16</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" s="5" t="s">
         <v>52</v>
       </c>
@@ -1725,11 +1717,11 @@
         <v>173.9</v>
       </c>
       <c r="E34" s="4">
-        <f>E33</f>
+        <f t="shared" si="0"/>
         <v>78.16</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" s="5" t="s">
         <v>53</v>
       </c>
@@ -1744,14 +1736,14 @@
         <v>173.9</v>
       </c>
       <c r="E35" s="4">
-        <f>E34</f>
+        <f t="shared" si="0"/>
         <v>78.16</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="G38" s="25"/>
     </row>
-    <row r="43" spans="1:9" ht="14" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="F43" s="26"/>
       <c r="G43" s="27"/>
       <c r="H43" s="27"/>

--- a/streams0.xlsx
+++ b/streams0.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E33E86E-8DDD-4A29-8856-7320A6D506A5}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0317B31-99D4-4BF9-B8F7-67E3152D4D49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-14505" yWindow="-105" windowWidth="14625" windowHeight="25215" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-14510" yWindow="-110" windowWidth="14620" windowHeight="25220" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="gas" sheetId="1" r:id="rId1"/>
@@ -14,10 +14,18 @@
   <externalReferences>
     <externalReference r:id="rId3"/>
   </externalReferences>
-  <calcPr calcId="191029" iterateCount="2000" iterateDelta="0.1"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -413,8 +421,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{833C66B1-4070-4F6B-8BE7-834B60BC98EC}"/>
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -712,23 +720,23 @@
   <dimension ref="A1:P12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" style="12" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="9"/>
-    <col min="3" max="4" width="9.140625" style="10"/>
-    <col min="5" max="5" width="9.140625" style="11"/>
-    <col min="6" max="6" width="9.140625" style="9"/>
-    <col min="7" max="9" width="9.140625" style="10"/>
-    <col min="10" max="10" width="9.140625" style="11"/>
-    <col min="11" max="14" width="9.140625" style="10"/>
-    <col min="15" max="16384" width="9.140625" style="17"/>
+    <col min="1" max="1" width="14.81640625" style="12" customWidth="1"/>
+    <col min="2" max="2" width="9.1796875" style="9"/>
+    <col min="3" max="4" width="9.1796875" style="10"/>
+    <col min="5" max="5" width="9.1796875" style="11"/>
+    <col min="6" max="6" width="9.1796875" style="9"/>
+    <col min="7" max="9" width="9.1796875" style="10"/>
+    <col min="10" max="10" width="9.1796875" style="11"/>
+    <col min="11" max="14" width="9.1796875" style="10"/>
+    <col min="15" max="16384" width="9.1796875" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="13"/>
       <c r="B1" s="6" t="s">
         <v>2</v>
@@ -758,7 +766,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" s="12" t="s">
         <v>45</v>
       </c>
@@ -790,7 +798,7 @@
         <v>6.4999999999999997E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" s="12" t="s">
         <v>0</v>
       </c>
@@ -824,7 +832,7 @@
       </c>
       <c r="P3" s="18"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" s="12" t="s">
         <v>1</v>
       </c>
@@ -857,7 +865,7 @@
         <v>6.4999999999999997E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" s="12" t="s">
         <v>12</v>
       </c>
@@ -890,7 +898,7 @@
         <v>6.4999999999999997E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" s="12" t="s">
         <v>15</v>
       </c>
@@ -923,7 +931,7 @@
         <v>6.4999999999999997E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="12" t="s">
         <v>16</v>
       </c>
@@ -956,7 +964,7 @@
         <v>6.4999999999999997E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" s="12" t="s">
         <v>17</v>
       </c>
@@ -989,7 +997,7 @@
         <v>6.4999999999999997E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" s="12" t="s">
         <v>18</v>
       </c>
@@ -1022,13 +1030,13 @@
         <v>6.4999999999999997E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D10" s="10" t="e">
         <f>[1]!PropsSI("H","P",C10*10^6,"T",B10+273.15,"REFPROP::"&amp;[1]!MixtureString($F$1:$J$1,F10:J10))/1000</f>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="C12" s="3"/>
     </row>
   </sheetData>
@@ -1040,23 +1048,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A78D0049-A33A-42B4-86C2-1F7629C05FA7}">
   <dimension ref="A1:I43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" style="5" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="2"/>
-    <col min="3" max="4" width="9.140625" style="3"/>
-    <col min="5" max="5" width="9.140625" style="4"/>
-    <col min="6" max="6" width="9.140625" style="3"/>
-    <col min="7" max="7" width="9.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="9.140625" style="3"/>
-    <col min="10" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="14.81640625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="9.1796875" style="2"/>
+    <col min="3" max="4" width="9.1796875" style="3"/>
+    <col min="5" max="5" width="9.1796875" style="4"/>
+    <col min="6" max="6" width="9.1796875" style="3"/>
+    <col min="7" max="7" width="9.81640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="9.1796875" style="3"/>
+    <col min="10" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="19" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" s="19" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="20"/>
       <c r="B1" s="6" t="s">
         <v>2</v>
@@ -1077,7 +1085,7 @@
       <c r="H1" s="10"/>
       <c r="I1" s="10"/>
     </row>
-    <row r="2" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="14" t="s">
         <v>35</v>
       </c>
@@ -1099,7 +1107,7 @@
       <c r="H2" s="10"/>
       <c r="I2" s="10"/>
     </row>
-    <row r="3" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="14" t="s">
         <v>11</v>
       </c>
@@ -1122,7 +1130,7 @@
       <c r="H3" s="10"/>
       <c r="I3" s="10"/>
     </row>
-    <row r="4" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="14" t="s">
         <v>13</v>
       </c>
@@ -1144,7 +1152,7 @@
       <c r="H4" s="10"/>
       <c r="I4" s="10"/>
     </row>
-    <row r="5" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="14" t="s">
         <v>14</v>
       </c>
@@ -1156,7 +1164,7 @@
       </c>
       <c r="D5" s="10">
         <f>[1]!PropsSI("H","T",B5+273.15,"P",C5*10^6,"Water")/1000</f>
-        <v>708.31984887431372</v>
+        <v>708.31984887431838</v>
       </c>
       <c r="E5" s="11">
         <v>63.4</v>
@@ -1166,7 +1174,7 @@
       <c r="H5" s="10"/>
       <c r="I5" s="10"/>
     </row>
-    <row r="6" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="14" t="s">
         <v>19</v>
       </c>
@@ -1189,7 +1197,7 @@
       <c r="H6" s="10"/>
       <c r="I6" s="10"/>
     </row>
-    <row r="7" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="14" t="s">
         <v>34</v>
       </c>
@@ -1211,7 +1219,7 @@
       <c r="H7" s="10"/>
       <c r="I7" s="10"/>
     </row>
-    <row r="8" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="14" t="s">
         <v>21</v>
       </c>
@@ -1234,7 +1242,7 @@
       <c r="H8" s="10"/>
       <c r="I8" s="10"/>
     </row>
-    <row r="9" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="14" t="s">
         <v>20</v>
       </c>
@@ -1257,7 +1265,7 @@
       <c r="H9" s="10"/>
       <c r="I9" s="10"/>
     </row>
-    <row r="10" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="14" t="s">
         <v>51</v>
       </c>
@@ -1278,7 +1286,7 @@
       <c r="H10" s="10"/>
       <c r="I10" s="10"/>
     </row>
-    <row r="11" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="14" t="s">
         <v>49</v>
       </c>
@@ -1300,7 +1308,7 @@
       <c r="H11" s="10"/>
       <c r="I11" s="10"/>
     </row>
-    <row r="12" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="14" t="s">
         <v>50</v>
       </c>
@@ -1323,7 +1331,7 @@
       <c r="H12" s="10"/>
       <c r="I12" s="10"/>
     </row>
-    <row r="13" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
         <v>47</v>
       </c>
@@ -1333,10 +1341,13 @@
       <c r="E13" s="11"/>
       <c r="F13" s="10"/>
       <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
+      <c r="H13" s="10">
+        <f>C2-C26</f>
+        <v>0.56200000000000028</v>
+      </c>
       <c r="I13" s="10"/>
     </row>
-    <row r="14" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
         <v>48</v>
       </c>
@@ -1346,10 +1357,13 @@
       <c r="E14" s="11"/>
       <c r="F14" s="10"/>
       <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
+      <c r="H14" s="10">
+        <f>C7-C28</f>
+        <v>7.999999999999996E-2</v>
+      </c>
       <c r="I14" s="10"/>
     </row>
-    <row r="15" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="22" t="s">
         <v>22</v>
       </c>
@@ -1368,7 +1382,7 @@
       <c r="H15" s="10"/>
       <c r="I15" s="10"/>
     </row>
-    <row r="16" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" s="15" customFormat="1" ht="14" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
         <v>23</v>
       </c>
@@ -1384,10 +1398,12 @@
       </c>
       <c r="F16" s="10"/>
       <c r="G16" s="10"/>
-      <c r="H16" s="10"/>
+      <c r="H16" s="27">
+        <v>7.661727</v>
+      </c>
       <c r="I16" s="10"/>
     </row>
-    <row r="17" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
         <v>46</v>
       </c>
@@ -1403,10 +1419,13 @@
       </c>
       <c r="F17" s="10"/>
       <c r="G17" s="10"/>
-      <c r="H17" s="10"/>
+      <c r="H17" s="10">
+        <f>H16+H13</f>
+        <v>8.2237270000000002</v>
+      </c>
       <c r="I17" s="10"/>
     </row>
-    <row r="18" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
         <v>24</v>
       </c>
@@ -1422,10 +1441,13 @@
       </c>
       <c r="F18" s="10"/>
       <c r="G18" s="10"/>
-      <c r="H18" s="10"/>
+      <c r="H18" s="10">
+        <f>H13/H16</f>
+        <v>7.3351608586419259E-2</v>
+      </c>
       <c r="I18" s="10"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" ht="14" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
         <v>25</v>
       </c>
@@ -1438,8 +1460,11 @@
       <c r="E19" s="11">
         <v>100.77673095348899</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H19" s="27">
+        <v>0.59697999999999996</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
         <v>28</v>
       </c>
@@ -1455,8 +1480,12 @@
       <c r="E20" s="4">
         <v>43.733333333333299</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H20" s="3">
+        <f>H19+H14</f>
+        <v>0.67697999999999992</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
         <v>29</v>
       </c>
@@ -1472,8 +1501,12 @@
       <c r="E21" s="4">
         <v>43.733333333333299</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H21" s="10">
+        <f>H14/H19</f>
+        <v>0.13400783945860828</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
         <v>30</v>
       </c>
@@ -1491,7 +1524,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
         <v>31</v>
       </c>
@@ -1509,7 +1542,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
         <v>32</v>
       </c>
@@ -1528,7 +1561,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
         <v>33</v>
       </c>
@@ -1545,7 +1578,7 @@
         <v>32.141666666666602</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="5" t="s">
         <v>36</v>
       </c>
@@ -1563,7 +1596,7 @@
         <v>63.4</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="5" t="s">
         <v>38</v>
       </c>
@@ -1581,7 +1614,7 @@
         <v>63.4</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="5" t="s">
         <v>37</v>
       </c>
@@ -1604,7 +1637,7 @@
         <v>7.0037387010430008</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="5" t="s">
         <v>43</v>
       </c>
@@ -1627,7 +1660,7 @@
         <v>7.0036012848044198</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="5" t="s">
         <v>39</v>
       </c>
@@ -1650,7 +1683,7 @@
         <v>7.0657703965611702</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" s="5" t="s">
         <v>40</v>
       </c>
@@ -1668,7 +1701,7 @@
         <v>7.109</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" s="5" t="s">
         <v>41</v>
       </c>
@@ -1685,7 +1718,7 @@
         <v>78.16</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" s="5" t="s">
         <v>42</v>
       </c>
@@ -1703,7 +1736,7 @@
         <v>78.16</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" s="5" t="s">
         <v>52</v>
       </c>
@@ -1721,7 +1754,7 @@
         <v>78.16</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" s="5" t="s">
         <v>53</v>
       </c>
@@ -1740,10 +1773,10 @@
         <v>78.16</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="G38" s="25"/>
     </row>
-    <row r="43" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:9" ht="14" x14ac:dyDescent="0.3">
       <c r="F43" s="26"/>
       <c r="G43" s="27"/>
       <c r="H43" s="27"/>

--- a/streams0.xlsx
+++ b/streams0.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0317B31-99D4-4BF9-B8F7-67E3152D4D49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{067B66E6-E643-41CC-873B-507B4385D21C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-14510" yWindow="-110" windowWidth="14620" windowHeight="25220" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1049,7 +1049,7 @@
   <dimension ref="A1:I43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+      <selection activeCell="B2" sqref="B2:E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="13" x14ac:dyDescent="0.3"/>

--- a/streams0.xlsx
+++ b/streams0.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{067B66E6-E643-41CC-873B-507B4385D21C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0554338-9725-47F1-AD99-4541D594F51D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-14510" yWindow="-110" windowWidth="14620" windowHeight="25220" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1049,7 +1049,7 @@
   <dimension ref="A1:I43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:E12"/>
+      <selection activeCell="E48" sqref="E48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
@@ -1341,10 +1341,7 @@
       <c r="E13" s="11"/>
       <c r="F13" s="10"/>
       <c r="G13" s="10"/>
-      <c r="H13" s="10">
-        <f>C2-C26</f>
-        <v>0.56200000000000028</v>
-      </c>
+      <c r="H13" s="10"/>
       <c r="I13" s="10"/>
     </row>
     <row r="14" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
@@ -1357,10 +1354,7 @@
       <c r="E14" s="11"/>
       <c r="F14" s="10"/>
       <c r="G14" s="10"/>
-      <c r="H14" s="10">
-        <f>C7-C28</f>
-        <v>7.999999999999996E-2</v>
-      </c>
+      <c r="H14" s="10"/>
       <c r="I14" s="10"/>
     </row>
     <row r="15" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
@@ -1398,9 +1392,7 @@
       </c>
       <c r="F16" s="10"/>
       <c r="G16" s="10"/>
-      <c r="H16" s="27">
-        <v>7.661727</v>
-      </c>
+      <c r="H16" s="27"/>
       <c r="I16" s="10"/>
     </row>
     <row r="17" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
@@ -1419,10 +1411,7 @@
       </c>
       <c r="F17" s="10"/>
       <c r="G17" s="10"/>
-      <c r="H17" s="10">
-        <f>H16+H13</f>
-        <v>8.2237270000000002</v>
-      </c>
+      <c r="H17" s="10"/>
       <c r="I17" s="10"/>
     </row>
     <row r="18" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
@@ -1441,10 +1430,7 @@
       </c>
       <c r="F18" s="10"/>
       <c r="G18" s="10"/>
-      <c r="H18" s="10">
-        <f>H13/H16</f>
-        <v>7.3351608586419259E-2</v>
-      </c>
+      <c r="H18" s="10"/>
       <c r="I18" s="10"/>
     </row>
     <row r="19" spans="1:9" ht="14" x14ac:dyDescent="0.3">
@@ -1460,9 +1446,7 @@
       <c r="E19" s="11">
         <v>100.77673095348899</v>
       </c>
-      <c r="H19" s="27">
-        <v>0.59697999999999996</v>
-      </c>
+      <c r="H19" s="27"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
@@ -1480,10 +1464,6 @@
       <c r="E20" s="4">
         <v>43.733333333333299</v>
       </c>
-      <c r="H20" s="3">
-        <f>H19+H14</f>
-        <v>0.67697999999999992</v>
-      </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
@@ -1501,10 +1481,7 @@
       <c r="E21" s="4">
         <v>43.733333333333299</v>
       </c>
-      <c r="H21" s="10">
-        <f>H14/H19</f>
-        <v>0.13400783945860828</v>
-      </c>
+      <c r="H21" s="10"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">

--- a/streams0.xlsx
+++ b/streams0.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0554338-9725-47F1-AD99-4541D594F51D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3CA64C0-CDA4-4D3C-8FF5-829FFE83DB77}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-14510" yWindow="-110" windowWidth="14620" windowHeight="25220" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-14505" yWindow="-105" windowWidth="14625" windowHeight="25215" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="gas" sheetId="1" r:id="rId1"/>
@@ -14,18 +14,10 @@
   <externalReferences>
     <externalReference r:id="rId3"/>
   </externalReferences>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -421,8 +413,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{833C66B1-4070-4F6B-8BE7-834B60BC98EC}"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -723,20 +715,20 @@
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.81640625" style="12" customWidth="1"/>
-    <col min="2" max="2" width="9.1796875" style="9"/>
-    <col min="3" max="4" width="9.1796875" style="10"/>
-    <col min="5" max="5" width="9.1796875" style="11"/>
-    <col min="6" max="6" width="9.1796875" style="9"/>
-    <col min="7" max="9" width="9.1796875" style="10"/>
-    <col min="10" max="10" width="9.1796875" style="11"/>
-    <col min="11" max="14" width="9.1796875" style="10"/>
-    <col min="15" max="16384" width="9.1796875" style="17"/>
+    <col min="1" max="1" width="14.85546875" style="12" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="9"/>
+    <col min="3" max="4" width="9.140625" style="10"/>
+    <col min="5" max="5" width="9.140625" style="11"/>
+    <col min="6" max="6" width="9.140625" style="9"/>
+    <col min="7" max="9" width="9.140625" style="10"/>
+    <col min="10" max="10" width="9.140625" style="11"/>
+    <col min="11" max="14" width="9.140625" style="10"/>
+    <col min="15" max="16384" width="9.140625" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="13"/>
       <c r="B1" s="6" t="s">
         <v>2</v>
@@ -766,7 +758,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" s="12" t="s">
         <v>45</v>
       </c>
@@ -798,7 +790,7 @@
         <v>6.4999999999999997E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="12" t="s">
         <v>0</v>
       </c>
@@ -832,7 +824,7 @@
       </c>
       <c r="P3" s="18"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" s="12" t="s">
         <v>1</v>
       </c>
@@ -865,7 +857,7 @@
         <v>6.4999999999999997E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="12" t="s">
         <v>12</v>
       </c>
@@ -898,7 +890,7 @@
         <v>6.4999999999999997E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" s="12" t="s">
         <v>15</v>
       </c>
@@ -931,7 +923,7 @@
         <v>6.4999999999999997E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" s="12" t="s">
         <v>16</v>
       </c>
@@ -964,7 +956,7 @@
         <v>6.4999999999999997E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" s="12" t="s">
         <v>17</v>
       </c>
@@ -997,7 +989,7 @@
         <v>6.4999999999999997E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" s="12" t="s">
         <v>18</v>
       </c>
@@ -1030,13 +1022,13 @@
         <v>6.4999999999999997E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D10" s="10" t="e">
         <f>[1]!PropsSI("H","P",C10*10^6,"T",B10+273.15,"REFPROP::"&amp;[1]!MixtureString($F$1:$J$1,F10:J10))/1000</f>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="3"/>
     </row>
   </sheetData>
@@ -1048,23 +1040,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A78D0049-A33A-42B4-86C2-1F7629C05FA7}">
   <dimension ref="A1:I43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E48" sqref="E48"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.81640625" style="5" customWidth="1"/>
-    <col min="2" max="2" width="9.1796875" style="2"/>
-    <col min="3" max="4" width="9.1796875" style="3"/>
-    <col min="5" max="5" width="9.1796875" style="4"/>
-    <col min="6" max="6" width="9.1796875" style="3"/>
-    <col min="7" max="7" width="9.81640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="9.1796875" style="3"/>
-    <col min="10" max="16384" width="9.1796875" style="1"/>
+    <col min="1" max="1" width="14.85546875" style="5" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="2"/>
+    <col min="3" max="4" width="9.140625" style="3"/>
+    <col min="5" max="5" width="9.140625" style="4"/>
+    <col min="6" max="6" width="9.140625" style="3"/>
+    <col min="7" max="7" width="9.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="9.140625" style="3"/>
+    <col min="10" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="19" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" s="19" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="20"/>
       <c r="B1" s="6" t="s">
         <v>2</v>
@@ -1085,7 +1077,7 @@
       <c r="H1" s="10"/>
       <c r="I1" s="10"/>
     </row>
-    <row r="2" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="14" t="s">
         <v>35</v>
       </c>
@@ -1107,7 +1099,7 @@
       <c r="H2" s="10"/>
       <c r="I2" s="10"/>
     </row>
-    <row r="3" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="14" t="s">
         <v>11</v>
       </c>
@@ -1130,7 +1122,7 @@
       <c r="H3" s="10"/>
       <c r="I3" s="10"/>
     </row>
-    <row r="4" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="14" t="s">
         <v>13</v>
       </c>
@@ -1152,7 +1144,7 @@
       <c r="H4" s="10"/>
       <c r="I4" s="10"/>
     </row>
-    <row r="5" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="14" t="s">
         <v>14</v>
       </c>
@@ -1164,7 +1156,7 @@
       </c>
       <c r="D5" s="10">
         <f>[1]!PropsSI("H","T",B5+273.15,"P",C5*10^6,"Water")/1000</f>
-        <v>708.31984887431838</v>
+        <v>708.31984887431372</v>
       </c>
       <c r="E5" s="11">
         <v>63.4</v>
@@ -1174,7 +1166,7 @@
       <c r="H5" s="10"/>
       <c r="I5" s="10"/>
     </row>
-    <row r="6" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="14" t="s">
         <v>19</v>
       </c>
@@ -1197,7 +1189,7 @@
       <c r="H6" s="10"/>
       <c r="I6" s="10"/>
     </row>
-    <row r="7" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="14" t="s">
         <v>34</v>
       </c>
@@ -1219,7 +1211,7 @@
       <c r="H7" s="10"/>
       <c r="I7" s="10"/>
     </row>
-    <row r="8" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="14" t="s">
         <v>21</v>
       </c>
@@ -1242,7 +1234,7 @@
       <c r="H8" s="10"/>
       <c r="I8" s="10"/>
     </row>
-    <row r="9" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="14" t="s">
         <v>20</v>
       </c>
@@ -1265,7 +1257,7 @@
       <c r="H9" s="10"/>
       <c r="I9" s="10"/>
     </row>
-    <row r="10" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="14" t="s">
         <v>51</v>
       </c>
@@ -1286,7 +1278,7 @@
       <c r="H10" s="10"/>
       <c r="I10" s="10"/>
     </row>
-    <row r="11" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="14" t="s">
         <v>49</v>
       </c>
@@ -1308,7 +1300,7 @@
       <c r="H11" s="10"/>
       <c r="I11" s="10"/>
     </row>
-    <row r="12" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="14" t="s">
         <v>50</v>
       </c>
@@ -1331,7 +1323,7 @@
       <c r="H12" s="10"/>
       <c r="I12" s="10"/>
     </row>
-    <row r="13" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>47</v>
       </c>
@@ -1344,7 +1336,7 @@
       <c r="H13" s="10"/>
       <c r="I13" s="10"/>
     </row>
-    <row r="14" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>48</v>
       </c>
@@ -1357,7 +1349,7 @@
       <c r="H14" s="10"/>
       <c r="I14" s="10"/>
     </row>
-    <row r="15" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="22" t="s">
         <v>22</v>
       </c>
@@ -1376,7 +1368,7 @@
       <c r="H15" s="10"/>
       <c r="I15" s="10"/>
     </row>
-    <row r="16" spans="1:9" s="15" customFormat="1" ht="14" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" s="15" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>23</v>
       </c>
@@ -1395,7 +1387,7 @@
       <c r="H16" s="27"/>
       <c r="I16" s="10"/>
     </row>
-    <row r="17" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>46</v>
       </c>
@@ -1414,7 +1406,7 @@
       <c r="H17" s="10"/>
       <c r="I17" s="10"/>
     </row>
-    <row r="18" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>24</v>
       </c>
@@ -1433,7 +1425,7 @@
       <c r="H18" s="10"/>
       <c r="I18" s="10"/>
     </row>
-    <row r="19" spans="1:9" ht="14" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>25</v>
       </c>
@@ -1448,7 +1440,7 @@
       </c>
       <c r="H19" s="27"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>28</v>
       </c>
@@ -1465,7 +1457,7 @@
         <v>43.733333333333299</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>29</v>
       </c>
@@ -1483,7 +1475,7 @@
       </c>
       <c r="H21" s="10"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>30</v>
       </c>
@@ -1501,7 +1493,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
         <v>31</v>
       </c>
@@ -1519,7 +1511,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
         <v>32</v>
       </c>
@@ -1538,7 +1530,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
         <v>33</v>
       </c>
@@ -1555,7 +1547,7 @@
         <v>32.141666666666602</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
         <v>36</v>
       </c>
@@ -1573,7 +1565,7 @@
         <v>63.4</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
         <v>38</v>
       </c>
@@ -1591,7 +1583,7 @@
         <v>63.4</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
         <v>37</v>
       </c>
@@ -1614,7 +1606,7 @@
         <v>7.0037387010430008</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
         <v>43</v>
       </c>
@@ -1637,7 +1629,7 @@
         <v>7.0036012848044198</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
         <v>39</v>
       </c>
@@ -1660,7 +1652,7 @@
         <v>7.0657703965611702</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
         <v>40</v>
       </c>
@@ -1678,7 +1670,7 @@
         <v>7.109</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
         <v>41</v>
       </c>
@@ -1695,7 +1687,7 @@
         <v>78.16</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
         <v>42</v>
       </c>
@@ -1706,14 +1698,14 @@
         <v>8.0000000000000002E-3</v>
       </c>
       <c r="D33" s="3">
-        <v>2338.0245599904306</v>
+        <v>2341.2543185335167</v>
       </c>
       <c r="E33" s="4">
         <f t="shared" si="0"/>
         <v>78.16</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
         <v>52</v>
       </c>
@@ -1724,14 +1716,15 @@
         <v>8.0000000000000002E-3</v>
       </c>
       <c r="D34" s="3">
-        <v>173.9</v>
+        <v>173.83980037063873</v>
       </c>
       <c r="E34" s="4">
         <f t="shared" si="0"/>
         <v>78.16</v>
       </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="F34"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" s="5" t="s">
         <v>53</v>
       </c>
@@ -1743,17 +1736,17 @@
         <v>0.69640000000000002</v>
       </c>
       <c r="D35" s="3">
-        <v>173.9</v>
+        <v>173.83980037063873</v>
       </c>
       <c r="E35" s="4">
         <f t="shared" si="0"/>
         <v>78.16</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="G38" s="25"/>
     </row>
-    <row r="43" spans="1:9" ht="14" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="F43" s="26"/>
       <c r="G43" s="27"/>
       <c r="H43" s="27"/>

--- a/streams0.xlsx
+++ b/streams0.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3CA64C0-CDA4-4D3C-8FF5-829FFE83DB77}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4844796-B927-4809-AB27-976D830983F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-14505" yWindow="-105" windowWidth="14625" windowHeight="25215" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-14510" yWindow="-110" windowWidth="14620" windowHeight="25220" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="gas" sheetId="1" r:id="rId1"/>
@@ -14,17 +14,25 @@
   <externalReferences>
     <externalReference r:id="rId3"/>
   </externalReferences>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="53">
   <si>
     <t>GTU-PEVD</t>
   </si>
@@ -105,9 +113,6 @@
   </si>
   <si>
     <t>75.875</t>
-  </si>
-  <si>
-    <t>74.77</t>
   </si>
   <si>
     <t>OTB2-SP2</t>
@@ -413,8 +418,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{833C66B1-4070-4F6B-8BE7-834B60BC98EC}"/>
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -715,20 +720,20 @@
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" style="12" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="9"/>
-    <col min="3" max="4" width="9.140625" style="10"/>
-    <col min="5" max="5" width="9.140625" style="11"/>
-    <col min="6" max="6" width="9.140625" style="9"/>
-    <col min="7" max="9" width="9.140625" style="10"/>
-    <col min="10" max="10" width="9.140625" style="11"/>
-    <col min="11" max="14" width="9.140625" style="10"/>
-    <col min="15" max="16384" width="9.140625" style="17"/>
+    <col min="1" max="1" width="14.81640625" style="12" customWidth="1"/>
+    <col min="2" max="2" width="9.1796875" style="9"/>
+    <col min="3" max="4" width="9.1796875" style="10"/>
+    <col min="5" max="5" width="9.1796875" style="11"/>
+    <col min="6" max="6" width="9.1796875" style="9"/>
+    <col min="7" max="9" width="9.1796875" style="10"/>
+    <col min="10" max="10" width="9.1796875" style="11"/>
+    <col min="11" max="14" width="9.1796875" style="10"/>
+    <col min="15" max="16384" width="9.1796875" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="13"/>
       <c r="B1" s="6" t="s">
         <v>2</v>
@@ -758,9 +763,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" s="12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B2" s="9">
         <v>542.1</v>
@@ -790,7 +795,7 @@
         <v>6.4999999999999997E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" s="12" t="s">
         <v>0</v>
       </c>
@@ -824,7 +829,7 @@
       </c>
       <c r="P3" s="18"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" s="12" t="s">
         <v>1</v>
       </c>
@@ -857,7 +862,7 @@
         <v>6.4999999999999997E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" s="12" t="s">
         <v>12</v>
       </c>
@@ -890,7 +895,7 @@
         <v>6.4999999999999997E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" s="12" t="s">
         <v>15</v>
       </c>
@@ -923,7 +928,7 @@
         <v>6.4999999999999997E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="12" t="s">
         <v>16</v>
       </c>
@@ -956,7 +961,7 @@
         <v>6.4999999999999997E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" s="12" t="s">
         <v>17</v>
       </c>
@@ -989,7 +994,7 @@
         <v>6.4999999999999997E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" s="12" t="s">
         <v>18</v>
       </c>
@@ -1022,13 +1027,13 @@
         <v>6.4999999999999997E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D10" s="10" t="e">
         <f>[1]!PropsSI("H","P",C10*10^6,"T",B10+273.15,"REFPROP::"&amp;[1]!MixtureString($F$1:$J$1,F10:J10))/1000</f>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="C12" s="3"/>
     </row>
   </sheetData>
@@ -1040,23 +1045,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A78D0049-A33A-42B4-86C2-1F7629C05FA7}">
   <dimension ref="A1:I43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" style="5" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="2"/>
-    <col min="3" max="4" width="9.140625" style="3"/>
-    <col min="5" max="5" width="9.140625" style="4"/>
-    <col min="6" max="6" width="9.140625" style="3"/>
-    <col min="7" max="7" width="9.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="9.140625" style="3"/>
-    <col min="10" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="14.81640625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="9.1796875" style="2"/>
+    <col min="3" max="4" width="9.1796875" style="3"/>
+    <col min="5" max="5" width="9.1796875" style="4"/>
+    <col min="6" max="6" width="9.1796875" style="3"/>
+    <col min="7" max="7" width="9.81640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="9.1796875" style="3"/>
+    <col min="10" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="19" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" s="19" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="20"/>
       <c r="B1" s="6" t="s">
         <v>2</v>
@@ -1071,15 +1076,15 @@
         <v>5</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G1" s="10"/>
       <c r="H1" s="10"/>
       <c r="I1" s="10"/>
     </row>
-    <row r="2" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B2" s="9">
         <v>511.5</v>
@@ -1099,7 +1104,7 @@
       <c r="H2" s="10"/>
       <c r="I2" s="10"/>
     </row>
-    <row r="3" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="14" t="s">
         <v>11</v>
       </c>
@@ -1122,7 +1127,7 @@
       <c r="H3" s="10"/>
       <c r="I3" s="10"/>
     </row>
-    <row r="4" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="14" t="s">
         <v>13</v>
       </c>
@@ -1144,7 +1149,7 @@
       <c r="H4" s="10"/>
       <c r="I4" s="10"/>
     </row>
-    <row r="5" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="14" t="s">
         <v>14</v>
       </c>
@@ -1156,7 +1161,7 @@
       </c>
       <c r="D5" s="10">
         <f>[1]!PropsSI("H","T",B5+273.15,"P",C5*10^6,"Water")/1000</f>
-        <v>708.31984887431372</v>
+        <v>708.31984887431838</v>
       </c>
       <c r="E5" s="11">
         <v>63.4</v>
@@ -1166,7 +1171,7 @@
       <c r="H5" s="10"/>
       <c r="I5" s="10"/>
     </row>
-    <row r="6" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="14" t="s">
         <v>19</v>
       </c>
@@ -1189,9 +1194,9 @@
       <c r="H6" s="10"/>
       <c r="I6" s="10"/>
     </row>
-    <row r="7" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B7" s="9">
         <v>211.6</v>
@@ -1211,7 +1216,7 @@
       <c r="H7" s="10"/>
       <c r="I7" s="10"/>
     </row>
-    <row r="8" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="14" t="s">
         <v>21</v>
       </c>
@@ -1234,7 +1239,7 @@
       <c r="H8" s="10"/>
       <c r="I8" s="10"/>
     </row>
-    <row r="9" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="14" t="s">
         <v>20</v>
       </c>
@@ -1257,9 +1262,9 @@
       <c r="H9" s="10"/>
       <c r="I9" s="10"/>
     </row>
-    <row r="10" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B10" s="21">
         <v>164.6</v>
@@ -1278,9 +1283,9 @@
       <c r="H10" s="10"/>
       <c r="I10" s="10"/>
     </row>
-    <row r="11" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B11" s="9">
         <v>60</v>
@@ -1300,9 +1305,9 @@
       <c r="H11" s="10"/>
       <c r="I11" s="10"/>
     </row>
-    <row r="12" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B12" s="9">
         <v>44.2</v>
@@ -1323,9 +1328,9 @@
       <c r="H12" s="10"/>
       <c r="I12" s="10"/>
     </row>
-    <row r="13" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B13" s="9"/>
       <c r="C13" s="10"/>
@@ -1336,9 +1341,9 @@
       <c r="H13" s="10"/>
       <c r="I13" s="10"/>
     </row>
-    <row r="14" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B14" s="9"/>
       <c r="C14" s="10"/>
@@ -1349,15 +1354,15 @@
       <c r="H14" s="10"/>
       <c r="I14" s="10"/>
     </row>
-    <row r="15" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="B15" s="9" t="s">
-        <v>27</v>
+      <c r="B15" s="9">
+        <v>79.730222232833995</v>
       </c>
       <c r="C15" s="10">
-        <v>3.8226901700000003E-2</v>
+        <v>4.6898905908277499E-2</v>
       </c>
       <c r="D15" s="10"/>
       <c r="E15" s="11" t="s">
@@ -1368,7 +1373,7 @@
       <c r="H15" s="10"/>
       <c r="I15" s="10"/>
     </row>
-    <row r="16" spans="1:9" s="15" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" s="15" customFormat="1" ht="14" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
         <v>23</v>
       </c>
@@ -1376,7 +1381,7 @@
         <v>49.839511130751802</v>
       </c>
       <c r="C16" s="10">
-        <v>3.8226901700000003E-2</v>
+        <v>4.6898905908277499E-2</v>
       </c>
       <c r="D16" s="10"/>
       <c r="E16" s="11" t="s">
@@ -1387,9 +1392,9 @@
       <c r="H16" s="27"/>
       <c r="I16" s="10"/>
     </row>
-    <row r="17" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B17" s="9">
         <v>46</v>
@@ -1406,7 +1411,7 @@
       <c r="H17" s="10"/>
       <c r="I17" s="10"/>
     </row>
-    <row r="18" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
         <v>24</v>
       </c>
@@ -1425,7 +1430,7 @@
       <c r="H18" s="10"/>
       <c r="I18" s="10"/>
     </row>
-    <row r="19" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" ht="14" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
         <v>25</v>
       </c>
@@ -1440,9 +1445,9 @@
       </c>
       <c r="H19" s="27"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B20" s="2">
         <v>107.6</v>
@@ -1454,12 +1459,12 @@
         <v>2622.5496464962498</v>
       </c>
       <c r="E20" s="4">
-        <v>43.733333333333299</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+        <v>32.141666666666602</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B21" s="2">
         <v>106.101586260687</v>
@@ -1471,31 +1476,31 @@
         <v>444.928681619781</v>
       </c>
       <c r="E21" s="4">
-        <v>43.733333333333299</v>
+        <v>32.141666666666602</v>
       </c>
       <c r="H21" s="10"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B22" s="2">
-        <v>70.294916839916795</v>
+        <v>76.584469854469802</v>
       </c>
       <c r="C22" s="3">
         <v>1</v>
       </c>
       <c r="D22" s="3">
         <f>4.187*B22</f>
-        <v>294.32481680873161</v>
+        <v>320.65917528066507</v>
       </c>
       <c r="E22" s="4">
         <v>800</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B23" s="2">
         <v>98.56</v>
@@ -1511,9 +1516,9 @@
         <v>800</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B24" s="2">
         <v>48.336070686070599</v>
@@ -1530,26 +1535,26 @@
         <v>800</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B25" s="2">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="C25" s="3">
-        <v>4.0238843925466602E-2</v>
+        <v>4.9367269377134197E-2</v>
       </c>
       <c r="D25" s="3">
-        <v>2464.75601712861</v>
+        <v>2474.0814439013302</v>
       </c>
       <c r="E25" s="4">
-        <v>32.141666666666602</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+        <v>43.733333333333299</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B26" s="2">
         <v>508.6</v>
@@ -1565,9 +1570,9 @@
         <v>63.4</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B27" s="2">
         <v>195.85257753389442</v>
@@ -1583,9 +1588,9 @@
         <v>63.4</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B28" s="2">
         <v>209.8</v>
@@ -1606,9 +1611,9 @@
         <v>7.0037387010430008</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B29" s="2">
         <v>197.8</v>
@@ -1629,9 +1634,9 @@
         <v>7.0036012848044198</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B30" s="2">
         <v>131.4</v>
@@ -1652,9 +1657,9 @@
         <v>7.0657703965611702</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C31" s="3">
         <v>0.1525</v>
@@ -1670,9 +1675,9 @@
         <v>7.109</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C32" s="3">
         <f>C31</f>
@@ -1687,9 +1692,9 @@
         <v>78.16</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B33" s="2">
         <v>41.51</v>
@@ -1705,9 +1710,9 @@
         <v>78.16</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A34" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B34" s="2">
         <v>41.51</v>
@@ -1724,9 +1729,9 @@
       </c>
       <c r="F34"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B35" s="2">
         <v>41.51</v>
@@ -1743,10 +1748,10 @@
         <v>78.16</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="G38" s="25"/>
     </row>
-    <row r="43" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:9" ht="14" x14ac:dyDescent="0.3">
       <c r="F43" s="26"/>
       <c r="G43" s="27"/>
       <c r="H43" s="27"/>

--- a/streams0.xlsx
+++ b/streams0.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4844796-B927-4809-AB27-976D830983F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4274EF42-1345-4C57-91EA-AF3B471256BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-14510" yWindow="-110" windowWidth="14620" windowHeight="25220" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="gas" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="63">
   <si>
     <t>GTU-PEVD</t>
   </si>
@@ -191,6 +191,36 @@
   </si>
   <si>
     <t>KN-GPK</t>
+  </si>
+  <si>
+    <t>AIR</t>
+  </si>
+  <si>
+    <t>X-SMESH</t>
+  </si>
+  <si>
+    <t>SP2-ASW</t>
+  </si>
+  <si>
+    <t>ASW-OD</t>
+  </si>
+  <si>
+    <t>DROSVD-ST</t>
+  </si>
+  <si>
+    <t>ST-GPK</t>
+  </si>
+  <si>
+    <t>ST-PKM</t>
+  </si>
+  <si>
+    <t>REF-SMESH</t>
+  </si>
+  <si>
+    <t>AIR-REF</t>
+  </si>
+  <si>
+    <t>CH4-REF</t>
   </si>
 </sst>
 </file>
@@ -200,7 +230,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.00000"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -245,7 +275,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -334,12 +364,25 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -416,10 +459,16 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{833C66B1-4070-4F6B-8BE7-834B60BC98EC}"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -714,13 +763,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P12"/>
+  <dimension ref="A1:P14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="13"/>
   <cols>
     <col min="1" max="1" width="14.81640625" style="12" customWidth="1"/>
     <col min="2" max="2" width="9.1796875" style="9"/>
@@ -733,7 +782,7 @@
     <col min="15" max="16384" width="9.1796875" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" ht="13.5" thickBot="1">
       <c r="A1" s="13"/>
       <c r="B1" s="6" t="s">
         <v>2</v>
@@ -763,41 +812,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A2" s="12" t="s">
+    <row r="2" spans="1:16">
+      <c r="A2" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="J2" s="24"/>
+    </row>
+    <row r="3" spans="1:16">
+      <c r="A3" s="12" t="s">
         <v>44</v>
-      </c>
-      <c r="B2" s="9">
-        <v>542.1</v>
-      </c>
-      <c r="C2" s="10">
-        <v>0.1</v>
-      </c>
-      <c r="D2" s="10">
-        <v>958.86919853128609</v>
-      </c>
-      <c r="E2" s="11">
-        <v>503.8</v>
-      </c>
-      <c r="F2" s="9">
-        <v>0.78029999999999999</v>
-      </c>
-      <c r="G2" s="10">
-        <v>0.1237</v>
-      </c>
-      <c r="H2" s="10">
-        <v>3.0099999999999998E-2</v>
-      </c>
-      <c r="I2" s="10">
-        <v>5.9400000000000001E-2</v>
-      </c>
-      <c r="J2" s="24">
-        <v>6.4999999999999997E-3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A3" s="12" t="s">
-        <v>0</v>
       </c>
       <c r="B3" s="9">
         <v>542.1</v>
@@ -806,7 +829,6 @@
         <v>0.1</v>
       </c>
       <c r="D3" s="10">
-        <f>[1]!PropsSI("H","P",C3*10^6,"T",B3+273.15,"REFPROP::"&amp;[1]!MixtureString($F$1:$J$1,F3:J3))/1000</f>
         <v>958.86919853128609</v>
       </c>
       <c r="E3" s="11">
@@ -824,57 +846,29 @@
       <c r="I3" s="10">
         <v>5.9400000000000001E-2</v>
       </c>
-      <c r="J3" s="11">
+      <c r="J3" s="24">
         <v>6.4999999999999997E-3</v>
       </c>
-      <c r="P3" s="18"/>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A4" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="9">
-        <v>468.05</v>
-      </c>
-      <c r="C4" s="10">
-        <v>0.1</v>
-      </c>
-      <c r="D4" s="10">
-        <f>[1]!PropsSI("H","P",C4*10^6,"T",B4+273.15,"REFPROP::"&amp;[1]!MixtureString($F$1:$J$1,F4:J4))/1000</f>
-        <v>874.26792911178234</v>
-      </c>
-      <c r="E4" s="11">
-        <v>503.8</v>
-      </c>
-      <c r="F4" s="9">
-        <v>0.78029999999999999</v>
-      </c>
-      <c r="G4" s="10">
-        <v>0.1237</v>
-      </c>
-      <c r="H4" s="10">
-        <v>3.0099999999999998E-2</v>
-      </c>
-      <c r="I4" s="10">
-        <v>5.9400000000000001E-2</v>
-      </c>
-      <c r="J4" s="11">
-        <v>6.4999999999999997E-3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:16">
+      <c r="A4" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="J4" s="24"/>
+    </row>
+    <row r="5" spans="1:16">
       <c r="A5" s="12" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="B5" s="9">
-        <v>309.2</v>
+        <v>542.1</v>
       </c>
       <c r="C5" s="10">
         <v>0.1</v>
       </c>
       <c r="D5" s="10">
         <f>[1]!PropsSI("H","P",C5*10^6,"T",B5+273.15,"REFPROP::"&amp;[1]!MixtureString($F$1:$J$1,F5:J5))/1000</f>
-        <v>697.66595139225319</v>
+        <v>958.86919853128609</v>
       </c>
       <c r="E5" s="11">
         <v>503.8</v>
@@ -894,20 +888,21 @@
       <c r="J5" s="11">
         <v>6.4999999999999997E-3</v>
       </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="P5" s="18"/>
+    </row>
+    <row r="6" spans="1:16">
       <c r="A6" s="12" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="B6" s="9">
-        <v>235.9</v>
+        <v>468.05</v>
       </c>
       <c r="C6" s="10">
         <v>0.1</v>
       </c>
       <c r="D6" s="10">
         <f>[1]!PropsSI("H","P",C6*10^6,"T",B6+273.15,"REFPROP::"&amp;[1]!MixtureString($F$1:$J$1,F6:J6))/1000</f>
-        <v>618.33586643179672</v>
+        <v>874.26792911178234</v>
       </c>
       <c r="E6" s="11">
         <v>503.8</v>
@@ -928,19 +923,19 @@
         <v>6.4999999999999997E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16">
       <c r="A7" s="12" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B7" s="9">
-        <v>233</v>
+        <v>309.2</v>
       </c>
       <c r="C7" s="10">
         <v>0.1</v>
       </c>
       <c r="D7" s="10">
         <f>[1]!PropsSI("H","P",C7*10^6,"T",B7+273.15,"REFPROP::"&amp;[1]!MixtureString($F$1:$J$1,F7:J7))/1000</f>
-        <v>615.22281759257271</v>
+        <v>697.66595139225319</v>
       </c>
       <c r="E7" s="11">
         <v>503.8</v>
@@ -961,19 +956,19 @@
         <v>6.4999999999999997E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16">
       <c r="A8" s="12" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B8" s="9">
-        <v>175.5</v>
+        <v>235.9</v>
       </c>
       <c r="C8" s="10">
         <v>0.1</v>
       </c>
       <c r="D8" s="10">
         <f>[1]!PropsSI("H","P",C8*10^6,"T",B8+273.15,"REFPROP::"&amp;[1]!MixtureString($F$1:$J$1,F8:J8))/1000</f>
-        <v>553.86016830512403</v>
+        <v>618.33586643179672</v>
       </c>
       <c r="E8" s="11">
         <v>503.8</v>
@@ -994,19 +989,19 @@
         <v>6.4999999999999997E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16">
       <c r="A9" s="12" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B9" s="9">
-        <v>106.9</v>
+        <v>233</v>
       </c>
       <c r="C9" s="10">
         <v>0.1</v>
       </c>
       <c r="D9" s="10">
         <f>[1]!PropsSI("H","P",C9*10^6,"T",B9+273.15,"REFPROP::"&amp;[1]!MixtureString($F$1:$J$1,F9:J9))/1000</f>
-        <v>481.43243266974537</v>
+        <v>615.22281759257271</v>
       </c>
       <c r="E9" s="11">
         <v>503.8</v>
@@ -1027,14 +1022,84 @@
         <v>6.4999999999999997E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="D10" s="10" t="e">
+    <row r="10" spans="1:16">
+      <c r="A10" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="9">
+        <v>175.5</v>
+      </c>
+      <c r="C10" s="10">
+        <v>0.1</v>
+      </c>
+      <c r="D10" s="10">
         <f>[1]!PropsSI("H","P",C10*10^6,"T",B10+273.15,"REFPROP::"&amp;[1]!MixtureString($F$1:$J$1,F10:J10))/1000</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="C12" s="3"/>
+        <v>553.86016830512403</v>
+      </c>
+      <c r="E10" s="11">
+        <v>503.8</v>
+      </c>
+      <c r="F10" s="9">
+        <v>0.78029999999999999</v>
+      </c>
+      <c r="G10" s="10">
+        <v>0.1237</v>
+      </c>
+      <c r="H10" s="10">
+        <v>3.0099999999999998E-2</v>
+      </c>
+      <c r="I10" s="10">
+        <v>5.9400000000000001E-2</v>
+      </c>
+      <c r="J10" s="11">
+        <v>6.4999999999999997E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
+      <c r="A11" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="9">
+        <v>106.9</v>
+      </c>
+      <c r="C11" s="10">
+        <v>0.1</v>
+      </c>
+      <c r="D11" s="10">
+        <f>[1]!PropsSI("H","P",C11*10^6,"T",B11+273.15,"REFPROP::"&amp;[1]!MixtureString($F$1:$J$1,F11:J11))/1000</f>
+        <v>481.43243266974537</v>
+      </c>
+      <c r="E11" s="11">
+        <v>503.8</v>
+      </c>
+      <c r="F11" s="9">
+        <v>0.78029999999999999</v>
+      </c>
+      <c r="G11" s="10">
+        <v>0.1237</v>
+      </c>
+      <c r="H11" s="10">
+        <v>3.0099999999999998E-2</v>
+      </c>
+      <c r="I11" s="10">
+        <v>5.9400000000000001E-2</v>
+      </c>
+      <c r="J11" s="11">
+        <v>6.4999999999999997E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16">
+      <c r="A12" s="28" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" ht="13.5" thickBot="1">
+      <c r="A13" s="29" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16">
+      <c r="C14" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1043,13 +1108,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A78D0049-A33A-42B4-86C2-1F7629C05FA7}">
-  <dimension ref="A1:I43"/>
+  <dimension ref="A1:I45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="13"/>
   <cols>
     <col min="1" max="1" width="14.81640625" style="5" customWidth="1"/>
     <col min="2" max="2" width="9.1796875" style="2"/>
@@ -1061,7 +1126,7 @@
     <col min="10" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="19" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" s="19" customFormat="1" ht="13.5" thickBot="1">
       <c r="A1" s="20"/>
       <c r="B1" s="6" t="s">
         <v>2</v>
@@ -1082,64 +1147,57 @@
       <c r="H1" s="10"/>
       <c r="I1" s="10"/>
     </row>
-    <row r="2" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="B2" s="9">
-        <v>511.5</v>
-      </c>
-      <c r="C2" s="10">
-        <v>8.407</v>
-      </c>
-      <c r="D2" s="10">
-        <f>[1]!PropsSI("H","T",B2+273.15,"P",C2*10^6,"Water")/1000</f>
-        <v>3423.2099783420958</v>
-      </c>
-      <c r="E2" s="11">
-        <v>63.4</v>
-      </c>
+    <row r="2" spans="1:9" s="19" customFormat="1">
+      <c r="A2" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B2" s="2">
+        <v>15</v>
+      </c>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="4"/>
       <c r="F2" s="3"/>
       <c r="G2" s="10"/>
       <c r="H2" s="10"/>
       <c r="I2" s="10"/>
     </row>
-    <row r="3" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" s="15" customFormat="1">
       <c r="A3" s="14" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="B3" s="9">
-        <f>[1]!PropsSI("T","P",C3*10^6,"Q",1,"Water")-273.15</f>
-        <v>301.29755574753347</v>
+        <v>511.5</v>
       </c>
       <c r="C3" s="10">
-        <v>8.7460000000000004</v>
+        <v>8.407</v>
       </c>
       <c r="D3" s="10">
-        <f>[1]!PropsSI("H","T",B3+273.15,"Q",1,"Water")/1000</f>
-        <v>2747.1040230157951</v>
+        <f>[1]!PropsSI("H","T",B3+273.15,"P",C3*10^6,"Water")/1000</f>
+        <v>3423.2099783420958</v>
       </c>
       <c r="E3" s="11">
         <v>63.4</v>
       </c>
-      <c r="F3" s="10"/>
+      <c r="F3" s="3"/>
       <c r="G3" s="10"/>
       <c r="H3" s="10"/>
       <c r="I3" s="10"/>
     </row>
-    <row r="4" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" s="15" customFormat="1">
       <c r="A4" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" s="21">
-        <v>298.8</v>
+        <v>11</v>
+      </c>
+      <c r="B4" s="9">
+        <f>[1]!PropsSI("T","P",C4*10^6,"Q",1,"Water")-273.15</f>
+        <v>301.29755574753347</v>
       </c>
       <c r="C4" s="10">
         <v>8.7460000000000004</v>
       </c>
       <c r="D4" s="10">
-        <f>[1]!PropsSI("H","T",B4+273.15,"P",C4*10^6,"Water")/1000</f>
-        <v>1337.9482651031026</v>
+        <f>[1]!PropsSI("H","T",B4+273.15,"Q",1,"Water")/1000</f>
+        <v>2747.1040230157951</v>
       </c>
       <c r="E4" s="11">
         <v>63.4</v>
@@ -1149,19 +1207,19 @@
       <c r="H4" s="10"/>
       <c r="I4" s="10"/>
     </row>
-    <row r="5" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" s="15" customFormat="1">
       <c r="A5" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" s="9">
-        <v>166.5</v>
+        <v>13</v>
+      </c>
+      <c r="B5" s="21">
+        <v>298.8</v>
       </c>
       <c r="C5" s="10">
         <v>8.7460000000000004</v>
       </c>
       <c r="D5" s="10">
         <f>[1]!PropsSI("H","T",B5+273.15,"P",C5*10^6,"Water")/1000</f>
-        <v>708.31984887431838</v>
+        <v>1337.9482651031026</v>
       </c>
       <c r="E5" s="11">
         <v>63.4</v>
@@ -1171,20 +1229,19 @@
       <c r="H5" s="10"/>
       <c r="I5" s="10"/>
     </row>
-    <row r="6" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" s="15" customFormat="1">
       <c r="A6" s="14" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B6" s="9">
-        <f>[1]!PropsSI("T","P",C6*10^6,"Q",0,"Water")-273.15</f>
-        <v>164.73836143543406</v>
+        <v>166.5</v>
       </c>
       <c r="C6" s="10">
-        <v>0.69640000000000002</v>
+        <v>8.7460000000000004</v>
       </c>
       <c r="D6" s="10">
-        <f>[1]!PropsSI("H","T",B6+273.15,"Q",0,"Water")/1000</f>
-        <v>696.09556718341082</v>
+        <f>[1]!PropsSI("H","T",B6+273.15,"P",C6*10^6,"Water")/1000</f>
+        <v>708.31984887431838</v>
       </c>
       <c r="E6" s="11">
         <v>63.4</v>
@@ -1194,42 +1251,42 @@
       <c r="H6" s="10"/>
       <c r="I6" s="10"/>
     </row>
-    <row r="7" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" s="15" customFormat="1">
       <c r="A7" s="14" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="B7" s="9">
-        <v>211.6</v>
+        <f>[1]!PropsSI("T","P",C7*10^6,"Q",0,"Water")-273.15</f>
+        <v>164.73836143543406</v>
       </c>
       <c r="C7" s="10">
-        <v>0.69099999999999995</v>
+        <v>0.69640000000000002</v>
       </c>
       <c r="D7" s="10">
-        <f>[1]!PropsSI("H","T",B7+273.15,"P",C7*10^6,"Water")/1000</f>
-        <v>2871.4818365716997</v>
+        <f>[1]!PropsSI("H","T",B7+273.15,"Q",0,"Water")/1000</f>
+        <v>696.09556718341082</v>
       </c>
       <c r="E7" s="11">
-        <v>14.76</v>
+        <v>63.4</v>
       </c>
       <c r="F7" s="10"/>
       <c r="G7" s="10"/>
       <c r="H7" s="10"/>
       <c r="I7" s="10"/>
     </row>
-    <row r="8" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" s="15" customFormat="1">
       <c r="A8" s="14" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="B8" s="9">
-        <f>[1]!PropsSI("T","P",C8*10^6,"Q",1,"Water")-273.15</f>
-        <v>164.73836143543406</v>
+        <v>211.6</v>
       </c>
       <c r="C8" s="10">
-        <v>0.69640000000000002</v>
+        <v>0.69099999999999995</v>
       </c>
       <c r="D8" s="10">
-        <f>[1]!PropsSI("H","P",C8*10^6,"Q",1,"Water")/1000</f>
-        <v>2762.534980413358</v>
+        <f>[1]!PropsSI("H","T",B8+273.15,"P",C8*10^6,"Water")/1000</f>
+        <v>2871.4818365716997</v>
       </c>
       <c r="E8" s="11">
         <v>14.76</v>
@@ -1239,32 +1296,32 @@
       <c r="H8" s="10"/>
       <c r="I8" s="10"/>
     </row>
-    <row r="9" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" s="15" customFormat="1">
       <c r="A9" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9" s="21">
-        <v>164.6</v>
+        <v>21</v>
+      </c>
+      <c r="B9" s="9">
+        <f>[1]!PropsSI("T","P",C9*10^6,"Q",1,"Water")-273.15</f>
+        <v>164.73836143543406</v>
       </c>
       <c r="C9" s="10">
         <v>0.69640000000000002</v>
       </c>
       <c r="D9" s="10">
-        <f>[1]!PropsSI("H","T",B9+273.15,"P",C9*10^6,"Water")/1000</f>
-        <v>695.4937008073166</v>
+        <f>[1]!PropsSI("H","P",C9*10^6,"Q",1,"Water")/1000</f>
+        <v>2762.534980413358</v>
       </c>
       <c r="E9" s="11">
-        <f>E8+E6</f>
-        <v>78.16</v>
+        <v>14.76</v>
       </c>
       <c r="F9" s="10"/>
       <c r="G9" s="10"/>
       <c r="H9" s="10"/>
       <c r="I9" s="10"/>
     </row>
-    <row r="10" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" s="15" customFormat="1">
       <c r="A10" s="14" t="s">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="B10" s="21">
         <v>164.6</v>
@@ -1273,29 +1330,30 @@
         <v>0.69640000000000002</v>
       </c>
       <c r="D10" s="10">
+        <f>[1]!PropsSI("H","T",B10+273.15,"P",C10*10^6,"Water")/1000</f>
         <v>695.4937008073166</v>
       </c>
       <c r="E10" s="11">
-        <v>82.91</v>
+        <f>E9+E7</f>
+        <v>78.16</v>
       </c>
       <c r="F10" s="10"/>
       <c r="G10" s="10"/>
       <c r="H10" s="10"/>
       <c r="I10" s="10"/>
     </row>
-    <row r="11" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" s="15" customFormat="1">
       <c r="A11" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="B11" s="9">
-        <v>60</v>
+        <v>50</v>
+      </c>
+      <c r="B11" s="21">
+        <v>164.6</v>
       </c>
       <c r="C11" s="10">
         <v>0.69640000000000002</v>
       </c>
       <c r="D11" s="10">
-        <f>[1]!PropsSI("H","T",B11+273.15,"P",C11*10^6,"Water")/1000</f>
-        <v>251.74839576328077</v>
+        <v>695.4937008073166</v>
       </c>
       <c r="E11" s="11">
         <v>82.91</v>
@@ -1305,45 +1363,54 @@
       <c r="H11" s="10"/>
       <c r="I11" s="10"/>
     </row>
-    <row r="12" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" s="15" customFormat="1">
       <c r="A12" s="14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B12" s="9">
-        <v>44.2</v>
+        <v>60</v>
       </c>
       <c r="C12" s="10">
-        <f>C11</f>
         <v>0.69640000000000002</v>
       </c>
       <c r="D12" s="10">
-        <v>185.7</v>
+        <f>[1]!PropsSI("H","T",B12+273.15,"P",C12*10^6,"Water")/1000</f>
+        <v>251.74839576328077</v>
       </c>
       <c r="E12" s="11">
-        <f>E9</f>
-        <v>78.16</v>
+        <v>82.91</v>
       </c>
       <c r="F12" s="10"/>
       <c r="G12" s="10"/>
       <c r="H12" s="10"/>
       <c r="I12" s="10"/>
     </row>
-    <row r="13" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="B13" s="9"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="11"/>
+    <row r="13" spans="1:9" s="15" customFormat="1">
+      <c r="A13" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="B13" s="9">
+        <v>44.2</v>
+      </c>
+      <c r="C13" s="10">
+        <f>C12</f>
+        <v>0.69640000000000002</v>
+      </c>
+      <c r="D13" s="10">
+        <v>185.7</v>
+      </c>
+      <c r="E13" s="11">
+        <f>E10</f>
+        <v>78.16</v>
+      </c>
       <c r="F13" s="10"/>
       <c r="G13" s="10"/>
       <c r="H13" s="10"/>
       <c r="I13" s="10"/>
     </row>
-    <row r="14" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" s="15" customFormat="1">
       <c r="A14" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B14" s="9"/>
       <c r="C14" s="10"/>
@@ -1354,408 +1421,457 @@
       <c r="H14" s="10"/>
       <c r="I14" s="10"/>
     </row>
-    <row r="15" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="B15" s="9">
-        <v>79.730222232833995</v>
-      </c>
-      <c r="C15" s="10">
-        <v>4.6898905908277499E-2</v>
-      </c>
+    <row r="15" spans="1:9" s="15" customFormat="1">
+      <c r="A15" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B15" s="9"/>
+      <c r="C15" s="10"/>
       <c r="D15" s="10"/>
-      <c r="E15" s="11" t="s">
-        <v>26</v>
-      </c>
+      <c r="E15" s="11"/>
       <c r="F15" s="10"/>
       <c r="G15" s="10"/>
       <c r="H15" s="10"/>
       <c r="I15" s="10"/>
     </row>
-    <row r="16" spans="1:9" s="15" customFormat="1" ht="14" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" s="15" customFormat="1">
       <c r="A16" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" s="9">
-        <v>49.839511130751802</v>
-      </c>
-      <c r="C16" s="10">
-        <v>4.6898905908277499E-2</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="B16" s="9"/>
+      <c r="C16" s="10"/>
       <c r="D16" s="10"/>
-      <c r="E16" s="11" t="s">
-        <v>26</v>
-      </c>
+      <c r="E16" s="11"/>
       <c r="F16" s="10"/>
       <c r="G16" s="10"/>
-      <c r="H16" s="27"/>
+      <c r="H16" s="10"/>
       <c r="I16" s="10"/>
     </row>
-    <row r="17" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="5" t="s">
-        <v>45</v>
+    <row r="17" spans="1:9" s="15" customFormat="1">
+      <c r="A17" s="22" t="s">
+        <v>22</v>
       </c>
       <c r="B17" s="9">
-        <v>46</v>
+        <v>79.730222232833995</v>
       </c>
       <c r="C17" s="10">
-        <v>1</v>
+        <v>4.6898905908277499E-2</v>
       </c>
       <c r="D17" s="10"/>
-      <c r="E17" s="11">
-        <v>800</v>
+      <c r="E17" s="11" t="s">
+        <v>26</v>
       </c>
       <c r="F17" s="10"/>
       <c r="G17" s="10"/>
       <c r="H17" s="10"/>
       <c r="I17" s="10"/>
     </row>
-    <row r="18" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" s="15" customFormat="1">
       <c r="A18" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B18" s="9">
-        <v>46</v>
+        <v>49.839511130751802</v>
       </c>
       <c r="C18" s="10">
-        <v>1</v>
+        <v>4.6898905908277499E-2</v>
       </c>
       <c r="D18" s="10"/>
-      <c r="E18" s="11">
-        <v>100.77673095348899</v>
+      <c r="E18" s="11" t="s">
+        <v>26</v>
       </c>
       <c r="F18" s="10"/>
       <c r="G18" s="10"/>
-      <c r="H18" s="10"/>
+      <c r="H18" s="27"/>
       <c r="I18" s="10"/>
     </row>
-    <row r="19" spans="1:9" ht="14" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" s="15" customFormat="1">
       <c r="A19" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B19" s="9">
+        <v>46</v>
+      </c>
+      <c r="C19" s="10">
+        <v>1</v>
+      </c>
+      <c r="D19" s="10"/>
+      <c r="E19" s="11">
+        <v>800</v>
+      </c>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10"/>
+      <c r="I19" s="10"/>
+    </row>
+    <row r="20" spans="1:9" s="15" customFormat="1">
+      <c r="A20" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" s="9">
+        <v>46</v>
+      </c>
+      <c r="C20" s="10">
+        <v>1</v>
+      </c>
+      <c r="D20" s="10"/>
+      <c r="E20" s="11">
+        <v>100.77673095348899</v>
+      </c>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="10"/>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B19" s="2">
+      <c r="B21" s="2">
         <v>64.77</v>
       </c>
-      <c r="C19" s="3">
+      <c r="C21" s="3">
         <v>1</v>
       </c>
-      <c r="E19" s="11">
+      <c r="E21" s="11">
         <v>100.77673095348899</v>
       </c>
-      <c r="H19" s="27"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A20" s="5" t="s">
+      <c r="H21" s="27"/>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B20" s="2">
+      <c r="B22" s="2">
         <v>107.6</v>
       </c>
-      <c r="C20" s="3">
+      <c r="C22" s="3">
         <v>0.13219638629678299</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D22" s="3">
         <v>2622.5496464962498</v>
       </c>
-      <c r="E20" s="4">
+      <c r="E22" s="4">
         <v>32.141666666666602</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A21" s="5" t="s">
+    <row r="23" spans="1:9">
+      <c r="A23" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B21" s="2">
+      <c r="B23" s="2">
         <v>106.101586260687</v>
       </c>
-      <c r="C21" s="3">
+      <c r="C23" s="3">
         <v>0.12558656698194401</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D23" s="3">
         <v>444.928681619781</v>
       </c>
-      <c r="E21" s="4">
+      <c r="E23" s="4">
         <v>32.141666666666602</v>
       </c>
-      <c r="H21" s="10"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A22" s="5" t="s">
+      <c r="H23" s="10"/>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B22" s="2">
+      <c r="B24" s="2">
         <v>76.584469854469802</v>
       </c>
-      <c r="C22" s="3">
+      <c r="C24" s="3">
         <v>1</v>
       </c>
-      <c r="D22" s="3">
-        <f>4.187*B22</f>
+      <c r="D24" s="3">
+        <f>4.187*B24</f>
         <v>320.65917528066507</v>
       </c>
-      <c r="E22" s="4">
+      <c r="E24" s="4">
         <v>800</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A23" s="5" t="s">
+    <row r="25" spans="1:9">
+      <c r="A25" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B23" s="2">
+      <c r="B25" s="2">
         <v>98.56</v>
       </c>
-      <c r="C23" s="3">
+      <c r="C25" s="3">
         <v>1</v>
       </c>
-      <c r="D23" s="3">
-        <f>4.187*B23</f>
+      <c r="D25" s="3">
+        <f>4.187*B25</f>
         <v>412.67072000000002</v>
       </c>
-      <c r="E23" s="4">
+      <c r="E25" s="4">
         <v>800</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A24" s="5" t="s">
+    <row r="26" spans="1:9">
+      <c r="A26" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B24" s="2">
+      <c r="B26" s="2">
         <v>48.336070686070599</v>
       </c>
-      <c r="C24" s="23">
+      <c r="C26" s="23">
         <v>1</v>
       </c>
-      <c r="D24" s="23">
-        <f>B24*4.187</f>
+      <c r="D26" s="23">
+        <f>B26*4.187</f>
         <v>202.38312796257762</v>
       </c>
-      <c r="E24" s="4">
-        <f>E23</f>
+      <c r="E26" s="4">
+        <f>E25</f>
         <v>800</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A25" s="5" t="s">
+    <row r="27" spans="1:9">
+      <c r="A27" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B25" s="2">
+      <c r="B27" s="2">
         <v>81</v>
       </c>
-      <c r="C25" s="3">
+      <c r="C27" s="3">
         <v>4.9367269377134197E-2</v>
       </c>
-      <c r="D25" s="3">
+      <c r="D27" s="3">
         <v>2474.0814439013302</v>
       </c>
-      <c r="E25" s="4">
+      <c r="E27" s="4">
         <v>43.733333333333299</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A26" s="5" t="s">
+    <row r="28" spans="1:9">
+      <c r="A28" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="B26" s="2">
+      <c r="B28" s="2">
         <v>508.6</v>
       </c>
-      <c r="C26" s="3">
+      <c r="C28" s="3">
         <v>7.8449999999999998</v>
-      </c>
-      <c r="D26" s="10">
-        <f>[1]!PropsSI("H","T",B26+273.15,"P",C26*10^6,"Water")/1000</f>
-        <v>3422.525471918223</v>
-      </c>
-      <c r="E26" s="4">
-        <v>63.4</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A27" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="B27" s="2">
-        <v>195.85257753389442</v>
-      </c>
-      <c r="C27" s="3">
-        <v>0.54900000000000004</v>
-      </c>
-      <c r="D27" s="10">
-        <v>2844.2851295823216</v>
-      </c>
-      <c r="E27" s="4">
-        <f>E26</f>
-        <v>63.4</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A28" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B28" s="2">
-        <v>209.8</v>
-      </c>
-      <c r="C28" s="3">
-        <v>0.61099999999999999</v>
       </c>
       <c r="D28" s="10">
         <f>[1]!PropsSI("H","T",B28+273.15,"P",C28*10^6,"Water")/1000</f>
-        <v>2871.4269447672918</v>
+        <v>3422.525471918223</v>
       </c>
       <c r="E28" s="4">
-        <f>E7</f>
-        <v>14.76</v>
-      </c>
-      <c r="F28" s="3">
-        <f>[1]!PropsSI("S","T",B28+273.15,"P",C28*10^6,"Water")/1000</f>
-        <v>7.0037387010430008</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+        <v>63.4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="5" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B29" s="2">
-        <v>197.8</v>
+        <v>195.85257753389442</v>
       </c>
       <c r="C29" s="3">
         <v>0.54900000000000004</v>
       </c>
       <c r="D29" s="10">
-        <f>[1]!PropsSI("H","T",B29+273.15,"P",C29*10^6,"Water")/1000</f>
-        <v>2848.5216025782688</v>
+        <v>2844.2851295823216</v>
       </c>
       <c r="E29" s="4">
-        <f>E28+E27</f>
-        <v>78.16</v>
-      </c>
-      <c r="F29" s="3">
-        <f>[1]!PropsSI("S","T",B29+273.15,"P",C29*10^6,"Water")/1000</f>
-        <v>7.0036012848044198</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+        <f>E28</f>
+        <v>63.4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B30" s="2">
-        <v>131.4</v>
+        <v>209.8</v>
       </c>
       <c r="C30" s="3">
-        <v>0.25419999999999998</v>
+        <v>0.61099999999999999</v>
       </c>
       <c r="D30" s="10">
         <f>[1]!PropsSI("H","T",B30+273.15,"P",C30*10^6,"Water")/1000</f>
-        <v>2724.8615334140964</v>
+        <v>2871.4269447672918</v>
       </c>
       <c r="E30" s="4">
-        <f t="shared" ref="E30:E35" si="0">E29</f>
-        <v>78.16</v>
+        <f>E8</f>
+        <v>14.76</v>
       </c>
       <c r="F30" s="3">
         <f>[1]!PropsSI("S","T",B30+273.15,"P",C30*10^6,"Water")/1000</f>
+        <v>7.0037387010430008</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B31" s="2">
+        <v>197.8</v>
+      </c>
+      <c r="C31" s="3">
+        <v>0.54900000000000004</v>
+      </c>
+      <c r="D31" s="10">
+        <f>[1]!PropsSI("H","T",B31+273.15,"P",C31*10^6,"Water")/1000</f>
+        <v>2848.5216025782688</v>
+      </c>
+      <c r="E31" s="4">
+        <f>E30+E29</f>
+        <v>78.16</v>
+      </c>
+      <c r="F31" s="3">
+        <f>[1]!PropsSI("S","T",B31+273.15,"P",C31*10^6,"Water")/1000</f>
+        <v>7.0036012848044198</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B32" s="2">
+        <v>131.4</v>
+      </c>
+      <c r="C32" s="3">
+        <v>0.25419999999999998</v>
+      </c>
+      <c r="D32" s="10">
+        <f>[1]!PropsSI("H","T",B32+273.15,"P",C32*10^6,"Water")/1000</f>
+        <v>2724.8615334140964</v>
+      </c>
+      <c r="E32" s="4">
+        <f t="shared" ref="E32:E37" si="0">E31</f>
+        <v>78.16</v>
+      </c>
+      <c r="F32" s="3">
+        <f>[1]!PropsSI("S","T",B32+273.15,"P",C32*10^6,"Water")/1000</f>
         <v>7.0657703965611702</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A31" s="5" t="s">
+    <row r="33" spans="1:9">
+      <c r="A33" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C31" s="3">
+      <c r="C33" s="3">
         <v>0.1525</v>
       </c>
-      <c r="D31" s="10">
+      <c r="D33" s="10">
         <v>2652</v>
-      </c>
-      <c r="E31" s="4">
-        <f t="shared" si="0"/>
-        <v>78.16</v>
-      </c>
-      <c r="F31" s="3">
-        <v>7.109</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A32" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="C32" s="3">
-        <f>C31</f>
-        <v>0.1525</v>
-      </c>
-      <c r="D32" s="3">
-        <f>D31</f>
-        <v>2652</v>
-      </c>
-      <c r="E32" s="4">
-        <f t="shared" si="0"/>
-        <v>78.16</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A33" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="B33" s="2">
-        <v>41.51</v>
-      </c>
-      <c r="C33" s="3">
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="D33" s="3">
-        <v>2341.2543185335167</v>
       </c>
       <c r="E33" s="4">
         <f t="shared" si="0"/>
         <v>78.16</v>
       </c>
-    </row>
-    <row r="34" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="F33" s="3">
+        <v>7.109</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="B34" s="2">
-        <v>41.51</v>
+        <v>40</v>
       </c>
       <c r="C34" s="3">
-        <v>8.0000000000000002E-3</v>
+        <f>C33</f>
+        <v>0.1525</v>
       </c>
       <c r="D34" s="3">
-        <v>173.83980037063873</v>
+        <f>D33</f>
+        <v>2652</v>
       </c>
       <c r="E34" s="4">
         <f t="shared" si="0"/>
         <v>78.16</v>
       </c>
-      <c r="F34"/>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="5" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="B35" s="2">
         <v>41.51</v>
       </c>
       <c r="C35" s="3">
-        <f>C9</f>
-        <v>0.69640000000000002</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="D35" s="3">
-        <v>173.83980037063873</v>
+        <v>2341.2543185335167</v>
       </c>
       <c r="E35" s="4">
         <f t="shared" si="0"/>
         <v>78.16</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="G38" s="25"/>
-    </row>
-    <row r="43" spans="1:9" ht="14" x14ac:dyDescent="0.3">
-      <c r="F43" s="26"/>
-      <c r="G43" s="27"/>
-      <c r="H43" s="27"/>
-      <c r="I43" s="25"/>
+    <row r="36" spans="1:9" ht="14.5">
+      <c r="A36" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B36" s="2">
+        <v>41.51</v>
+      </c>
+      <c r="C36" s="3">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="D36" s="3">
+        <v>173.83980037063873</v>
+      </c>
+      <c r="E36" s="4">
+        <f t="shared" si="0"/>
+        <v>78.16</v>
+      </c>
+      <c r="F36"/>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B37" s="2">
+        <v>41.51</v>
+      </c>
+      <c r="C37" s="3">
+        <f>C10</f>
+        <v>0.69640000000000002</v>
+      </c>
+      <c r="D37" s="3">
+        <v>173.83980037063873</v>
+      </c>
+      <c r="E37" s="4">
+        <f t="shared" si="0"/>
+        <v>78.16</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="A38" s="22" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="A39" s="22" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
+      <c r="A40" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="G40" s="25"/>
+    </row>
+    <row r="41" spans="1:9">
+      <c r="A41" s="22" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
+      <c r="A42" s="22" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
+      <c r="F45" s="26"/>
+      <c r="G45" s="27"/>
+      <c r="H45" s="27"/>
+      <c r="I45" s="25"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/streams0.xlsx
+++ b/streams0.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4274EF42-1345-4C57-91EA-AF3B471256BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CE7C030-1EEC-4509-A254-1621F3D23146}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-14510" yWindow="-110" windowWidth="14620" windowHeight="25220" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="gas" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="61">
   <si>
     <t>GTU-PEVD</t>
   </si>
@@ -172,12 +172,6 @@
     <t>SWIN-TURB</t>
   </si>
   <si>
-    <t>GPK-RECIRC</t>
-  </si>
-  <si>
-    <t>GPK-BYPASS</t>
-  </si>
-  <si>
     <t>REC-GPK</t>
   </si>
   <si>
@@ -196,9 +190,6 @@
     <t>AIR</t>
   </si>
   <si>
-    <t>X-SMESH</t>
-  </si>
-  <si>
     <t>SP2-ASW</t>
   </si>
   <si>
@@ -221,6 +212,9 @@
   </si>
   <si>
     <t>CH4-REF</t>
+  </si>
+  <si>
+    <t>SMESH-GPK</t>
   </si>
 </sst>
 </file>
@@ -261,7 +255,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -271,6 +265,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -382,7 +382,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -464,6 +464,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -765,7 +768,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
@@ -814,7 +817,7 @@
     </row>
     <row r="2" spans="1:16">
       <c r="A2" s="28" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="J2" s="24"/>
     </row>
@@ -852,7 +855,7 @@
     </row>
     <row r="4" spans="1:16">
       <c r="A4" s="28" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="J4" s="24"/>
     </row>
@@ -1090,12 +1093,12 @@
     </row>
     <row r="12" spans="1:16">
       <c r="A12" s="28" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="13" spans="1:16" ht="13.5" thickBot="1">
       <c r="A13" s="29" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -1108,10 +1111,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A78D0049-A33A-42B4-86C2-1F7629C05FA7}">
-  <dimension ref="A1:I45"/>
+  <dimension ref="A1:I43"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="13"/>
@@ -1149,7 +1152,7 @@
     </row>
     <row r="2" spans="1:9" s="19" customFormat="1">
       <c r="A2" s="5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B2" s="2">
         <v>15</v>
@@ -1344,7 +1347,7 @@
     </row>
     <row r="11" spans="1:9" s="15" customFormat="1">
       <c r="A11" s="14" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B11" s="21">
         <v>164.6</v>
@@ -1364,20 +1367,19 @@
       <c r="I11" s="10"/>
     </row>
     <row r="12" spans="1:9" s="15" customFormat="1">
-      <c r="A12" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="B12" s="9">
+      <c r="A12" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="B12" s="30">
         <v>60</v>
       </c>
-      <c r="C12" s="10">
+      <c r="C12" s="23">
         <v>0.69640000000000002</v>
       </c>
-      <c r="D12" s="10">
-        <f>[1]!PropsSI("H","T",B12+273.15,"P",C12*10^6,"Water")/1000</f>
+      <c r="D12" s="23">
         <v>251.74839576328077</v>
       </c>
-      <c r="E12" s="11">
+      <c r="E12" s="4">
         <v>82.91</v>
       </c>
       <c r="F12" s="10"/>
@@ -1386,21 +1388,19 @@
       <c r="I12" s="10"/>
     </row>
     <row r="13" spans="1:9" s="15" customFormat="1">
-      <c r="A13" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="B13" s="9">
+      <c r="A13" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="B13" s="30">
         <v>44.2</v>
       </c>
-      <c r="C13" s="10">
-        <f>C12</f>
+      <c r="C13" s="23">
         <v>0.69640000000000002</v>
       </c>
-      <c r="D13" s="10">
+      <c r="D13" s="23">
         <v>185.7</v>
       </c>
-      <c r="E13" s="11">
-        <f>E10</f>
+      <c r="E13" s="4">
         <v>78.16</v>
       </c>
       <c r="F13" s="10"/>
@@ -1409,26 +1409,40 @@
       <c r="I13" s="10"/>
     </row>
     <row r="14" spans="1:9" s="15" customFormat="1">
-      <c r="A14" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="B14" s="9"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="11"/>
+      <c r="A14" s="28" t="s">
+        <v>47</v>
+      </c>
+      <c r="B14" s="23">
+        <v>44.2</v>
+      </c>
+      <c r="C14" s="23">
+        <v>0.69640000000000002</v>
+      </c>
+      <c r="D14" s="23">
+        <v>185.7</v>
+      </c>
+      <c r="E14" s="4">
+        <v>78.16</v>
+      </c>
       <c r="F14" s="10"/>
       <c r="G14" s="10"/>
       <c r="H14" s="10"/>
       <c r="I14" s="10"/>
     </row>
     <row r="15" spans="1:9" s="15" customFormat="1">
-      <c r="A15" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="B15" s="9"/>
-      <c r="C15" s="10"/>
+      <c r="A15" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" s="9">
+        <v>79.730222232833995</v>
+      </c>
+      <c r="C15" s="10">
+        <v>4.6898905908277499E-2</v>
+      </c>
       <c r="D15" s="10"/>
-      <c r="E15" s="11"/>
+      <c r="E15" s="11" t="s">
+        <v>26</v>
+      </c>
       <c r="F15" s="10"/>
       <c r="G15" s="10"/>
       <c r="H15" s="10"/>
@@ -1436,30 +1450,36 @@
     </row>
     <row r="16" spans="1:9" s="15" customFormat="1">
       <c r="A16" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="B16" s="9"/>
-      <c r="C16" s="10"/>
+        <v>23</v>
+      </c>
+      <c r="B16" s="9">
+        <v>49.839511130751802</v>
+      </c>
+      <c r="C16" s="10">
+        <v>4.6898905908277499E-2</v>
+      </c>
       <c r="D16" s="10"/>
-      <c r="E16" s="11"/>
+      <c r="E16" s="11" t="s">
+        <v>26</v>
+      </c>
       <c r="F16" s="10"/>
       <c r="G16" s="10"/>
-      <c r="H16" s="10"/>
+      <c r="H16" s="27"/>
       <c r="I16" s="10"/>
     </row>
     <row r="17" spans="1:9" s="15" customFormat="1">
-      <c r="A17" s="22" t="s">
-        <v>22</v>
+      <c r="A17" s="5" t="s">
+        <v>45</v>
       </c>
       <c r="B17" s="9">
-        <v>79.730222232833995</v>
+        <v>46</v>
       </c>
       <c r="C17" s="10">
-        <v>4.6898905908277499E-2</v>
+        <v>1</v>
       </c>
       <c r="D17" s="10"/>
-      <c r="E17" s="11" t="s">
-        <v>26</v>
+      <c r="E17" s="11">
+        <v>800</v>
       </c>
       <c r="F17" s="10"/>
       <c r="G17" s="10"/>
@@ -1468,410 +1488,372 @@
     </row>
     <row r="18" spans="1:9" s="15" customFormat="1">
       <c r="A18" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B18" s="9">
-        <v>49.839511130751802</v>
+        <v>46</v>
       </c>
       <c r="C18" s="10">
-        <v>4.6898905908277499E-2</v>
+        <v>1</v>
       </c>
       <c r="D18" s="10"/>
-      <c r="E18" s="11" t="s">
-        <v>26</v>
+      <c r="E18" s="11">
+        <v>100.77673095348899</v>
       </c>
       <c r="F18" s="10"/>
       <c r="G18" s="10"/>
-      <c r="H18" s="27"/>
+      <c r="H18" s="10"/>
       <c r="I18" s="10"/>
     </row>
-    <row r="19" spans="1:9" s="15" customFormat="1">
+    <row r="19" spans="1:9">
       <c r="A19" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="B19" s="9">
-        <v>46</v>
-      </c>
-      <c r="C19" s="10">
+        <v>25</v>
+      </c>
+      <c r="B19" s="2">
+        <v>64.77</v>
+      </c>
+      <c r="C19" s="3">
         <v>1</v>
       </c>
-      <c r="D19" s="10"/>
       <c r="E19" s="11">
-        <v>800</v>
-      </c>
-      <c r="F19" s="10"/>
-      <c r="G19" s="10"/>
-      <c r="H19" s="10"/>
-      <c r="I19" s="10"/>
-    </row>
-    <row r="20" spans="1:9" s="15" customFormat="1">
+        <v>100.77673095348899</v>
+      </c>
+      <c r="H19" s="27"/>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B20" s="9">
-        <v>46</v>
-      </c>
-      <c r="C20" s="10">
-        <v>1</v>
-      </c>
-      <c r="D20" s="10"/>
-      <c r="E20" s="11">
-        <v>100.77673095348899</v>
-      </c>
-      <c r="F20" s="10"/>
-      <c r="G20" s="10"/>
-      <c r="H20" s="10"/>
-      <c r="I20" s="10"/>
+        <v>27</v>
+      </c>
+      <c r="B20" s="2">
+        <v>107.6</v>
+      </c>
+      <c r="C20" s="3">
+        <v>0.13219638629678299</v>
+      </c>
+      <c r="D20" s="3">
+        <v>2622.5496464962498</v>
+      </c>
+      <c r="E20" s="4">
+        <v>32.141666666666602</v>
+      </c>
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="5" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B21" s="2">
-        <v>64.77</v>
+        <v>106.101586260687</v>
       </c>
       <c r="C21" s="3">
-        <v>1</v>
-      </c>
-      <c r="E21" s="11">
-        <v>100.77673095348899</v>
-      </c>
-      <c r="H21" s="27"/>
+        <v>0.12558656698194401</v>
+      </c>
+      <c r="D21" s="3">
+        <v>444.928681619781</v>
+      </c>
+      <c r="E21" s="4">
+        <v>32.141666666666602</v>
+      </c>
+      <c r="H21" s="10"/>
     </row>
     <row r="22" spans="1:9">
       <c r="A22" s="5" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B22" s="2">
-        <v>107.6</v>
+        <v>76.584469854469802</v>
       </c>
       <c r="C22" s="3">
-        <v>0.13219638629678299</v>
+        <v>1</v>
       </c>
       <c r="D22" s="3">
-        <v>2622.5496464962498</v>
+        <f>4.187*B22</f>
+        <v>320.65917528066507</v>
       </c>
       <c r="E22" s="4">
-        <v>32.141666666666602</v>
+        <v>800</v>
       </c>
     </row>
     <row r="23" spans="1:9">
       <c r="A23" s="5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B23" s="2">
-        <v>106.101586260687</v>
+        <v>98.56</v>
       </c>
       <c r="C23" s="3">
-        <v>0.12558656698194401</v>
+        <v>1</v>
       </c>
       <c r="D23" s="3">
-        <v>444.928681619781</v>
+        <f>4.187*B23</f>
+        <v>412.67072000000002</v>
       </c>
       <c r="E23" s="4">
-        <v>32.141666666666602</v>
-      </c>
-      <c r="H23" s="10"/>
+        <v>800</v>
+      </c>
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="5" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B24" s="2">
-        <v>76.584469854469802</v>
-      </c>
-      <c r="C24" s="3">
+        <v>48.336070686070599</v>
+      </c>
+      <c r="C24" s="23">
         <v>1</v>
       </c>
-      <c r="D24" s="3">
-        <f>4.187*B24</f>
-        <v>320.65917528066507</v>
+      <c r="D24" s="23">
+        <f>B24*4.187</f>
+        <v>202.38312796257762</v>
       </c>
       <c r="E24" s="4">
+        <f>E23</f>
         <v>800</v>
       </c>
     </row>
     <row r="25" spans="1:9">
       <c r="A25" s="5" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B25" s="2">
-        <v>98.56</v>
+        <v>81</v>
       </c>
       <c r="C25" s="3">
-        <v>1</v>
+        <v>4.9367269377134197E-2</v>
       </c>
       <c r="D25" s="3">
-        <f>4.187*B25</f>
-        <v>412.67072000000002</v>
+        <v>2474.0814439013302</v>
       </c>
       <c r="E25" s="4">
-        <v>800</v>
+        <v>43.733333333333299</v>
       </c>
     </row>
     <row r="26" spans="1:9">
       <c r="A26" s="5" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B26" s="2">
-        <v>48.336070686070599</v>
-      </c>
-      <c r="C26" s="23">
-        <v>1</v>
-      </c>
-      <c r="D26" s="23">
-        <f>B26*4.187</f>
-        <v>202.38312796257762</v>
+        <v>508.6</v>
+      </c>
+      <c r="C26" s="3">
+        <v>7.8449999999999998</v>
+      </c>
+      <c r="D26" s="10">
+        <f>[1]!PropsSI("H","T",B26+273.15,"P",C26*10^6,"Water")/1000</f>
+        <v>3422.525471918223</v>
       </c>
       <c r="E26" s="4">
-        <f>E25</f>
-        <v>800</v>
+        <v>63.4</v>
       </c>
     </row>
     <row r="27" spans="1:9">
       <c r="A27" s="5" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B27" s="2">
-        <v>81</v>
+        <v>195.85257753389442</v>
       </c>
       <c r="C27" s="3">
-        <v>4.9367269377134197E-2</v>
-      </c>
-      <c r="D27" s="3">
-        <v>2474.0814439013302</v>
+        <v>0.54900000000000004</v>
+      </c>
+      <c r="D27" s="10">
+        <v>2844.2851295823216</v>
       </c>
       <c r="E27" s="4">
-        <v>43.733333333333299</v>
+        <f>E26</f>
+        <v>63.4</v>
       </c>
     </row>
     <row r="28" spans="1:9">
       <c r="A28" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B28" s="2">
-        <v>508.6</v>
+        <v>209.8</v>
       </c>
       <c r="C28" s="3">
-        <v>7.8449999999999998</v>
+        <v>0.61099999999999999</v>
       </c>
       <c r="D28" s="10">
         <f>[1]!PropsSI("H","T",B28+273.15,"P",C28*10^6,"Water")/1000</f>
-        <v>3422.525471918223</v>
+        <v>2871.4269447672918</v>
       </c>
       <c r="E28" s="4">
-        <v>63.4</v>
+        <f>E8</f>
+        <v>14.76</v>
+      </c>
+      <c r="F28" s="3">
+        <f>[1]!PropsSI("S","T",B28+273.15,"P",C28*10^6,"Water")/1000</f>
+        <v>7.0037387010430008</v>
       </c>
     </row>
     <row r="29" spans="1:9">
       <c r="A29" s="5" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B29" s="2">
-        <v>195.85257753389442</v>
+        <v>197.8</v>
       </c>
       <c r="C29" s="3">
         <v>0.54900000000000004</v>
       </c>
       <c r="D29" s="10">
-        <v>2844.2851295823216</v>
+        <f>[1]!PropsSI("H","T",B29+273.15,"P",C29*10^6,"Water")/1000</f>
+        <v>2848.5216025782688</v>
       </c>
       <c r="E29" s="4">
-        <f>E28</f>
-        <v>63.4</v>
+        <f>E28+E27</f>
+        <v>78.16</v>
+      </c>
+      <c r="F29" s="3">
+        <f>[1]!PropsSI("S","T",B29+273.15,"P",C29*10^6,"Water")/1000</f>
+        <v>7.0036012848044198</v>
       </c>
     </row>
     <row r="30" spans="1:9">
       <c r="A30" s="5" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B30" s="2">
-        <v>209.8</v>
+        <v>131.4</v>
       </c>
       <c r="C30" s="3">
-        <v>0.61099999999999999</v>
+        <v>0.25419999999999998</v>
       </c>
       <c r="D30" s="10">
         <f>[1]!PropsSI("H","T",B30+273.15,"P",C30*10^6,"Water")/1000</f>
-        <v>2871.4269447672918</v>
+        <v>2724.8615334140964</v>
       </c>
       <c r="E30" s="4">
-        <f>E8</f>
-        <v>14.76</v>
+        <f t="shared" ref="E30:E35" si="0">E29</f>
+        <v>78.16</v>
       </c>
       <c r="F30" s="3">
         <f>[1]!PropsSI("S","T",B30+273.15,"P",C30*10^6,"Water")/1000</f>
-        <v>7.0037387010430008</v>
+        <v>7.0657703965611702</v>
       </c>
     </row>
     <row r="31" spans="1:9">
       <c r="A31" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="B31" s="2">
-        <v>197.8</v>
+        <v>39</v>
       </c>
       <c r="C31" s="3">
-        <v>0.54900000000000004</v>
+        <v>0.1525</v>
       </c>
       <c r="D31" s="10">
-        <f>[1]!PropsSI("H","T",B31+273.15,"P",C31*10^6,"Water")/1000</f>
-        <v>2848.5216025782688</v>
+        <v>2652</v>
       </c>
       <c r="E31" s="4">
-        <f>E30+E29</f>
+        <f t="shared" si="0"/>
         <v>78.16</v>
       </c>
       <c r="F31" s="3">
-        <f>[1]!PropsSI("S","T",B31+273.15,"P",C31*10^6,"Water")/1000</f>
-        <v>7.0036012848044198</v>
+        <v>7.109</v>
       </c>
     </row>
     <row r="32" spans="1:9">
       <c r="A32" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="B32" s="2">
-        <v>131.4</v>
+        <v>40</v>
       </c>
       <c r="C32" s="3">
-        <v>0.25419999999999998</v>
-      </c>
-      <c r="D32" s="10">
-        <f>[1]!PropsSI("H","T",B32+273.15,"P",C32*10^6,"Water")/1000</f>
-        <v>2724.8615334140964</v>
+        <f>C31</f>
+        <v>0.1525</v>
+      </c>
+      <c r="D32" s="3">
+        <f>D31</f>
+        <v>2652</v>
       </c>
       <c r="E32" s="4">
-        <f t="shared" ref="E32:E37" si="0">E31</f>
+        <f t="shared" si="0"/>
         <v>78.16</v>
-      </c>
-      <c r="F32" s="3">
-        <f>[1]!PropsSI("S","T",B32+273.15,"P",C32*10^6,"Water")/1000</f>
-        <v>7.0657703965611702</v>
       </c>
     </row>
     <row r="33" spans="1:9">
       <c r="A33" s="5" t="s">
-        <v>39</v>
+        <v>41</v>
+      </c>
+      <c r="B33" s="2">
+        <v>41.51</v>
       </c>
       <c r="C33" s="3">
-        <v>0.1525</v>
-      </c>
-      <c r="D33" s="10">
-        <v>2652</v>
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="D33" s="3">
+        <v>2341.2543185335167</v>
       </c>
       <c r="E33" s="4">
         <f t="shared" si="0"/>
         <v>78.16</v>
       </c>
-      <c r="F33" s="3">
-        <v>7.109</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
+    </row>
+    <row r="34" spans="1:9" ht="14.5">
       <c r="A34" s="5" t="s">
-        <v>40</v>
+        <v>49</v>
+      </c>
+      <c r="B34" s="2">
+        <v>41.51</v>
       </c>
       <c r="C34" s="3">
-        <f>C33</f>
-        <v>0.1525</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="D34" s="3">
-        <f>D33</f>
-        <v>2652</v>
+        <v>173.83980037063873</v>
       </c>
       <c r="E34" s="4">
         <f t="shared" si="0"/>
         <v>78.16</v>
       </c>
+      <c r="F34"/>
     </row>
     <row r="35" spans="1:9">
       <c r="A35" s="5" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="B35" s="2">
         <v>41.51</v>
       </c>
       <c r="C35" s="3">
-        <v>8.0000000000000002E-3</v>
+        <f>C10</f>
+        <v>0.69640000000000002</v>
       </c>
       <c r="D35" s="3">
-        <v>2341.2543185335167</v>
+        <v>173.83980037063873</v>
       </c>
       <c r="E35" s="4">
         <f t="shared" si="0"/>
         <v>78.16</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="14.5">
-      <c r="A36" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="B36" s="2">
-        <v>41.51</v>
-      </c>
-      <c r="C36" s="3">
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="D36" s="3">
-        <v>173.83980037063873</v>
-      </c>
-      <c r="E36" s="4">
-        <f t="shared" si="0"/>
-        <v>78.16</v>
-      </c>
-      <c r="F36"/>
+    <row r="36" spans="1:9">
+      <c r="A36" s="22" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="37" spans="1:9">
-      <c r="A37" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B37" s="2">
-        <v>41.51</v>
-      </c>
-      <c r="C37" s="3">
-        <f>C10</f>
-        <v>0.69640000000000002</v>
-      </c>
-      <c r="D37" s="3">
-        <v>173.83980037063873</v>
-      </c>
-      <c r="E37" s="4">
-        <f t="shared" si="0"/>
-        <v>78.16</v>
+      <c r="A37" s="22" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="38" spans="1:9">
-      <c r="A38" s="22" t="s">
-        <v>55</v>
-      </c>
+      <c r="A38" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="G38" s="25"/>
     </row>
     <row r="39" spans="1:9">
       <c r="A39" s="22" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
+      <c r="A40" s="22" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="40" spans="1:9">
-      <c r="A40" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="G40" s="25"/>
-    </row>
-    <row r="41" spans="1:9">
-      <c r="A41" s="22" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
-      <c r="A42" s="22" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
-      <c r="F45" s="26"/>
-      <c r="G45" s="27"/>
-      <c r="H45" s="27"/>
-      <c r="I45" s="25"/>
+    <row r="43" spans="1:9">
+      <c r="F43" s="26"/>
+      <c r="G43" s="27"/>
+      <c r="H43" s="27"/>
+      <c r="I43" s="25"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/streams0.xlsx
+++ b/streams0.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CE7C030-1EEC-4509-A254-1621F3D23146}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19FCC5FA-AC73-4ACD-B704-F6E85674DC48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-14510" yWindow="-110" windowWidth="14620" windowHeight="25220" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2660" yWindow="2660" windowWidth="19200" windowHeight="10140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="gas" sheetId="1" r:id="rId1"/>
@@ -382,13 +382,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -397,45 +397,31 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -444,13 +430,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="11" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="11" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="11" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -458,9 +441,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -491,6 +471,7 @@
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet3"/>
+      <sheetName val="CoolProp"/>
     </sheetNames>
     <definedNames>
       <definedName name="MixtureString"/>
@@ -498,6 +479,7 @@
     </definedNames>
     <sheetDataSet>
       <sheetData sheetId="0"/>
+      <sheetData sheetId="1" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -766,27 +748,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P14"/>
+  <dimension ref="A1:P13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="14.81640625" style="12" customWidth="1"/>
-    <col min="2" max="2" width="9.1796875" style="9"/>
-    <col min="3" max="4" width="9.1796875" style="10"/>
-    <col min="5" max="5" width="9.1796875" style="11"/>
-    <col min="6" max="6" width="9.1796875" style="9"/>
-    <col min="7" max="9" width="9.1796875" style="10"/>
-    <col min="10" max="10" width="9.1796875" style="11"/>
-    <col min="11" max="14" width="9.1796875" style="10"/>
-    <col min="15" max="16384" width="9.1796875" style="17"/>
+    <col min="1" max="1" width="14.81640625" style="9" customWidth="1"/>
+    <col min="2" max="2" width="9.1796875" style="2"/>
+    <col min="3" max="4" width="9.1796875" style="3"/>
+    <col min="5" max="5" width="9.1796875" style="4"/>
+    <col min="6" max="6" width="9.1796875" style="2"/>
+    <col min="7" max="9" width="9.1796875" style="3"/>
+    <col min="10" max="10" width="9.1796875" style="4"/>
+    <col min="11" max="14" width="9.1796875" style="3"/>
+    <col min="15" max="16384" width="9.1796875" style="12"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="13.5" thickBot="1">
-      <c r="A1" s="13"/>
+      <c r="A1" s="10"/>
       <c r="B1" s="6" t="s">
         <v>2</v>
       </c>
@@ -811,298 +793,321 @@
       <c r="I1" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="16" t="s">
+      <c r="J1" s="11" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:16">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="J2" s="24"/>
+      <c r="J2" s="17"/>
     </row>
     <row r="3" spans="1:16">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="B3" s="9">
+      <c r="B3" s="2">
         <v>542.1</v>
       </c>
-      <c r="C3" s="10">
+      <c r="C3" s="3">
         <v>0.1</v>
       </c>
-      <c r="D3" s="10">
+      <c r="D3" s="3">
         <v>958.86919853128609</v>
       </c>
-      <c r="E3" s="11">
+      <c r="E3" s="4">
         <v>503.8</v>
       </c>
-      <c r="F3" s="9">
+      <c r="F3" s="2">
         <v>0.78029999999999999</v>
       </c>
-      <c r="G3" s="10">
+      <c r="G3" s="3">
         <v>0.1237</v>
       </c>
-      <c r="H3" s="10">
+      <c r="H3" s="3">
         <v>3.0099999999999998E-2</v>
       </c>
-      <c r="I3" s="10">
+      <c r="I3" s="3">
         <v>5.9400000000000001E-2</v>
       </c>
-      <c r="J3" s="24">
+      <c r="J3" s="17">
         <v>6.4999999999999997E-3</v>
       </c>
     </row>
     <row r="4" spans="1:16">
-      <c r="A4" s="28" t="s">
+      <c r="A4" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="J4" s="24"/>
+      <c r="B4" s="2">
+        <v>542.1</v>
+      </c>
+      <c r="C4" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="D4" s="3">
+        <v>958.86919853128609</v>
+      </c>
+      <c r="E4" s="4">
+        <v>503.8</v>
+      </c>
+      <c r="F4" s="2">
+        <v>0.78029999999999999</v>
+      </c>
+      <c r="G4" s="3">
+        <v>0.1237</v>
+      </c>
+      <c r="H4" s="3">
+        <v>3.0099999999999998E-2</v>
+      </c>
+      <c r="I4" s="3">
+        <v>5.9400000000000001E-2</v>
+      </c>
+      <c r="J4" s="17">
+        <v>6.4999999999999997E-3</v>
+      </c>
     </row>
     <row r="5" spans="1:16">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="9">
+      <c r="B5" s="2">
         <v>542.1</v>
       </c>
-      <c r="C5" s="10">
+      <c r="C5" s="3">
         <v>0.1</v>
       </c>
-      <c r="D5" s="10">
+      <c r="D5" s="3">
         <f>[1]!PropsSI("H","P",C5*10^6,"T",B5+273.15,"REFPROP::"&amp;[1]!MixtureString($F$1:$J$1,F5:J5))/1000</f>
         <v>958.86919853128609</v>
       </c>
-      <c r="E5" s="11">
+      <c r="E5" s="4">
         <v>503.8</v>
       </c>
-      <c r="F5" s="9">
+      <c r="F5" s="2">
         <v>0.78029999999999999</v>
       </c>
-      <c r="G5" s="10">
+      <c r="G5" s="3">
         <v>0.1237</v>
       </c>
-      <c r="H5" s="10">
+      <c r="H5" s="3">
         <v>3.0099999999999998E-2</v>
       </c>
-      <c r="I5" s="10">
+      <c r="I5" s="3">
         <v>5.9400000000000001E-2</v>
       </c>
-      <c r="J5" s="11">
+      <c r="J5" s="4">
         <v>6.4999999999999997E-3</v>
       </c>
-      <c r="P5" s="18"/>
+      <c r="P5" s="13"/>
     </row>
     <row r="6" spans="1:16">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="9">
+      <c r="B6" s="2">
         <v>468.05</v>
       </c>
-      <c r="C6" s="10">
+      <c r="C6" s="3">
         <v>0.1</v>
       </c>
-      <c r="D6" s="10">
+      <c r="D6" s="3">
         <f>[1]!PropsSI("H","P",C6*10^6,"T",B6+273.15,"REFPROP::"&amp;[1]!MixtureString($F$1:$J$1,F6:J6))/1000</f>
         <v>874.26792911178234</v>
       </c>
-      <c r="E6" s="11">
+      <c r="E6" s="4">
         <v>503.8</v>
       </c>
-      <c r="F6" s="9">
+      <c r="F6" s="2">
         <v>0.78029999999999999</v>
       </c>
-      <c r="G6" s="10">
+      <c r="G6" s="3">
         <v>0.1237</v>
       </c>
-      <c r="H6" s="10">
+      <c r="H6" s="3">
         <v>3.0099999999999998E-2</v>
       </c>
-      <c r="I6" s="10">
+      <c r="I6" s="3">
         <v>5.9400000000000001E-2</v>
       </c>
-      <c r="J6" s="11">
+      <c r="J6" s="4">
         <v>6.4999999999999997E-3</v>
       </c>
     </row>
     <row r="7" spans="1:16">
-      <c r="A7" s="12" t="s">
+      <c r="A7" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="9">
+      <c r="B7" s="2">
         <v>309.2</v>
       </c>
-      <c r="C7" s="10">
+      <c r="C7" s="3">
         <v>0.1</v>
       </c>
-      <c r="D7" s="10">
+      <c r="D7" s="3">
         <f>[1]!PropsSI("H","P",C7*10^6,"T",B7+273.15,"REFPROP::"&amp;[1]!MixtureString($F$1:$J$1,F7:J7))/1000</f>
         <v>697.66595139225319</v>
       </c>
-      <c r="E7" s="11">
+      <c r="E7" s="4">
         <v>503.8</v>
       </c>
-      <c r="F7" s="9">
+      <c r="F7" s="2">
         <v>0.78029999999999999</v>
       </c>
-      <c r="G7" s="10">
+      <c r="G7" s="3">
         <v>0.1237</v>
       </c>
-      <c r="H7" s="10">
+      <c r="H7" s="3">
         <v>3.0099999999999998E-2</v>
       </c>
-      <c r="I7" s="10">
+      <c r="I7" s="3">
         <v>5.9400000000000001E-2</v>
       </c>
-      <c r="J7" s="11">
+      <c r="J7" s="4">
         <v>6.4999999999999997E-3</v>
       </c>
     </row>
     <row r="8" spans="1:16">
-      <c r="A8" s="12" t="s">
+      <c r="A8" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="9">
+      <c r="B8" s="2">
         <v>235.9</v>
       </c>
-      <c r="C8" s="10">
+      <c r="C8" s="3">
         <v>0.1</v>
       </c>
-      <c r="D8" s="10">
+      <c r="D8" s="3">
         <f>[1]!PropsSI("H","P",C8*10^6,"T",B8+273.15,"REFPROP::"&amp;[1]!MixtureString($F$1:$J$1,F8:J8))/1000</f>
         <v>618.33586643179672</v>
       </c>
-      <c r="E8" s="11">
+      <c r="E8" s="4">
         <v>503.8</v>
       </c>
-      <c r="F8" s="9">
+      <c r="F8" s="2">
         <v>0.78029999999999999</v>
       </c>
-      <c r="G8" s="10">
+      <c r="G8" s="3">
         <v>0.1237</v>
       </c>
-      <c r="H8" s="10">
+      <c r="H8" s="3">
         <v>3.0099999999999998E-2</v>
       </c>
-      <c r="I8" s="10">
+      <c r="I8" s="3">
         <v>5.9400000000000001E-2</v>
       </c>
-      <c r="J8" s="11">
+      <c r="J8" s="4">
         <v>6.4999999999999997E-3</v>
       </c>
     </row>
     <row r="9" spans="1:16">
-      <c r="A9" s="12" t="s">
+      <c r="A9" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="9">
+      <c r="B9" s="2">
         <v>233</v>
       </c>
-      <c r="C9" s="10">
+      <c r="C9" s="3">
         <v>0.1</v>
       </c>
-      <c r="D9" s="10">
+      <c r="D9" s="3">
         <f>[1]!PropsSI("H","P",C9*10^6,"T",B9+273.15,"REFPROP::"&amp;[1]!MixtureString($F$1:$J$1,F9:J9))/1000</f>
         <v>615.22281759257271</v>
       </c>
-      <c r="E9" s="11">
+      <c r="E9" s="4">
         <v>503.8</v>
       </c>
-      <c r="F9" s="9">
+      <c r="F9" s="2">
         <v>0.78029999999999999</v>
       </c>
-      <c r="G9" s="10">
+      <c r="G9" s="3">
         <v>0.1237</v>
       </c>
-      <c r="H9" s="10">
+      <c r="H9" s="3">
         <v>3.0099999999999998E-2</v>
       </c>
-      <c r="I9" s="10">
+      <c r="I9" s="3">
         <v>5.9400000000000001E-2</v>
       </c>
-      <c r="J9" s="11">
+      <c r="J9" s="4">
         <v>6.4999999999999997E-3</v>
       </c>
     </row>
     <row r="10" spans="1:16">
-      <c r="A10" s="12" t="s">
+      <c r="A10" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="9">
+      <c r="B10" s="2">
         <v>175.5</v>
       </c>
-      <c r="C10" s="10">
+      <c r="C10" s="3">
         <v>0.1</v>
       </c>
-      <c r="D10" s="10">
+      <c r="D10" s="3">
         <f>[1]!PropsSI("H","P",C10*10^6,"T",B10+273.15,"REFPROP::"&amp;[1]!MixtureString($F$1:$J$1,F10:J10))/1000</f>
         <v>553.86016830512403</v>
       </c>
-      <c r="E10" s="11">
+      <c r="E10" s="4">
         <v>503.8</v>
       </c>
-      <c r="F10" s="9">
+      <c r="F10" s="2">
         <v>0.78029999999999999</v>
       </c>
-      <c r="G10" s="10">
+      <c r="G10" s="3">
         <v>0.1237</v>
       </c>
-      <c r="H10" s="10">
+      <c r="H10" s="3">
         <v>3.0099999999999998E-2</v>
       </c>
-      <c r="I10" s="10">
+      <c r="I10" s="3">
         <v>5.9400000000000001E-2</v>
       </c>
-      <c r="J10" s="11">
+      <c r="J10" s="4">
         <v>6.4999999999999997E-3</v>
       </c>
     </row>
     <row r="11" spans="1:16">
-      <c r="A11" s="12" t="s">
+      <c r="A11" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="9">
+      <c r="B11" s="2">
         <v>106.9</v>
       </c>
-      <c r="C11" s="10">
+      <c r="C11" s="3">
         <v>0.1</v>
       </c>
-      <c r="D11" s="10">
+      <c r="D11" s="3">
         <f>[1]!PropsSI("H","P",C11*10^6,"T",B11+273.15,"REFPROP::"&amp;[1]!MixtureString($F$1:$J$1,F11:J11))/1000</f>
         <v>481.43243266974537</v>
       </c>
-      <c r="E11" s="11">
+      <c r="E11" s="4">
         <v>503.8</v>
       </c>
-      <c r="F11" s="9">
+      <c r="F11" s="2">
         <v>0.78029999999999999</v>
       </c>
-      <c r="G11" s="10">
+      <c r="G11" s="3">
         <v>0.1237</v>
       </c>
-      <c r="H11" s="10">
+      <c r="H11" s="3">
         <v>3.0099999999999998E-2</v>
       </c>
-      <c r="I11" s="10">
+      <c r="I11" s="3">
         <v>5.9400000000000001E-2</v>
       </c>
-      <c r="J11" s="11">
+      <c r="J11" s="4">
         <v>6.4999999999999997E-3</v>
       </c>
     </row>
     <row r="12" spans="1:16">
-      <c r="A12" s="28" t="s">
+      <c r="A12" s="9" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="13" spans="1:16" ht="13.5" thickBot="1">
-      <c r="A13" s="29" t="s">
+      <c r="A13" s="21" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="14" spans="1:16">
-      <c r="C14" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1113,8 +1118,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A78D0049-A33A-42B4-86C2-1F7629C05FA7}">
   <dimension ref="A1:I43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="13"/>
@@ -1129,8 +1134,8 @@
     <col min="10" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="19" customFormat="1" ht="13.5" thickBot="1">
-      <c r="A1" s="20"/>
+    <row r="1" spans="1:8" ht="13.5" thickBot="1">
+      <c r="A1" s="14"/>
       <c r="B1" s="6" t="s">
         <v>2</v>
       </c>
@@ -1146,366 +1151,289 @@
       <c r="F1" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-    </row>
-    <row r="2" spans="1:9" s="19" customFormat="1">
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="5" t="s">
         <v>51</v>
       </c>
       <c r="B2" s="2">
         <v>15</v>
       </c>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
-    </row>
-    <row r="3" spans="1:9" s="15" customFormat="1">
-      <c r="A3" s="14" t="s">
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="B3" s="9">
+      <c r="B3" s="2">
         <v>511.5</v>
       </c>
-      <c r="C3" s="10">
+      <c r="C3" s="3">
         <v>8.407</v>
       </c>
-      <c r="D3" s="10">
+      <c r="D3" s="3">
         <f>[1]!PropsSI("H","T",B3+273.15,"P",C3*10^6,"Water")/1000</f>
         <v>3423.2099783420958</v>
       </c>
-      <c r="E3" s="11">
+      <c r="E3" s="4">
         <v>63.4</v>
       </c>
-      <c r="F3" s="3"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
-    </row>
-    <row r="4" spans="1:9" s="15" customFormat="1">
-      <c r="A4" s="14" t="s">
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="9">
+      <c r="B4" s="2">
         <f>[1]!PropsSI("T","P",C4*10^6,"Q",1,"Water")-273.15</f>
         <v>301.29755574753347</v>
       </c>
-      <c r="C4" s="10">
+      <c r="C4" s="3">
         <v>8.7460000000000004</v>
       </c>
-      <c r="D4" s="10">
+      <c r="D4" s="3">
         <f>[1]!PropsSI("H","T",B4+273.15,"Q",1,"Water")/1000</f>
         <v>2747.1040230157951</v>
       </c>
-      <c r="E4" s="11">
+      <c r="E4" s="4">
         <v>63.4</v>
       </c>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
-    </row>
-    <row r="5" spans="1:9" s="15" customFormat="1">
-      <c r="A5" s="14" t="s">
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="21">
+      <c r="B5" s="15">
         <v>298.8</v>
       </c>
-      <c r="C5" s="10">
+      <c r="C5" s="3">
         <v>8.7460000000000004</v>
       </c>
-      <c r="D5" s="10">
+      <c r="D5" s="3">
         <f>[1]!PropsSI("H","T",B5+273.15,"P",C5*10^6,"Water")/1000</f>
         <v>1337.9482651031026</v>
       </c>
-      <c r="E5" s="11">
+      <c r="E5" s="4">
         <v>63.4</v>
       </c>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10"/>
-    </row>
-    <row r="6" spans="1:9" s="15" customFormat="1">
-      <c r="A6" s="14" t="s">
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="9">
+      <c r="B6" s="2">
         <v>166.5</v>
       </c>
-      <c r="C6" s="10">
+      <c r="C6" s="3">
         <v>8.7460000000000004</v>
       </c>
-      <c r="D6" s="10">
+      <c r="D6" s="3">
         <f>[1]!PropsSI("H","T",B6+273.15,"P",C6*10^6,"Water")/1000</f>
         <v>708.31984887431838</v>
       </c>
-      <c r="E6" s="11">
+      <c r="E6" s="4">
         <v>63.4</v>
       </c>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
-    </row>
-    <row r="7" spans="1:9" s="15" customFormat="1">
-      <c r="A7" s="14" t="s">
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="9">
+      <c r="B7" s="2">
         <f>[1]!PropsSI("T","P",C7*10^6,"Q",0,"Water")-273.15</f>
         <v>164.73836143543406</v>
       </c>
-      <c r="C7" s="10">
+      <c r="C7" s="3">
         <v>0.69640000000000002</v>
       </c>
-      <c r="D7" s="10">
+      <c r="D7" s="3">
         <f>[1]!PropsSI("H","T",B7+273.15,"Q",0,"Water")/1000</f>
         <v>696.09556718341082</v>
       </c>
-      <c r="E7" s="11">
+      <c r="E7" s="4">
         <v>63.4</v>
       </c>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="10"/>
-    </row>
-    <row r="8" spans="1:9" s="15" customFormat="1">
-      <c r="A8" s="14" t="s">
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B8" s="9">
+      <c r="B8" s="2">
         <v>211.6</v>
       </c>
-      <c r="C8" s="10">
+      <c r="C8" s="3">
         <v>0.69099999999999995</v>
       </c>
-      <c r="D8" s="10">
+      <c r="D8" s="3">
         <f>[1]!PropsSI("H","T",B8+273.15,"P",C8*10^6,"Water")/1000</f>
         <v>2871.4818365716997</v>
       </c>
-      <c r="E8" s="11">
+      <c r="E8" s="4">
         <v>14.76</v>
       </c>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10"/>
-    </row>
-    <row r="9" spans="1:9" s="15" customFormat="1">
-      <c r="A9" s="14" t="s">
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="9">
+      <c r="B9" s="2">
         <f>[1]!PropsSI("T","P",C9*10^6,"Q",1,"Water")-273.15</f>
         <v>164.73836143543406</v>
       </c>
-      <c r="C9" s="10">
+      <c r="C9" s="3">
         <v>0.69640000000000002</v>
       </c>
-      <c r="D9" s="10">
+      <c r="D9" s="3">
         <f>[1]!PropsSI("H","P",C9*10^6,"Q",1,"Water")/1000</f>
         <v>2762.534980413358</v>
       </c>
-      <c r="E9" s="11">
+      <c r="E9" s="4">
         <v>14.76</v>
       </c>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="10"/>
-    </row>
-    <row r="10" spans="1:9" s="15" customFormat="1">
-      <c r="A10" s="14" t="s">
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="21">
+      <c r="B10" s="15">
         <v>164.6</v>
       </c>
-      <c r="C10" s="10">
+      <c r="C10" s="3">
         <v>0.69640000000000002</v>
       </c>
-      <c r="D10" s="10">
+      <c r="D10" s="3">
         <f>[1]!PropsSI("H","T",B10+273.15,"P",C10*10^6,"Water")/1000</f>
         <v>695.4937008073166</v>
       </c>
-      <c r="E10" s="11">
+      <c r="E10" s="4">
         <f>E9+E7</f>
         <v>78.16</v>
       </c>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="10"/>
-    </row>
-    <row r="11" spans="1:9" s="15" customFormat="1">
-      <c r="A11" s="14" t="s">
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="B11" s="21">
+      <c r="B11" s="15">
         <v>164.6</v>
       </c>
-      <c r="C11" s="10">
+      <c r="C11" s="3">
         <v>0.69640000000000002</v>
       </c>
-      <c r="D11" s="10">
+      <c r="D11" s="3">
         <v>695.4937008073166</v>
       </c>
-      <c r="E11" s="11">
+      <c r="E11" s="4">
         <v>82.91</v>
       </c>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-    </row>
-    <row r="12" spans="1:9" s="15" customFormat="1">
-      <c r="A12" s="28" t="s">
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="B12" s="30">
+      <c r="B12" s="22">
         <v>60</v>
       </c>
-      <c r="C12" s="23">
+      <c r="C12" s="3">
         <v>0.69640000000000002</v>
       </c>
-      <c r="D12" s="23">
+      <c r="D12" s="3">
         <v>251.74839576328077</v>
       </c>
       <c r="E12" s="4">
         <v>82.91</v>
       </c>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-    </row>
-    <row r="13" spans="1:9" s="15" customFormat="1">
-      <c r="A13" s="28" t="s">
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="B13" s="30">
+      <c r="B13" s="22">
         <v>44.2</v>
       </c>
-      <c r="C13" s="23">
+      <c r="C13" s="3">
         <v>0.69640000000000002</v>
       </c>
-      <c r="D13" s="23">
+      <c r="D13" s="3">
         <v>185.7</v>
       </c>
       <c r="E13" s="4">
         <v>78.16</v>
       </c>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-    </row>
-    <row r="14" spans="1:9" s="15" customFormat="1">
-      <c r="A14" s="28" t="s">
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="B14" s="23">
+      <c r="B14" s="3">
         <v>44.2</v>
       </c>
-      <c r="C14" s="23">
+      <c r="C14" s="3">
         <v>0.69640000000000002</v>
       </c>
-      <c r="D14" s="23">
+      <c r="D14" s="3">
         <v>185.7</v>
       </c>
       <c r="E14" s="4">
         <v>78.16</v>
       </c>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-    </row>
-    <row r="15" spans="1:9" s="15" customFormat="1">
-      <c r="A15" s="22" t="s">
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="B15" s="9">
+      <c r="B15" s="2">
         <v>79.730222232833995</v>
       </c>
-      <c r="C15" s="10">
+      <c r="C15" s="3">
         <v>4.6898905908277499E-2</v>
       </c>
-      <c r="D15" s="10"/>
-      <c r="E15" s="11" t="s">
+      <c r="E15" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="10"/>
-    </row>
-    <row r="16" spans="1:9" s="15" customFormat="1">
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="9">
+      <c r="B16" s="2">
         <v>49.839511130751802</v>
       </c>
-      <c r="C16" s="10">
+      <c r="C16" s="3">
         <v>4.6898905908277499E-2</v>
       </c>
-      <c r="D16" s="10"/>
-      <c r="E16" s="11" t="s">
+      <c r="E16" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="27"/>
-      <c r="I16" s="10"/>
-    </row>
-    <row r="17" spans="1:9" s="15" customFormat="1">
+      <c r="H16" s="20"/>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="B17" s="9">
+      <c r="B17" s="2">
         <v>46</v>
       </c>
-      <c r="C17" s="10">
+      <c r="C17" s="3">
         <v>1</v>
       </c>
-      <c r="D17" s="10"/>
-      <c r="E17" s="11">
+      <c r="E17" s="4">
         <v>800</v>
       </c>
-      <c r="F17" s="10"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="10"/>
-      <c r="I17" s="10"/>
-    </row>
-    <row r="18" spans="1:9" s="15" customFormat="1">
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B18" s="9">
+      <c r="B18" s="2">
         <v>46</v>
       </c>
-      <c r="C18" s="10">
+      <c r="C18" s="3">
         <v>1</v>
       </c>
-      <c r="D18" s="10"/>
-      <c r="E18" s="11">
+      <c r="E18" s="4">
         <v>100.77673095348899</v>
       </c>
-      <c r="F18" s="10"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="10"/>
-      <c r="I18" s="10"/>
-    </row>
-    <row r="19" spans="1:9">
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="5" t="s">
         <v>25</v>
       </c>
@@ -1515,12 +1443,12 @@
       <c r="C19" s="3">
         <v>1</v>
       </c>
-      <c r="E19" s="11">
+      <c r="E19" s="4">
         <v>100.77673095348899</v>
       </c>
-      <c r="H19" s="27"/>
-    </row>
-    <row r="20" spans="1:9">
+      <c r="H19" s="20"/>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="5" t="s">
         <v>27</v>
       </c>
@@ -1537,7 +1465,7 @@
         <v>32.141666666666602</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:8">
       <c r="A21" s="5" t="s">
         <v>28</v>
       </c>
@@ -1553,9 +1481,8 @@
       <c r="E21" s="4">
         <v>32.141666666666602</v>
       </c>
-      <c r="H21" s="10"/>
-    </row>
-    <row r="22" spans="1:9">
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="5" t="s">
         <v>29</v>
       </c>
@@ -1573,7 +1500,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:8">
       <c r="A23" s="5" t="s">
         <v>30</v>
       </c>
@@ -1591,17 +1518,17 @@
         <v>800</v>
       </c>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:8">
       <c r="A24" s="5" t="s">
         <v>31</v>
       </c>
       <c r="B24" s="2">
         <v>48.336070686070599</v>
       </c>
-      <c r="C24" s="23">
+      <c r="C24" s="3">
         <v>1</v>
       </c>
-      <c r="D24" s="23">
+      <c r="D24" s="3">
         <f>B24*4.187</f>
         <v>202.38312796257762</v>
       </c>
@@ -1610,7 +1537,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:8">
       <c r="A25" s="5" t="s">
         <v>32</v>
       </c>
@@ -1627,7 +1554,7 @@
         <v>43.733333333333299</v>
       </c>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:8">
       <c r="A26" s="5" t="s">
         <v>35</v>
       </c>
@@ -1637,7 +1564,7 @@
       <c r="C26" s="3">
         <v>7.8449999999999998</v>
       </c>
-      <c r="D26" s="10">
+      <c r="D26" s="3">
         <f>[1]!PropsSI("H","T",B26+273.15,"P",C26*10^6,"Water")/1000</f>
         <v>3422.525471918223</v>
       </c>
@@ -1645,7 +1572,7 @@
         <v>63.4</v>
       </c>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:8">
       <c r="A27" s="5" t="s">
         <v>37</v>
       </c>
@@ -1655,7 +1582,7 @@
       <c r="C27" s="3">
         <v>0.54900000000000004</v>
       </c>
-      <c r="D27" s="10">
+      <c r="D27" s="3">
         <v>2844.2851295823216</v>
       </c>
       <c r="E27" s="4">
@@ -1663,7 +1590,7 @@
         <v>63.4</v>
       </c>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:8">
       <c r="A28" s="5" t="s">
         <v>36</v>
       </c>
@@ -1673,7 +1600,7 @@
       <c r="C28" s="3">
         <v>0.61099999999999999</v>
       </c>
-      <c r="D28" s="10">
+      <c r="D28" s="3">
         <f>[1]!PropsSI("H","T",B28+273.15,"P",C28*10^6,"Water")/1000</f>
         <v>2871.4269447672918</v>
       </c>
@@ -1686,7 +1613,7 @@
         <v>7.0037387010430008</v>
       </c>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:8">
       <c r="A29" s="5" t="s">
         <v>42</v>
       </c>
@@ -1696,7 +1623,7 @@
       <c r="C29" s="3">
         <v>0.54900000000000004</v>
       </c>
-      <c r="D29" s="10">
+      <c r="D29" s="3">
         <f>[1]!PropsSI("H","T",B29+273.15,"P",C29*10^6,"Water")/1000</f>
         <v>2848.5216025782688</v>
       </c>
@@ -1709,7 +1636,7 @@
         <v>7.0036012848044198</v>
       </c>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:8">
       <c r="A30" s="5" t="s">
         <v>38</v>
       </c>
@@ -1719,7 +1646,7 @@
       <c r="C30" s="3">
         <v>0.25419999999999998</v>
       </c>
-      <c r="D30" s="10">
+      <c r="D30" s="3">
         <f>[1]!PropsSI("H","T",B30+273.15,"P",C30*10^6,"Water")/1000</f>
         <v>2724.8615334140964</v>
       </c>
@@ -1732,14 +1659,14 @@
         <v>7.0657703965611702</v>
       </c>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:8">
       <c r="A31" s="5" t="s">
         <v>39</v>
       </c>
       <c r="C31" s="3">
         <v>0.1525</v>
       </c>
-      <c r="D31" s="10">
+      <c r="D31" s="3">
         <v>2652</v>
       </c>
       <c r="E31" s="4">
@@ -1750,7 +1677,7 @@
         <v>7.109</v>
       </c>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:8">
       <c r="A32" s="5" t="s">
         <v>40</v>
       </c>
@@ -1824,12 +1751,12 @@
       </c>
     </row>
     <row r="36" spans="1:9">
-      <c r="A36" s="22" t="s">
+      <c r="A36" s="16" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="37" spans="1:9">
-      <c r="A37" s="22" t="s">
+      <c r="A37" s="16" t="s">
         <v>53</v>
       </c>
     </row>
@@ -1837,23 +1764,23 @@
       <c r="A38" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="G38" s="25"/>
+      <c r="G38" s="18"/>
     </row>
     <row r="39" spans="1:9">
-      <c r="A39" s="22" t="s">
+      <c r="A39" s="16" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="40" spans="1:9">
-      <c r="A40" s="22" t="s">
+      <c r="A40" s="16" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="43" spans="1:9">
-      <c r="F43" s="26"/>
-      <c r="G43" s="27"/>
-      <c r="H43" s="27"/>
-      <c r="I43" s="25"/>
+      <c r="F43" s="19"/>
+      <c r="G43" s="20"/>
+      <c r="H43" s="20"/>
+      <c r="I43" s="18"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
